--- a/Pintle/Pintle Injector Design Documentation/Pintle_V3_python_hand_calcs.xlsx
+++ b/Pintle/Pintle Injector Design Documentation/Pintle_V3_python_hand_calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jntil\Documents\Git_Repos\liquid-engine-test-stand\Pintle\Pintle Injector Design Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0032C36-FD35-4AC4-B1D3-ABA5101E93FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97009608-718D-4074-B763-08E7C19E379D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-8595" yWindow="2760" windowWidth="13185" windowHeight="10590" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2010" yWindow="2370" windowWidth="6630" windowHeight="7770" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Injector V3 mjp T4A" sheetId="8" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Injector V3.0A" sheetId="7" r:id="rId10"/>
     <sheet name="Injector V3.0" sheetId="2" r:id="rId11"/>
     <sheet name="DOE1" sheetId="12" r:id="rId12"/>
+    <sheet name="DOE2" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="117">
   <si>
     <t>Pintle</t>
   </si>
@@ -334,6 +335,72 @@
   <si>
     <t>center</t>
   </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Range 1</t>
+  </si>
+  <si>
+    <t>Range 2</t>
+  </si>
+  <si>
+    <t>Range 3</t>
+  </si>
+  <si>
+    <t>Range 4</t>
+  </si>
+  <si>
+    <t>mdot .25</t>
+  </si>
+  <si>
+    <t>mdot .35</t>
+  </si>
+  <si>
+    <t>mdot .45</t>
+  </si>
+  <si>
+    <t>mdot .55</t>
+  </si>
+  <si>
+    <t>mdot .65</t>
+  </si>
+  <si>
+    <t>exit velocity</t>
+  </si>
+  <si>
+    <t>.3 kg/s</t>
+  </si>
+  <si>
+    <t>OD 0.46</t>
+  </si>
+  <si>
+    <t>OD 0.55</t>
+  </si>
+  <si>
+    <t>mdot 1.5</t>
+  </si>
+  <si>
+    <t>mdot 1.4</t>
+  </si>
+  <si>
+    <t>pintle OD 0.75</t>
+  </si>
+  <si>
+    <t>Range 5</t>
+  </si>
+  <si>
+    <t>pintle OD</t>
+  </si>
+  <si>
+    <t>cham</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
 </sst>
 </file>
 
@@ -506,7 +573,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="49">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -782,6 +849,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -1017,7 +1090,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="127">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1245,14 +1318,47 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="44" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1278,12 +1384,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="48" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="44" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1319,12 +1419,21 @@
     <xf numFmtId="0" fontId="18" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1682,8 +1791,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B43E7F-9391-4F52-B1F2-ACA9ED6BA5F7}">
   <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1702,20 +1811,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="93"/>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="97"/>
+      <c r="G1" s="93"/>
       <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
@@ -1724,20 +1833,20 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="86"/>
+      <c r="B2" s="95"/>
       <c r="C2" s="6">
         <v>0.44</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="86"/>
+      <c r="G2" s="95"/>
       <c r="H2" s="6">
         <v>0.25</v>
       </c>
@@ -1746,20 +1855,20 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="86"/>
+      <c r="B3" s="95"/>
       <c r="C3" s="6">
         <v>0.221</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="86"/>
+      <c r="G3" s="95"/>
       <c r="H3" s="6">
         <v>0.25</v>
       </c>
@@ -1768,20 +1877,20 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="86"/>
+      <c r="B4" s="95"/>
       <c r="C4" s="6">
         <v>0.42099999999999999</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="86"/>
+      <c r="G4" s="95"/>
       <c r="H4" s="6">
         <v>0.21</v>
       </c>
@@ -1790,20 +1899,20 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="86"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="6">
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="86"/>
+      <c r="G5" s="95"/>
       <c r="H5" s="6">
         <v>0.86499999999999999</v>
       </c>
@@ -1812,20 +1921,20 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="84"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="6">
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="86"/>
+      <c r="G6" s="95"/>
       <c r="H6" s="6">
         <v>0.51559999999999995</v>
       </c>
@@ -1834,18 +1943,18 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="84"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="7">
         <v>0.57613333318776305</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="86"/>
+      <c r="G7" s="95"/>
       <c r="H7" s="6">
         <v>4.7299999999999898E-2</v>
       </c>
@@ -1899,41 +2008,41 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="89" t="s">
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="91"/>
-      <c r="W11" s="95" t="s">
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="X11" s="95"/>
-      <c r="Y11" s="95"/>
-      <c r="Z11" s="95"/>
-      <c r="AA11" s="95"/>
-      <c r="AB11" s="95"/>
-      <c r="AC11" s="95"/>
+      <c r="X11" s="106"/>
+      <c r="Y11" s="106"/>
+      <c r="Z11" s="106"/>
+      <c r="AA11" s="106"/>
+      <c r="AB11" s="106"/>
+      <c r="AC11" s="106"/>
     </row>
     <row r="12" spans="1:29" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -2534,43 +2643,43 @@
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" s="88" t="s">
+      <c r="A24" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-      <c r="K24" s="88"/>
-      <c r="L24" s="88"/>
-      <c r="M24" s="92" t="s">
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="N24" s="93"/>
-      <c r="O24" s="93"/>
-      <c r="P24" s="93"/>
-      <c r="Q24" s="93"/>
-      <c r="R24" s="93"/>
-      <c r="S24" s="93"/>
-      <c r="T24" s="93"/>
-      <c r="U24" s="93"/>
-      <c r="V24" s="93"/>
-      <c r="W24" s="93"/>
-      <c r="X24" s="94"/>
-      <c r="Y24" s="95" t="s">
+      <c r="N24" s="104"/>
+      <c r="O24" s="104"/>
+      <c r="P24" s="104"/>
+      <c r="Q24" s="104"/>
+      <c r="R24" s="104"/>
+      <c r="S24" s="104"/>
+      <c r="T24" s="104"/>
+      <c r="U24" s="104"/>
+      <c r="V24" s="104"/>
+      <c r="W24" s="104"/>
+      <c r="X24" s="105"/>
+      <c r="Y24" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="Z24" s="95"/>
-      <c r="AA24" s="95"/>
-      <c r="AB24" s="95"/>
-      <c r="AC24" s="95"/>
-      <c r="AD24" s="95"/>
-      <c r="AE24" s="95"/>
+      <c r="Z24" s="106"/>
+      <c r="AA24" s="106"/>
+      <c r="AB24" s="106"/>
+      <c r="AC24" s="106"/>
+      <c r="AD24" s="106"/>
+      <c r="AE24" s="106"/>
     </row>
     <row r="25" spans="1:31" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
@@ -3245,18 +3354,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="A11:L11"/>
@@ -3265,6 +3362,18 @@
     <mergeCell ref="M24:X24"/>
     <mergeCell ref="W11:AC11"/>
     <mergeCell ref="Y24:AE24"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3300,20 +3409,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="93"/>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="97"/>
+      <c r="G1" s="93"/>
       <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
@@ -3322,20 +3431,20 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="86"/>
+      <c r="B2" s="95"/>
       <c r="C2" s="6">
         <v>0.44</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="86"/>
+      <c r="G2" s="95"/>
       <c r="H2" s="6">
         <v>0.25</v>
       </c>
@@ -3344,20 +3453,20 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="86"/>
+      <c r="B3" s="95"/>
       <c r="C3" s="6">
         <v>0.221</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="86"/>
+      <c r="G3" s="95"/>
       <c r="H3" s="6">
         <v>0.25</v>
       </c>
@@ -3366,20 +3475,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="86"/>
+      <c r="B4" s="95"/>
       <c r="C4" s="6">
         <v>0.42099999999999999</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="86"/>
+      <c r="G4" s="95"/>
       <c r="H4" s="6">
         <v>0.21</v>
       </c>
@@ -3388,20 +3497,20 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="86"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="6">
         <v>5.9499999999999997E-2</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="86"/>
+      <c r="G5" s="95"/>
       <c r="H5" s="6">
         <v>0.86499999999999999</v>
       </c>
@@ -3410,20 +3519,20 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="84"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="6">
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="86"/>
+      <c r="G6" s="95"/>
       <c r="H6" s="6">
         <v>0.46875</v>
       </c>
@@ -3432,18 +3541,18 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="84"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="6">
         <v>0.54</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="86"/>
+      <c r="G7" s="95"/>
       <c r="H7" s="6">
         <v>2.3900000000000001E-2</v>
       </c>
@@ -3497,32 +3606,32 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="108" t="s">
+      <c r="A11" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="108"/>
-      <c r="M11" s="89" t="s">
+      <c r="B11" s="117"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="91"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="102"/>
     </row>
     <row r="12" spans="1:22" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -4999,34 +5108,34 @@
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="104" t="s">
+      <c r="A47" s="113" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="104"/>
-      <c r="C47" s="104"/>
-      <c r="D47" s="104"/>
-      <c r="E47" s="104"/>
-      <c r="F47" s="104"/>
-      <c r="G47" s="104"/>
-      <c r="H47" s="104"/>
-      <c r="I47" s="104"/>
-      <c r="J47" s="104"/>
-      <c r="K47" s="104"/>
-      <c r="L47" s="104"/>
-      <c r="M47" s="104" t="s">
+      <c r="B47" s="113"/>
+      <c r="C47" s="113"/>
+      <c r="D47" s="113"/>
+      <c r="E47" s="113"/>
+      <c r="F47" s="113"/>
+      <c r="G47" s="113"/>
+      <c r="H47" s="113"/>
+      <c r="I47" s="113"/>
+      <c r="J47" s="113"/>
+      <c r="K47" s="113"/>
+      <c r="L47" s="113"/>
+      <c r="M47" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="N47" s="104"/>
-      <c r="O47" s="104"/>
-      <c r="P47" s="104"/>
-      <c r="Q47" s="104"/>
-      <c r="R47" s="104"/>
-      <c r="S47" s="104"/>
-      <c r="T47" s="104"/>
-      <c r="U47" s="104"/>
-      <c r="V47" s="104"/>
-      <c r="W47" s="104"/>
-      <c r="X47" s="104"/>
+      <c r="N47" s="113"/>
+      <c r="O47" s="113"/>
+      <c r="P47" s="113"/>
+      <c r="Q47" s="113"/>
+      <c r="R47" s="113"/>
+      <c r="S47" s="113"/>
+      <c r="T47" s="113"/>
+      <c r="U47" s="113"/>
+      <c r="V47" s="113"/>
+      <c r="W47" s="113"/>
+      <c r="X47" s="113"/>
     </row>
     <row r="48" spans="1:24" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
@@ -6532,16 +6641,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="M11:V11"/>
-    <mergeCell ref="A47:L47"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="M47:X47"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="A7:B7"/>
@@ -6550,6 +6649,16 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="M11:V11"/>
+    <mergeCell ref="A47:L47"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="M47:X47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6577,10 +6686,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="93"/>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
@@ -6589,10 +6698,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="86"/>
+      <c r="B2" s="95"/>
       <c r="C2" s="6">
         <v>0.44</v>
       </c>
@@ -6601,10 +6710,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="86"/>
+      <c r="B3" s="95"/>
       <c r="C3" s="6">
         <v>0.221</v>
       </c>
@@ -6613,10 +6722,10 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="86"/>
+      <c r="B4" s="95"/>
       <c r="C4" s="6">
         <v>0.42099999999999999</v>
       </c>
@@ -6625,10 +6734,10 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="86"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="6">
         <v>5.9499999999999997E-2</v>
       </c>
@@ -6637,10 +6746,10 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="84"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="6">
         <v>12</v>
       </c>
@@ -6649,10 +6758,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="84"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="6">
         <v>0.54</v>
       </c>
@@ -7749,10 +7858,10 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="85" t="s">
+      <c r="A42" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="86"/>
+      <c r="B42" s="95"/>
       <c r="C42" s="6">
         <v>0.25</v>
       </c>
@@ -7761,10 +7870,10 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="85" t="s">
+      <c r="A43" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="86"/>
+      <c r="B43" s="95"/>
       <c r="C43" s="6">
         <v>0.25</v>
       </c>
@@ -7773,10 +7882,10 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="85" t="s">
+      <c r="A44" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="86"/>
+      <c r="B44" s="95"/>
       <c r="C44" s="6">
         <v>0.21</v>
       </c>
@@ -7785,10 +7894,10 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="85" t="s">
+      <c r="A45" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="86"/>
+      <c r="B45" s="95"/>
       <c r="C45" s="6">
         <v>0.86499999999999999</v>
       </c>
@@ -7797,10 +7906,10 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="85" t="s">
+      <c r="A46" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="86"/>
+      <c r="B46" s="95"/>
       <c r="C46" s="6">
         <v>0.46875</v>
       </c>
@@ -7809,10 +7918,10 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="85" t="s">
+      <c r="A47" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="86"/>
+      <c r="B47" s="95"/>
       <c r="C47" s="6">
         <v>2.3900000000000001E-2</v>
       </c>
@@ -8900,6 +9009,12 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A42:B42"/>
@@ -8907,12 +9022,6 @@
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A46:B46"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8923,8 +9032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F5461F-8368-48AF-923C-ACCAFDFFD123}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9420,25 +9529,25 @@
       <c r="A24" t="s">
         <v>94</v>
       </c>
-      <c r="B24" s="110">
+      <c r="B24" s="85">
         <f>(B23-B22)/2+B20</f>
         <v>0.57999999999999996</v>
       </c>
-      <c r="C24" s="109">
+      <c r="C24" s="84">
         <f>(C22-C23)/2+C20</f>
         <v>0.4</v>
       </c>
-      <c r="D24" s="109">
+      <c r="D24" s="84">
         <f>(D23-D22)/2+D19</f>
         <v>0.5</v>
       </c>
-      <c r="E24" s="109">
+      <c r="E24" s="84">
         <v>2.6497999999999999</v>
       </c>
-      <c r="F24" s="109">
+      <c r="F24" s="84">
         <v>6.18</v>
       </c>
-      <c r="G24" s="109">
+      <c r="G24" s="84">
         <v>42.643999999999998</v>
       </c>
     </row>
@@ -9569,6 +9678,3446 @@
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7151EEB2-A148-497B-8F06-60E1B180A556}">
+  <dimension ref="A2:AI83"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="3" width="12.42578125" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B2" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="87" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B3" s="87" t="s">
+        <v>95</v>
+      </c>
+      <c r="C3" s="87" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B4" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="87" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B5" s="87" t="s">
+        <v>96</v>
+      </c>
+      <c r="C5" s="87" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B6" s="83">
+        <v>0</v>
+      </c>
+      <c r="C6" s="83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>108</v>
+      </c>
+      <c r="W7" t="s">
+        <v>104</v>
+      </c>
+      <c r="X7" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD7" t="s">
+        <v>105</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" s="112" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="112"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="112"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="112"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="112" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="112"/>
+      <c r="J8" s="112"/>
+      <c r="K8" s="112"/>
+      <c r="L8" s="112"/>
+      <c r="M8" s="112"/>
+      <c r="N8" s="86"/>
+      <c r="O8" s="112" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8" s="112"/>
+      <c r="Q8" s="112"/>
+      <c r="R8" s="112"/>
+      <c r="S8" s="112"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="86"/>
+      <c r="V8" s="112" t="s">
+        <v>100</v>
+      </c>
+      <c r="W8" s="112"/>
+      <c r="X8" s="112"/>
+      <c r="Y8" s="112"/>
+      <c r="Z8" s="112"/>
+      <c r="AA8" s="112"/>
+      <c r="AB8" s="86"/>
+      <c r="AC8" s="112" t="s">
+        <v>113</v>
+      </c>
+      <c r="AD8" s="112"/>
+      <c r="AE8" s="112"/>
+      <c r="AF8" s="112"/>
+      <c r="AG8" s="112"/>
+      <c r="AH8" s="112"/>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D9" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" t="s">
+        <v>81</v>
+      </c>
+      <c r="K9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" t="s">
+        <v>89</v>
+      </c>
+      <c r="M9" t="s">
+        <v>19</v>
+      </c>
+      <c r="N9" t="s">
+        <v>106</v>
+      </c>
+      <c r="O9" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>81</v>
+      </c>
+      <c r="R9" t="s">
+        <v>82</v>
+      </c>
+      <c r="S9" t="s">
+        <v>89</v>
+      </c>
+      <c r="T9" t="s">
+        <v>19</v>
+      </c>
+      <c r="U9" t="s">
+        <v>106</v>
+      </c>
+      <c r="V9" t="s">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>80</v>
+      </c>
+      <c r="X9" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" s="83">
+        <v>0.06</v>
+      </c>
+      <c r="C10" s="83">
+        <v>0.22</v>
+      </c>
+      <c r="D10" s="86">
+        <v>2.2490000000000001</v>
+      </c>
+      <c r="E10" s="86">
+        <v>24.3</v>
+      </c>
+      <c r="F10" s="86">
+        <v>167.655</v>
+      </c>
+      <c r="G10" s="86"/>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="83">
+        <f t="shared" ref="I10:J12" si="0">B10+0.02</f>
+        <v>0.08</v>
+      </c>
+      <c r="J10" s="83">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="K10" s="86">
+        <v>3.1579999999999999</v>
+      </c>
+      <c r="L10" s="86">
+        <v>25.3</v>
+      </c>
+      <c r="M10" s="86">
+        <v>174.25700000000001</v>
+      </c>
+      <c r="N10" s="86">
+        <v>10.52</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10" s="86">
+        <f t="shared" ref="P10:Q12" si="1">I10+0.02</f>
+        <v>0.1</v>
+      </c>
+      <c r="Q10" s="86">
+        <f t="shared" si="1"/>
+        <v>0.26</v>
+      </c>
+      <c r="R10" s="83">
+        <v>4.0460000000000003</v>
+      </c>
+      <c r="S10" s="83">
+        <v>25.3</v>
+      </c>
+      <c r="T10" s="83">
+        <v>174.42400000000001</v>
+      </c>
+      <c r="U10" s="91">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+      <c r="W10" s="86">
+        <f t="shared" ref="W10:X12" si="2">P10+0.02</f>
+        <v>0.12000000000000001</v>
+      </c>
+      <c r="X10" s="86">
+        <f t="shared" si="2"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y10" s="83">
+        <v>5.2489999999999997</v>
+      </c>
+      <c r="Z10" s="83">
+        <v>23.6</v>
+      </c>
+      <c r="AA10" s="83">
+        <v>162.53800000000001</v>
+      </c>
+      <c r="AB10" s="86">
+        <v>7.88</v>
+      </c>
+      <c r="AC10">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="86">
+        <f t="shared" ref="AD10:AE12" si="3">W10+0.02</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AE10" s="86">
+        <f t="shared" si="3"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AF10" s="83">
+        <v>5.4710000000000001</v>
+      </c>
+      <c r="AG10" s="83">
+        <v>21.3</v>
+      </c>
+      <c r="AH10" s="83">
+        <v>146.852</v>
+      </c>
+      <c r="AI10" s="86">
+        <v>7.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" s="83">
+        <v>0.06</v>
+      </c>
+      <c r="C11" s="83">
+        <v>0.2</v>
+      </c>
+      <c r="D11" s="86">
+        <v>2.528</v>
+      </c>
+      <c r="E11" s="86">
+        <v>27.2</v>
+      </c>
+      <c r="F11" s="86">
+        <v>188.12700000000001</v>
+      </c>
+      <c r="G11" s="86">
+        <v>12.21</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" s="83">
+        <f t="shared" si="0"/>
+        <v>0.08</v>
+      </c>
+      <c r="J11" s="83">
+        <f t="shared" si="0"/>
+        <v>0.22</v>
+      </c>
+      <c r="K11" s="82">
+        <v>3.69</v>
+      </c>
+      <c r="L11" s="86">
+        <v>31.7</v>
+      </c>
+      <c r="M11" s="86">
+        <v>218.34100000000001</v>
+      </c>
+      <c r="N11" s="86">
+        <v>10.89</v>
+      </c>
+      <c r="O11">
+        <v>2</v>
+      </c>
+      <c r="P11" s="86">
+        <f t="shared" si="1"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q11" s="86">
+        <f t="shared" si="1"/>
+        <v>0.24</v>
+      </c>
+      <c r="R11" s="83">
+        <v>4.7789999999999999</v>
+      </c>
+      <c r="S11" s="83">
+        <v>32.1</v>
+      </c>
+      <c r="T11" s="83">
+        <v>221.06700000000001</v>
+      </c>
+      <c r="U11" s="86">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="V11">
+        <v>2</v>
+      </c>
+      <c r="W11" s="86">
+        <f t="shared" si="2"/>
+        <v>0.12000000000000001</v>
+      </c>
+      <c r="X11" s="86">
+        <f t="shared" si="2"/>
+        <v>0.26</v>
+      </c>
+      <c r="Y11" s="82">
+        <v>6.3</v>
+      </c>
+      <c r="Z11" s="83">
+        <v>29.7</v>
+      </c>
+      <c r="AA11" s="82">
+        <v>204.73</v>
+      </c>
+      <c r="AB11" s="86">
+        <v>8.07</v>
+      </c>
+      <c r="AC11">
+        <v>2</v>
+      </c>
+      <c r="AD11" s="86">
+        <f t="shared" si="3"/>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AE11" s="86">
+        <f t="shared" si="3"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AF11" s="83">
+        <v>6.5679999999999996</v>
+      </c>
+      <c r="AG11" s="83">
+        <v>27.3</v>
+      </c>
+      <c r="AH11" s="83">
+        <v>188.43199999999999</v>
+      </c>
+      <c r="AI11" s="86">
+        <v>7.58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" s="83">
+        <v>0.04</v>
+      </c>
+      <c r="C12" s="83">
+        <v>0.22</v>
+      </c>
+      <c r="D12" s="82">
+        <v>1.89</v>
+      </c>
+      <c r="E12" s="86">
+        <v>112</v>
+      </c>
+      <c r="F12" s="86">
+        <v>771.98599999999999</v>
+      </c>
+      <c r="G12" s="86">
+        <v>28.62</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12" s="83">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="J12" s="83">
+        <f t="shared" si="0"/>
+        <v>0.24</v>
+      </c>
+      <c r="K12" s="86">
+        <v>2.0470000000000002</v>
+      </c>
+      <c r="L12" s="86">
+        <v>43.3</v>
+      </c>
+      <c r="M12" s="86">
+        <v>298.52100000000002</v>
+      </c>
+      <c r="N12" s="91">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="O12">
+        <v>3</v>
+      </c>
+      <c r="P12" s="86">
+        <f t="shared" si="1"/>
+        <v>0.08</v>
+      </c>
+      <c r="Q12" s="86">
+        <f t="shared" si="1"/>
+        <v>0.26</v>
+      </c>
+      <c r="R12" s="83">
+        <v>2.6970000000000001</v>
+      </c>
+      <c r="S12" s="90">
+        <v>32</v>
+      </c>
+      <c r="T12" s="83">
+        <v>220.44499999999999</v>
+      </c>
+      <c r="U12" s="86">
+        <v>12.8</v>
+      </c>
+      <c r="V12">
+        <v>3</v>
+      </c>
+      <c r="W12" s="86">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="X12" s="86">
+        <f t="shared" si="2"/>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Y12" s="83">
+        <v>3.452</v>
+      </c>
+      <c r="Z12" s="83">
+        <v>30.4</v>
+      </c>
+      <c r="AA12" s="83">
+        <v>209.36600000000001</v>
+      </c>
+      <c r="AB12" s="86">
+        <v>11.03</v>
+      </c>
+      <c r="AC12">
+        <v>3</v>
+      </c>
+      <c r="AD12" s="86">
+        <f t="shared" si="3"/>
+        <v>0.12000000000000001</v>
+      </c>
+      <c r="AE12" s="86">
+        <f t="shared" si="3"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AF12" s="83">
+        <v>4.4370000000000003</v>
+      </c>
+      <c r="AG12" s="83">
+        <v>21.7</v>
+      </c>
+      <c r="AH12" s="83">
+        <v>149.857</v>
+      </c>
+      <c r="AI12" s="86">
+        <v>8.23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" s="83">
+        <v>0.04</v>
+      </c>
+      <c r="C13" s="83">
+        <v>0.2</v>
+      </c>
+      <c r="D13" s="82">
+        <v>1.91</v>
+      </c>
+      <c r="E13" s="86">
+        <v>113.1</v>
+      </c>
+      <c r="F13" s="86">
+        <v>779.96699999999998</v>
+      </c>
+      <c r="G13" s="86">
+        <v>28.62</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13" s="88">
+        <f t="shared" ref="I13:N13" si="4">B10</f>
+        <v>0.06</v>
+      </c>
+      <c r="J13" s="88">
+        <f t="shared" si="4"/>
+        <v>0.22</v>
+      </c>
+      <c r="K13" s="88">
+        <f t="shared" si="4"/>
+        <v>2.2490000000000001</v>
+      </c>
+      <c r="L13" s="88">
+        <f t="shared" si="4"/>
+        <v>24.3</v>
+      </c>
+      <c r="M13" s="88">
+        <f t="shared" si="4"/>
+        <v>167.655</v>
+      </c>
+      <c r="N13" s="88">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>4</v>
+      </c>
+      <c r="P13" s="88">
+        <f>I10</f>
+        <v>0.08</v>
+      </c>
+      <c r="Q13" s="88">
+        <f>J10</f>
+        <v>0.24</v>
+      </c>
+      <c r="R13" s="88">
+        <v>3.1389999999999998</v>
+      </c>
+      <c r="S13" s="88">
+        <v>37.6</v>
+      </c>
+      <c r="T13" s="88">
+        <v>258.96199999999999</v>
+      </c>
+      <c r="U13" s="88">
+        <v>12.9</v>
+      </c>
+      <c r="V13">
+        <v>4</v>
+      </c>
+      <c r="W13" s="88">
+        <f>P10</f>
+        <v>0.1</v>
+      </c>
+      <c r="X13" s="88">
+        <f>Q10</f>
+        <v>0.26</v>
+      </c>
+      <c r="Y13" s="88">
+        <v>3.9569999999999999</v>
+      </c>
+      <c r="Z13" s="88">
+        <v>37.6</v>
+      </c>
+      <c r="AA13" s="88">
+        <v>259.47399999999999</v>
+      </c>
+      <c r="AB13" s="88">
+        <v>11.47</v>
+      </c>
+      <c r="AC13">
+        <v>4</v>
+      </c>
+      <c r="AD13" s="88">
+        <f>W10</f>
+        <v>0.12000000000000001</v>
+      </c>
+      <c r="AE13" s="88">
+        <f>X10</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AF13" s="88">
+        <v>5.4059999999999997</v>
+      </c>
+      <c r="AG13" s="88">
+        <v>27.4</v>
+      </c>
+      <c r="AH13" s="88">
+        <v>189.05600000000001</v>
+      </c>
+      <c r="AI13" s="88">
+        <v>8.3699999999999992</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" s="86">
+        <f>0.5*(B11-B13)+B13</f>
+        <v>0.05</v>
+      </c>
+      <c r="C14" s="86">
+        <f>0.5*(C10-C13)+C13</f>
+        <v>0.21000000000000002</v>
+      </c>
+      <c r="D14" s="86">
+        <v>1.9770000000000001</v>
+      </c>
+      <c r="E14" s="86">
+        <v>43.9</v>
+      </c>
+      <c r="F14" s="86">
+        <v>302.839</v>
+      </c>
+      <c r="G14" s="86">
+        <v>17.53</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14" s="86">
+        <f>0.5*(I11-I13)+I13</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J14" s="86">
+        <f>0.5*(J10-J13)+J13</f>
+        <v>0.22999999999999998</v>
+      </c>
+      <c r="K14" s="86">
+        <v>2.6669999999999998</v>
+      </c>
+      <c r="L14" s="86">
+        <v>30.8</v>
+      </c>
+      <c r="M14" s="86">
+        <v>212.44399999999999</v>
+      </c>
+      <c r="N14" s="86">
+        <v>12.63</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14" s="86">
+        <f>0.5*(P11-P13)+P13</f>
+        <v>0.09</v>
+      </c>
+      <c r="Q14" s="86">
+        <f>0.5*(Q10-Q13)+Q13</f>
+        <v>0.25</v>
+      </c>
+      <c r="R14" s="83">
+        <v>3.5379999999999998</v>
+      </c>
+      <c r="S14" s="83">
+        <v>32</v>
+      </c>
+      <c r="T14" s="83">
+        <v>220.839</v>
+      </c>
+      <c r="U14" s="86">
+        <v>11.2</v>
+      </c>
+      <c r="V14">
+        <v>5</v>
+      </c>
+      <c r="W14" s="86">
+        <f>0.5*(W11-W13)+W13</f>
+        <v>0.11000000000000001</v>
+      </c>
+      <c r="X14" s="86">
+        <f>0.5*(X10-X13)+X13</f>
+        <v>0.27</v>
+      </c>
+      <c r="Y14" s="83">
+        <v>4.6420000000000003</v>
+      </c>
+      <c r="Z14" s="83">
+        <v>29.8</v>
+      </c>
+      <c r="AA14" s="83">
+        <v>205.399</v>
+      </c>
+      <c r="AB14" s="86">
+        <v>9.42</v>
+      </c>
+      <c r="AC14">
+        <v>5</v>
+      </c>
+      <c r="AD14" s="86">
+        <f>0.5*(AD11-AD13)+AD13</f>
+        <v>0.13</v>
+      </c>
+      <c r="AE14" s="86">
+        <f>0.5*(AE10-AE13)+AE13</f>
+        <v>0.29000000000000004</v>
+      </c>
+      <c r="AF14" s="83">
+        <v>5.4470000000000001</v>
+      </c>
+      <c r="AG14" s="83">
+        <v>24.2</v>
+      </c>
+      <c r="AH14" s="83">
+        <v>166.941</v>
+      </c>
+      <c r="AI14" s="86">
+        <v>7.84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B15" s="83"/>
+      <c r="C15" s="83"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="86"/>
+      <c r="H15" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15" s="86">
+        <v>0.08</v>
+      </c>
+      <c r="J15" s="86">
+        <v>0.24</v>
+      </c>
+      <c r="K15">
+        <v>3.1480000000000001</v>
+      </c>
+      <c r="L15" s="86">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="M15" s="86">
+        <v>126.907</v>
+      </c>
+      <c r="N15" s="86">
+        <v>8.99</v>
+      </c>
+      <c r="V15" t="s">
+        <v>110</v>
+      </c>
+      <c r="W15" s="86">
+        <v>0.12</v>
+      </c>
+      <c r="X15" s="86">
+        <v>0.26</v>
+      </c>
+      <c r="Y15">
+        <v>6.2759999999999998</v>
+      </c>
+      <c r="Z15">
+        <v>223.5</v>
+      </c>
+      <c r="AA15">
+        <v>1541.0319999999999</v>
+      </c>
+      <c r="AB15">
+        <v>22.19</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD15" s="86">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AE15" s="86">
+        <v>0.3</v>
+      </c>
+      <c r="AF15" s="86">
+        <v>5.431</v>
+      </c>
+      <c r="AG15" s="86">
+        <v>113.2</v>
+      </c>
+      <c r="AH15" s="86">
+        <v>780.60599999999999</v>
+      </c>
+      <c r="AI15" s="86">
+        <v>16.98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="86"/>
+      <c r="AC16" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD16" s="86">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AE16" s="86">
+        <v>0.3</v>
+      </c>
+      <c r="AF16" s="86">
+        <v>5.4260000000000002</v>
+      </c>
+      <c r="AG16" s="86">
+        <v>98.8</v>
+      </c>
+      <c r="AH16" s="82">
+        <v>681.40099999999995</v>
+      </c>
+      <c r="AI16" s="86">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="120" t="s">
+        <v>101</v>
+      </c>
+      <c r="I17" s="120" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="120" t="s">
+        <v>103</v>
+      </c>
+      <c r="W17" s="120" t="s">
+        <v>104</v>
+      </c>
+      <c r="AD17" s="120" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="120" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="120" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="120" t="s">
+        <v>78</v>
+      </c>
+      <c r="D18" s="120" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="120" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="120" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="120" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" s="120" t="s">
+        <v>77</v>
+      </c>
+      <c r="J18" s="120" t="s">
+        <v>78</v>
+      </c>
+      <c r="K18" s="120" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="M18" s="120" t="s">
+        <v>19</v>
+      </c>
+      <c r="N18" s="120" t="s">
+        <v>106</v>
+      </c>
+      <c r="O18" s="120" t="s">
+        <v>28</v>
+      </c>
+      <c r="P18" s="120" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q18" s="120" t="s">
+        <v>78</v>
+      </c>
+      <c r="R18" s="120" t="s">
+        <v>82</v>
+      </c>
+      <c r="S18" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="T18" s="120" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" s="120" t="s">
+        <v>106</v>
+      </c>
+      <c r="V18" s="120" t="s">
+        <v>28</v>
+      </c>
+      <c r="W18" s="120" t="s">
+        <v>77</v>
+      </c>
+      <c r="X18" s="120" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y18" s="120" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z18" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA18" s="120" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB18" s="120" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC18" s="120" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD18" s="120" t="s">
+        <v>77</v>
+      </c>
+      <c r="AE18" s="120" t="s">
+        <v>78</v>
+      </c>
+      <c r="AF18" s="120" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG18" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH18" s="120" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI18" s="120" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="120">
+        <v>1</v>
+      </c>
+      <c r="B19" s="121">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="C19" s="121">
+        <v>0.4</v>
+      </c>
+      <c r="D19" s="121">
+        <v>1.782</v>
+      </c>
+      <c r="E19" s="121">
+        <v>7.33</v>
+      </c>
+      <c r="F19" s="121">
+        <v>5.05</v>
+      </c>
+      <c r="G19" s="121">
+        <v>7.54</v>
+      </c>
+      <c r="H19" s="120">
+        <v>1</v>
+      </c>
+      <c r="I19" s="121">
+        <f>B19+0.05</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="J19" s="121">
+        <f>C19+0.05</f>
+        <v>0.45</v>
+      </c>
+      <c r="K19" s="122"/>
+      <c r="L19" s="121"/>
+      <c r="M19" s="122"/>
+      <c r="N19" s="121"/>
+      <c r="O19" s="120">
+        <v>1</v>
+      </c>
+      <c r="P19" s="121">
+        <f>I19+0.05</f>
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="Q19" s="121">
+        <f>J19+0.05</f>
+        <v>0.5</v>
+      </c>
+      <c r="R19" s="120">
+        <v>1.91</v>
+      </c>
+      <c r="S19" s="120">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="T19" s="120">
+        <v>70.23</v>
+      </c>
+      <c r="U19" s="120">
+        <v>8.58</v>
+      </c>
+      <c r="V19" s="120">
+        <v>1</v>
+      </c>
+      <c r="W19" s="121">
+        <f>P19+0.05</f>
+        <v>0.62500000000000011</v>
+      </c>
+      <c r="X19" s="121">
+        <f>Q19+0.05</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Y19" s="121"/>
+      <c r="Z19" s="121"/>
+      <c r="AA19" s="121"/>
+      <c r="AB19" s="121"/>
+      <c r="AC19" s="120">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="121">
+        <f>W19+0.05</f>
+        <v>0.67500000000000016</v>
+      </c>
+      <c r="AE19" s="121">
+        <f>X19+0.05</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="AF19" s="121"/>
+      <c r="AG19" s="121"/>
+      <c r="AH19" s="121"/>
+    </row>
+    <row r="20" spans="1:35" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="120">
+        <v>2</v>
+      </c>
+      <c r="B20" s="121">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="C20" s="121">
+        <v>0.3</v>
+      </c>
+      <c r="D20" s="121">
+        <v>2.1949999999999998</v>
+      </c>
+      <c r="E20" s="121">
+        <v>2.13</v>
+      </c>
+      <c r="F20" s="121">
+        <v>14.69</v>
+      </c>
+      <c r="G20" s="121">
+        <v>3.66</v>
+      </c>
+      <c r="H20" s="120">
+        <v>2</v>
+      </c>
+      <c r="I20" s="121">
+        <f>B20+0.05</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="J20" s="121">
+        <f>C20+0.1</f>
+        <v>0.4</v>
+      </c>
+      <c r="K20" s="121">
+        <v>1.851</v>
+      </c>
+      <c r="L20" s="121">
+        <v>25.35</v>
+      </c>
+      <c r="M20" s="121">
+        <v>174.834</v>
+      </c>
+      <c r="N20" s="121">
+        <v>13.76</v>
+      </c>
+      <c r="O20" s="120">
+        <v>2</v>
+      </c>
+      <c r="P20" s="121">
+        <f>I20+0.05</f>
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="Q20" s="121">
+        <f>J20+0.05</f>
+        <v>0.45</v>
+      </c>
+      <c r="R20" s="121"/>
+      <c r="S20" s="121"/>
+      <c r="T20" s="121"/>
+      <c r="U20" s="121"/>
+      <c r="V20" s="120">
+        <v>2</v>
+      </c>
+      <c r="W20" s="121">
+        <f>P20+0.05</f>
+        <v>0.62500000000000011</v>
+      </c>
+      <c r="X20" s="121">
+        <f>Q20+0.05</f>
+        <v>0.5</v>
+      </c>
+      <c r="Y20" s="121"/>
+      <c r="Z20" s="121"/>
+      <c r="AA20" s="121"/>
+      <c r="AB20" s="121"/>
+      <c r="AC20" s="120">
+        <v>2</v>
+      </c>
+      <c r="AD20" s="121">
+        <f>W20+0.05</f>
+        <v>0.67500000000000016</v>
+      </c>
+      <c r="AE20" s="121">
+        <f>X20+0.05</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AF20" s="121"/>
+      <c r="AG20" s="121"/>
+      <c r="AH20" s="121"/>
+    </row>
+    <row r="21" spans="1:35" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="120">
+        <v>3</v>
+      </c>
+      <c r="B21" s="121">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="C21" s="121">
+        <v>0.4</v>
+      </c>
+      <c r="D21" s="121">
+        <v>1.8109999999999999</v>
+      </c>
+      <c r="E21" s="121">
+        <v>75.5</v>
+      </c>
+      <c r="F21" s="121">
+        <v>520.28</v>
+      </c>
+      <c r="G21" s="123">
+        <v>24</v>
+      </c>
+      <c r="H21" s="120">
+        <v>3</v>
+      </c>
+      <c r="I21" s="121">
+        <f>I22</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="J21" s="121">
+        <v>0.45</v>
+      </c>
+      <c r="K21" s="121"/>
+      <c r="L21" s="121"/>
+      <c r="M21" s="121"/>
+      <c r="N21" s="121"/>
+      <c r="O21" s="120">
+        <v>3</v>
+      </c>
+      <c r="P21" s="121">
+        <f>I21+0.05</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q21" s="121">
+        <f>J21+0.05</f>
+        <v>0.5</v>
+      </c>
+      <c r="R21" s="121"/>
+      <c r="S21" s="121"/>
+      <c r="T21" s="121"/>
+      <c r="U21" s="121"/>
+      <c r="V21" s="120">
+        <v>3</v>
+      </c>
+      <c r="W21" s="121">
+        <f>P21+0.05</f>
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="X21" s="121">
+        <f>Q21+0.05</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Y21" s="121"/>
+      <c r="Z21" s="121"/>
+      <c r="AA21" s="121"/>
+      <c r="AB21" s="121"/>
+      <c r="AC21" s="120">
+        <v>3</v>
+      </c>
+      <c r="AD21" s="121">
+        <f>W21+0.05</f>
+        <v>0.62500000000000011</v>
+      </c>
+      <c r="AE21" s="121">
+        <f>X21+0.05</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="AF21" s="121"/>
+      <c r="AG21" s="121"/>
+      <c r="AH21" s="121"/>
+    </row>
+    <row r="22" spans="1:35" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="120">
+        <v>4</v>
+      </c>
+      <c r="B22" s="121">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="C22" s="121">
+        <v>0.3</v>
+      </c>
+      <c r="D22" s="121">
+        <v>1.8480000000000001</v>
+      </c>
+      <c r="E22" s="121">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="F22" s="121">
+        <v>27.690999999999999</v>
+      </c>
+      <c r="G22" s="121">
+        <v>5.48</v>
+      </c>
+      <c r="H22" s="120">
+        <v>4</v>
+      </c>
+      <c r="I22" s="121">
+        <f>B19</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="J22" s="121">
+        <v>0.4</v>
+      </c>
+      <c r="O22" s="120">
+        <v>4</v>
+      </c>
+      <c r="P22" s="121">
+        <f>I22+0.05</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Q22" s="121">
+        <f>J22+0.05</f>
+        <v>0.45</v>
+      </c>
+      <c r="V22" s="120">
+        <v>4</v>
+      </c>
+      <c r="W22" s="121">
+        <f>P22+0.05</f>
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="X22" s="121">
+        <f>Q22+0.05</f>
+        <v>0.5</v>
+      </c>
+      <c r="AC22" s="120">
+        <v>4</v>
+      </c>
+      <c r="AD22" s="121">
+        <f>W22+0.05</f>
+        <v>0.62500000000000011</v>
+      </c>
+      <c r="AE22" s="121">
+        <f>X22+0.05</f>
+        <v>0.55000000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35" s="120" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="120">
+        <v>5</v>
+      </c>
+      <c r="B23" s="121">
+        <f>0.5*(B20-B22)+B22</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="C23" s="121">
+        <f>0.5*(C19-C22)+C22</f>
+        <v>0.35</v>
+      </c>
+      <c r="D23" s="121">
+        <v>1.7949999999999999</v>
+      </c>
+      <c r="E23" s="121">
+        <v>4.95</v>
+      </c>
+      <c r="F23" s="121">
+        <v>34.127000000000002</v>
+      </c>
+      <c r="G23" s="121">
+        <v>6.17</v>
+      </c>
+      <c r="H23" s="120">
+        <v>5</v>
+      </c>
+      <c r="I23" s="121">
+        <f>0.5*(I20-I22)+I22</f>
+        <v>0.5</v>
+      </c>
+      <c r="J23" s="121">
+        <f>0.5*(J19-J22)+J22</f>
+        <v>0.42500000000000004</v>
+      </c>
+      <c r="K23" s="121"/>
+      <c r="L23" s="121"/>
+      <c r="M23" s="121"/>
+      <c r="N23" s="121"/>
+      <c r="O23" s="120">
+        <v>5</v>
+      </c>
+      <c r="P23" s="121">
+        <f>0.5*(P20-P22)+P22</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q23" s="121">
+        <f>0.5*(Q19-Q22)+Q22</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="R23" s="121"/>
+      <c r="S23" s="121"/>
+      <c r="T23" s="121"/>
+      <c r="U23" s="121"/>
+      <c r="V23" s="120">
+        <v>5</v>
+      </c>
+      <c r="W23" s="121">
+        <f>0.5*(W20-W22)+W22</f>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="X23" s="121">
+        <f>0.5*(X19-X22)+X22</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="Y23" s="121"/>
+      <c r="Z23" s="121"/>
+      <c r="AA23" s="121"/>
+      <c r="AB23" s="121"/>
+      <c r="AC23" s="120">
+        <v>5</v>
+      </c>
+      <c r="AD23" s="121">
+        <f>0.5*(AD20-AD22)+AD22</f>
+        <v>0.65000000000000013</v>
+      </c>
+      <c r="AE23" s="121">
+        <f>0.5*(AE19-AE22)+AE22</f>
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="AF23" s="121"/>
+      <c r="AG23" s="121"/>
+      <c r="AH23" s="121"/>
+    </row>
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A27" s="120" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="120" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="120" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27" s="120" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="120" t="s">
+        <v>106</v>
+      </c>
+      <c r="H27" s="120" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="J27" s="120" t="s">
+        <v>114</v>
+      </c>
+      <c r="K27" s="120" t="s">
+        <v>82</v>
+      </c>
+      <c r="L27" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="M27" s="120" t="s">
+        <v>19</v>
+      </c>
+      <c r="N27" s="120" t="s">
+        <v>106</v>
+      </c>
+      <c r="O27" s="120" t="s">
+        <v>28</v>
+      </c>
+      <c r="P27" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q27" s="120" t="s">
+        <v>114</v>
+      </c>
+      <c r="R27" s="120" t="s">
+        <v>82</v>
+      </c>
+      <c r="S27" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="T27" s="120" t="s">
+        <v>19</v>
+      </c>
+      <c r="U27" s="120" t="s">
+        <v>106</v>
+      </c>
+      <c r="V27" s="120" t="s">
+        <v>28</v>
+      </c>
+      <c r="W27" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="X27" s="120" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y27" s="120" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z27" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA27" s="120" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB27" s="120" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC27" s="120" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD27" s="120" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE27" s="120" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF27" s="120" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG27" s="120" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH27" s="120" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI27" s="120" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A28" s="120">
+        <v>0.25</v>
+      </c>
+      <c r="B28" s="121">
+        <v>0.03</v>
+      </c>
+      <c r="C28" s="121">
+        <f>C10+0.2</f>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="D28" s="124">
+        <v>1.73</v>
+      </c>
+      <c r="E28" s="120">
+        <v>10.5</v>
+      </c>
+      <c r="F28" s="120">
+        <v>72.522000000000006</v>
+      </c>
+      <c r="G28" s="120">
+        <v>9.17</v>
+      </c>
+      <c r="H28" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="I28" s="121">
+        <f>B28+0.005</f>
+        <v>3.4999999999999996E-2</v>
+      </c>
+      <c r="J28" s="121">
+        <f>J10+0.2</f>
+        <v>0.44</v>
+      </c>
+      <c r="K28" s="120">
+        <v>1.718</v>
+      </c>
+      <c r="L28" s="120">
+        <v>27.5</v>
+      </c>
+      <c r="M28" s="120">
+        <v>189.94300000000001</v>
+      </c>
+      <c r="N28" s="120">
+        <v>14.89</v>
+      </c>
+      <c r="O28" s="120">
+        <v>0.7</v>
+      </c>
+      <c r="P28" s="121">
+        <f>I28+0.005</f>
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="Q28" s="121">
+        <f>Q10+0.3</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R28" s="120">
+        <v>1.823</v>
+      </c>
+      <c r="S28" s="120">
+        <v>27.4</v>
+      </c>
+      <c r="T28" s="120">
+        <v>188.916</v>
+      </c>
+      <c r="U28" s="120">
+        <v>14.4</v>
+      </c>
+      <c r="V28" s="120">
+        <v>1</v>
+      </c>
+      <c r="W28" s="121">
+        <f>P28+0.005</f>
+        <v>4.4999999999999991E-2</v>
+      </c>
+      <c r="X28" s="121">
+        <f>X10+0.4</f>
+        <v>0.68</v>
+      </c>
+      <c r="Y28" s="120">
+        <v>2.0459999999999998</v>
+      </c>
+      <c r="Z28" s="120">
+        <v>33.9</v>
+      </c>
+      <c r="AA28" s="120">
+        <v>234.05600000000001</v>
+      </c>
+      <c r="AB28" s="120">
+        <v>15.1</v>
+      </c>
+      <c r="AC28" s="120">
+        <v>1.5</v>
+      </c>
+      <c r="AD28" s="121">
+        <f>W28+0.005</f>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="AE28" s="121">
+        <f>AE10+0.4</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="AF28" s="120">
+        <v>2.1259999999999999</v>
+      </c>
+      <c r="AG28" s="120">
+        <v>61.2</v>
+      </c>
+      <c r="AH28" s="120">
+        <v>422.262</v>
+      </c>
+      <c r="AI28" s="120">
+        <v>19.96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A29" s="120">
+        <v>0.35</v>
+      </c>
+      <c r="B29" s="121">
+        <v>0.03</v>
+      </c>
+      <c r="C29" s="121">
+        <f>C11+0.2</f>
+        <v>0.4</v>
+      </c>
+      <c r="D29" s="120">
+        <v>1.6910000000000001</v>
+      </c>
+      <c r="E29" s="120">
+        <v>22.1</v>
+      </c>
+      <c r="F29" s="120">
+        <v>152.148</v>
+      </c>
+      <c r="G29" s="120">
+        <v>13.43</v>
+      </c>
+      <c r="H29" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="I29" s="121">
+        <f>B29+0.005</f>
+        <v>3.4999999999999996E-2</v>
+      </c>
+      <c r="J29" s="121">
+        <f>J11+0.2</f>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="K29" s="120">
+        <v>1.6919999999999999</v>
+      </c>
+      <c r="L29" s="120">
+        <v>29.6</v>
+      </c>
+      <c r="M29" s="124">
+        <v>203.84</v>
+      </c>
+      <c r="N29" s="120">
+        <v>15.54</v>
+      </c>
+      <c r="O29" s="120">
+        <v>0.7</v>
+      </c>
+      <c r="P29" s="121">
+        <f>I29+0.005</f>
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="Q29" s="121">
+        <f>Q11+0.3</f>
+        <v>0.54</v>
+      </c>
+      <c r="R29" s="120">
+        <v>1.8340000000000001</v>
+      </c>
+      <c r="S29" s="120">
+        <v>29.4</v>
+      </c>
+      <c r="T29" s="120">
+        <v>202.85599999999999</v>
+      </c>
+      <c r="U29" s="120">
+        <v>14.89</v>
+      </c>
+      <c r="V29" s="120">
+        <v>1</v>
+      </c>
+      <c r="W29" s="121">
+        <f>P29+0.005</f>
+        <v>4.4999999999999991E-2</v>
+      </c>
+      <c r="X29" s="121">
+        <f>X11+0.4</f>
+        <v>0.66</v>
+      </c>
+      <c r="Y29" s="120">
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="Z29" s="120">
+        <v>34.9</v>
+      </c>
+      <c r="AA29" s="120">
+        <v>240.876</v>
+      </c>
+      <c r="AB29" s="120">
+        <v>15.57</v>
+      </c>
+      <c r="AC29" s="120">
+        <v>1.5</v>
+      </c>
+      <c r="AD29" s="121">
+        <f>W29+0.005</f>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="AE29" s="121">
+        <f>AE11+0.4</f>
+        <v>0.68</v>
+      </c>
+      <c r="AF29" s="120"/>
+      <c r="AG29" s="120"/>
+      <c r="AH29" s="120"/>
+      <c r="AI29" s="120"/>
+    </row>
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30" s="120">
+        <v>0.4</v>
+      </c>
+      <c r="B30" s="121">
+        <f>B28-0.005</f>
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="C30" s="121">
+        <f>C12+0.2</f>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="D30" s="124">
+        <v>1.67</v>
+      </c>
+      <c r="E30" s="120">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="F30" s="120">
+        <v>264.346</v>
+      </c>
+      <c r="G30" s="120">
+        <v>17.8</v>
+      </c>
+      <c r="H30" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="I30" s="121">
+        <f>I28-0.005</f>
+        <v>2.9999999999999995E-2</v>
+      </c>
+      <c r="J30" s="121">
+        <f>J12+0.2</f>
+        <v>0.44</v>
+      </c>
+      <c r="K30" s="120">
+        <v>1.673</v>
+      </c>
+      <c r="L30" s="120">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="M30" s="124">
+        <v>257.01</v>
+      </c>
+      <c r="N30" s="120">
+        <v>17.55</v>
+      </c>
+      <c r="O30" s="120">
+        <v>0.7</v>
+      </c>
+      <c r="P30" s="121">
+        <f>P28-0.005</f>
+        <v>3.4999999999999996E-2</v>
+      </c>
+      <c r="Q30" s="121">
+        <f>Q12+0.3</f>
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="R30" s="120">
+        <v>1.7809999999999999</v>
+      </c>
+      <c r="S30" s="120">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="T30" s="120">
+        <v>246.267</v>
+      </c>
+      <c r="U30" s="120">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="V30" s="120">
+        <v>1</v>
+      </c>
+      <c r="W30" s="121">
+        <f>W28-0.005</f>
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="X30" s="121">
+        <f>X12+0.4</f>
+        <v>0.68</v>
+      </c>
+      <c r="Y30" s="120">
+        <v>1.9219999999999999</v>
+      </c>
+      <c r="Z30" s="120">
+        <v>40.9</v>
+      </c>
+      <c r="AA30" s="120">
+        <v>281.80200000000002</v>
+      </c>
+      <c r="AB30" s="120">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="AC30" s="120">
+        <v>1.5</v>
+      </c>
+      <c r="AD30" s="121">
+        <f>AD28-0.005</f>
+        <v>4.4999999999999991E-2</v>
+      </c>
+      <c r="AE30" s="121">
+        <f>AE12+0.4</f>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="AF30" s="120"/>
+      <c r="AG30" s="120"/>
+      <c r="AH30" s="120"/>
+      <c r="AI30" s="120"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A31" s="120">
+        <v>0.4</v>
+      </c>
+      <c r="B31" s="121">
+        <f>B29-0.005</f>
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="C31" s="121">
+        <f>C13+0.2</f>
+        <v>0.4</v>
+      </c>
+      <c r="D31" s="120">
+        <v>1.6639999999999999</v>
+      </c>
+      <c r="E31" s="125">
+        <v>42</v>
+      </c>
+      <c r="F31" s="120">
+        <v>288.16199999999998</v>
+      </c>
+      <c r="G31" s="120">
+        <v>18.63</v>
+      </c>
+      <c r="H31" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="I31" s="121">
+        <f>I29-0.005</f>
+        <v>2.9999999999999995E-2</v>
+      </c>
+      <c r="J31" s="121">
+        <f>J13+0.2</f>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="K31" s="124">
+        <v>1.65</v>
+      </c>
+      <c r="L31" s="120">
+        <v>40.1</v>
+      </c>
+      <c r="M31" s="120">
+        <v>276.74900000000002</v>
+      </c>
+      <c r="N31" s="120">
+        <v>18.34</v>
+      </c>
+      <c r="O31" s="120">
+        <v>0.7</v>
+      </c>
+      <c r="P31" s="121">
+        <f>P29-0.005</f>
+        <v>3.4999999999999996E-2</v>
+      </c>
+      <c r="Q31" s="121">
+        <f>Q13+0.3</f>
+        <v>0.54</v>
+      </c>
+      <c r="R31" s="120">
+        <v>1.752</v>
+      </c>
+      <c r="S31" s="120">
+        <v>37.6</v>
+      </c>
+      <c r="T31" s="120">
+        <v>259.27499999999998</v>
+      </c>
+      <c r="U31" s="120">
+        <v>17.23</v>
+      </c>
+      <c r="V31" s="120">
+        <v>1</v>
+      </c>
+      <c r="W31" s="121">
+        <f>W29-0.005</f>
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="X31" s="121">
+        <f>X13+0.4</f>
+        <v>0.66</v>
+      </c>
+      <c r="Y31" s="120">
+        <v>1.9139999999999999</v>
+      </c>
+      <c r="Z31" s="120">
+        <v>43.1</v>
+      </c>
+      <c r="AA31" s="120">
+        <v>296.86700000000002</v>
+      </c>
+      <c r="AB31" s="120">
+        <v>17.64</v>
+      </c>
+      <c r="AC31" s="120">
+        <v>1.5</v>
+      </c>
+      <c r="AD31" s="121">
+        <f>AD29-0.005</f>
+        <v>4.4999999999999991E-2</v>
+      </c>
+      <c r="AE31" s="121">
+        <f>AE13+0.4</f>
+        <v>0.68</v>
+      </c>
+      <c r="AF31" s="120"/>
+      <c r="AG31" s="120"/>
+      <c r="AH31" s="120"/>
+      <c r="AI31" s="120"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A32" s="120">
+        <v>0.45</v>
+      </c>
+      <c r="B32" s="121">
+        <f>0.5*(B29-B31)+B31</f>
+        <v>2.7499999999999997E-2</v>
+      </c>
+      <c r="C32" s="121">
+        <f>0.5*(C28-C31)+C31</f>
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="D32" s="124">
+        <v>1.66</v>
+      </c>
+      <c r="E32" s="120">
+        <v>41.2</v>
+      </c>
+      <c r="F32" s="120">
+        <v>283.91899999999998</v>
+      </c>
+      <c r="G32" s="120">
+        <v>18.52</v>
+      </c>
+      <c r="H32" s="120">
+        <v>0.5</v>
+      </c>
+      <c r="I32" s="121">
+        <f>0.5*(I29-I31)+I31</f>
+        <v>3.2499999999999994E-2</v>
+      </c>
+      <c r="J32" s="121">
+        <f>0.5*(J28-J31)+J31</f>
+        <v>0.43000000000000005</v>
+      </c>
+      <c r="K32" s="120">
+        <v>1.669</v>
+      </c>
+      <c r="L32" s="120">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="M32" s="120">
+        <v>226.452</v>
+      </c>
+      <c r="N32" s="120">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="O32" s="120">
+        <v>0.7</v>
+      </c>
+      <c r="P32" s="121">
+        <f>0.5*(P29-P31)+P31</f>
+        <v>3.7499999999999992E-2</v>
+      </c>
+      <c r="Q32" s="121">
+        <f>0.5*(Q28-Q31)+Q31</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R32" s="120">
+        <v>1.804</v>
+      </c>
+      <c r="S32" s="120">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="T32" s="120">
+        <v>222.45400000000001</v>
+      </c>
+      <c r="U32" s="120">
+        <v>15.72</v>
+      </c>
+      <c r="V32" s="120">
+        <v>1.5</v>
+      </c>
+      <c r="W32" s="121">
+        <f>0.5*(W29-W31)+W31</f>
+        <v>4.2499999999999996E-2</v>
+      </c>
+      <c r="X32" s="121">
+        <f>0.5*(X28-X31)+X31</f>
+        <v>0.67</v>
+      </c>
+      <c r="Y32" s="120">
+        <v>1.9550000000000001</v>
+      </c>
+      <c r="Z32" s="120">
+        <v>86.3</v>
+      </c>
+      <c r="AA32" s="120">
+        <v>595.048</v>
+      </c>
+      <c r="AB32" s="120">
+        <v>24.7</v>
+      </c>
+      <c r="AC32" s="120">
+        <v>1.5</v>
+      </c>
+      <c r="AD32" s="121">
+        <f>0.5*(AD29-AD31)+AD31</f>
+        <v>4.7499999999999987E-2</v>
+      </c>
+      <c r="AE32" s="121">
+        <f>0.5*(AE28-AE31)+AE31</f>
+        <v>0.69000000000000006</v>
+      </c>
+      <c r="AF32" s="120"/>
+      <c r="AG32" s="120"/>
+      <c r="AH32" s="120"/>
+      <c r="AI32" s="120"/>
+    </row>
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>0.45</v>
+      </c>
+      <c r="B35">
+        <v>2.7499999999999997E-2</v>
+      </c>
+      <c r="C35">
+        <v>0.45</v>
+      </c>
+      <c r="D35">
+        <v>1.6930000000000001</v>
+      </c>
+      <c r="E35">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="F35">
+        <v>242.577</v>
+      </c>
+      <c r="G35">
+        <v>16.95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" t="s">
+        <v>82</v>
+      </c>
+      <c r="E38" t="s">
+        <v>89</v>
+      </c>
+      <c r="F38" t="s">
+        <v>19</v>
+      </c>
+      <c r="G38" t="s">
+        <v>106</v>
+      </c>
+      <c r="H38" t="s">
+        <v>91</v>
+      </c>
+      <c r="I38" t="s">
+        <v>72</v>
+      </c>
+      <c r="J38" t="s">
+        <v>114</v>
+      </c>
+      <c r="K38" t="s">
+        <v>82</v>
+      </c>
+      <c r="L38" t="s">
+        <v>89</v>
+      </c>
+      <c r="M38" t="s">
+        <v>19</v>
+      </c>
+      <c r="N38" t="s">
+        <v>106</v>
+      </c>
+      <c r="O38" t="s">
+        <v>28</v>
+      </c>
+      <c r="P38" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>114</v>
+      </c>
+      <c r="R38" t="s">
+        <v>82</v>
+      </c>
+      <c r="S38" t="s">
+        <v>89</v>
+      </c>
+      <c r="T38" t="s">
+        <v>19</v>
+      </c>
+      <c r="U38" t="s">
+        <v>106</v>
+      </c>
+      <c r="V38" t="s">
+        <v>28</v>
+      </c>
+      <c r="W38" t="s">
+        <v>72</v>
+      </c>
+      <c r="X38" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z38" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA38" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB38" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC38" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD38" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE38" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF38" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG38" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>0.25</v>
+      </c>
+      <c r="B39" s="89">
+        <v>0.03</v>
+      </c>
+      <c r="C39" s="89">
+        <v>0.7</v>
+      </c>
+      <c r="D39" s="118"/>
+      <c r="H39">
+        <v>0.5</v>
+      </c>
+      <c r="I39" s="89">
+        <f>B39+0.005</f>
+        <v>3.4999999999999996E-2</v>
+      </c>
+      <c r="J39" s="89">
+        <v>0.68</v>
+      </c>
+      <c r="O39">
+        <v>0.7</v>
+      </c>
+      <c r="P39" s="89">
+        <f>I39+0.005</f>
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="Q39" s="89">
+        <f>Q28+0.1</f>
+        <v>0.66</v>
+      </c>
+      <c r="V39">
+        <v>1</v>
+      </c>
+      <c r="W39" s="89">
+        <f>P39+0.005</f>
+        <v>4.4999999999999991E-2</v>
+      </c>
+      <c r="X39" s="89">
+        <v>0.44</v>
+      </c>
+      <c r="AD39" s="89">
+        <f>W39+0.005</f>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="AE39" s="89">
+        <v>0.42000000000000004</v>
+      </c>
+    </row>
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>0.35</v>
+      </c>
+      <c r="B40" s="89">
+        <v>0.03</v>
+      </c>
+      <c r="C40" s="89">
+        <v>0.68</v>
+      </c>
+      <c r="H40">
+        <v>0.5</v>
+      </c>
+      <c r="I40" s="89">
+        <f>B40+0.005</f>
+        <v>3.4999999999999996E-2</v>
+      </c>
+      <c r="J40" s="89">
+        <v>0.66</v>
+      </c>
+      <c r="M40" s="118"/>
+      <c r="O40">
+        <v>0.7</v>
+      </c>
+      <c r="P40" s="89">
+        <f>I40+0.005</f>
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="Q40" s="89">
+        <f>Q29+0.1</f>
+        <v>0.64</v>
+      </c>
+      <c r="V40">
+        <v>1</v>
+      </c>
+      <c r="W40" s="89">
+        <f>P40+0.005</f>
+        <v>4.4999999999999991E-2</v>
+      </c>
+      <c r="X40" s="89">
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="AD40" s="89">
+        <f>W40+0.005</f>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="AE40" s="89">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>0.4</v>
+      </c>
+      <c r="B41" s="89">
+        <f>B39-0.005</f>
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="C41" s="89">
+        <v>0.7</v>
+      </c>
+      <c r="D41" s="118"/>
+      <c r="H41">
+        <v>0.5</v>
+      </c>
+      <c r="I41" s="89">
+        <f>I39-0.005</f>
+        <v>2.9999999999999995E-2</v>
+      </c>
+      <c r="J41" s="89">
+        <v>0.68</v>
+      </c>
+      <c r="M41" s="118"/>
+      <c r="O41">
+        <v>0.7</v>
+      </c>
+      <c r="P41" s="89">
+        <f>P39-0.005</f>
+        <v>3.4999999999999996E-2</v>
+      </c>
+      <c r="Q41" s="89">
+        <f>Q30+0.1</f>
+        <v>0.66</v>
+      </c>
+      <c r="V41">
+        <v>1</v>
+      </c>
+      <c r="W41" s="89">
+        <f>W39-0.005</f>
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="X41" s="89">
+        <v>0.44</v>
+      </c>
+      <c r="AD41" s="89">
+        <f>AD39-0.005</f>
+        <v>4.4999999999999991E-2</v>
+      </c>
+      <c r="AE41" s="89">
+        <v>0.42000000000000004</v>
+      </c>
+    </row>
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>0.4</v>
+      </c>
+      <c r="B42" s="89">
+        <f>B40-0.005</f>
+        <v>2.4999999999999998E-2</v>
+      </c>
+      <c r="C42" s="89">
+        <v>0.68</v>
+      </c>
+      <c r="E42" s="119"/>
+      <c r="H42">
+        <v>0.5</v>
+      </c>
+      <c r="I42" s="89">
+        <f>I40-0.005</f>
+        <v>2.9999999999999995E-2</v>
+      </c>
+      <c r="J42" s="89">
+        <v>0.66</v>
+      </c>
+      <c r="K42" s="118"/>
+      <c r="O42">
+        <v>0.7</v>
+      </c>
+      <c r="P42" s="89">
+        <f>P40-0.005</f>
+        <v>3.4999999999999996E-2</v>
+      </c>
+      <c r="Q42" s="89">
+        <f>Q31+0.1</f>
+        <v>0.64</v>
+      </c>
+      <c r="V42">
+        <v>1</v>
+      </c>
+      <c r="W42" s="89">
+        <f>W40-0.005</f>
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="X42" s="89">
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="AD42" s="89">
+        <f>AD40-0.005</f>
+        <v>4.4999999999999991E-2</v>
+      </c>
+      <c r="AE42" s="89">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>0.45</v>
+      </c>
+      <c r="B43" s="89">
+        <f>0.5*(B40-B42)+B42</f>
+        <v>2.7499999999999997E-2</v>
+      </c>
+      <c r="C43" s="89">
+        <f>0.5*(C39-C42)+C42</f>
+        <v>0.69</v>
+      </c>
+      <c r="D43" s="118"/>
+      <c r="H43">
+        <v>0.5</v>
+      </c>
+      <c r="I43" s="89">
+        <f>0.5*(I40-I42)+I42</f>
+        <v>3.2499999999999994E-2</v>
+      </c>
+      <c r="J43" s="89">
+        <f>0.5*(J39-J42)+J42</f>
+        <v>0.67</v>
+      </c>
+      <c r="O43">
+        <v>0.7</v>
+      </c>
+      <c r="P43" s="89">
+        <f>0.5*(P40-P42)+P42</f>
+        <v>3.7499999999999992E-2</v>
+      </c>
+      <c r="Q43" s="89">
+        <f>0.5*(Q39-Q42)+Q42</f>
+        <v>0.65</v>
+      </c>
+      <c r="V43">
+        <v>1</v>
+      </c>
+      <c r="W43" s="89">
+        <f>0.5*(W40-W42)+W42</f>
+        <v>4.2499999999999996E-2</v>
+      </c>
+      <c r="X43" s="89">
+        <f>0.5*(X39-X42)+X42</f>
+        <v>0.43000000000000005</v>
+      </c>
+      <c r="AD43" s="89">
+        <f>0.5*(AD40-AD42)+AD42</f>
+        <v>4.7499999999999987E-2</v>
+      </c>
+      <c r="AE43" s="89">
+        <f>0.5*(AE39-AE42)+AE42</f>
+        <v>0.41000000000000003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="C49" t="s">
+        <v>78</v>
+      </c>
+      <c r="D49" t="s">
+        <v>79</v>
+      </c>
+      <c r="E49" t="s">
+        <v>115</v>
+      </c>
+      <c r="F49" t="s">
+        <v>86</v>
+      </c>
+      <c r="G49" t="s">
+        <v>89</v>
+      </c>
+      <c r="H49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1</v>
+      </c>
+      <c r="B50" s="126">
+        <v>0.5</v>
+      </c>
+      <c r="C50" s="126">
+        <v>0.38</v>
+      </c>
+      <c r="D50" s="126">
+        <v>0.25</v>
+      </c>
+      <c r="E50" s="126">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F50" s="126">
+        <v>1.8009999999999999</v>
+      </c>
+      <c r="G50" s="126">
+        <v>2.88</v>
+      </c>
+      <c r="H50" s="126">
+        <v>19.887</v>
+      </c>
+      <c r="I50" s="126">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51" s="126">
+        <v>0.5</v>
+      </c>
+      <c r="C51" s="126">
+        <v>0.38</v>
+      </c>
+      <c r="D51" s="126">
+        <v>0.35</v>
+      </c>
+      <c r="E51" s="126">
+        <v>0.4325</v>
+      </c>
+      <c r="F51" s="126">
+        <v>1.7989999999999999</v>
+      </c>
+      <c r="G51" s="126">
+        <v>5.7</v>
+      </c>
+      <c r="H51" s="126">
+        <v>39.292000000000002</v>
+      </c>
+      <c r="I51" s="126">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>5</v>
+      </c>
+      <c r="B52" s="126">
+        <v>0.5</v>
+      </c>
+      <c r="C52" s="126">
+        <v>0.42</v>
+      </c>
+      <c r="D52" s="126">
+        <v>0.25</v>
+      </c>
+      <c r="E52" s="126">
+        <v>0.4325</v>
+      </c>
+      <c r="F52" s="126">
+        <v>1.796</v>
+      </c>
+      <c r="G52" s="126">
+        <v>5.8</v>
+      </c>
+      <c r="H52" s="126">
+        <v>40.273000000000003</v>
+      </c>
+      <c r="I52" s="126">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>7</v>
+      </c>
+      <c r="B53" s="126">
+        <v>0.5</v>
+      </c>
+      <c r="C53" s="126">
+        <v>0.42</v>
+      </c>
+      <c r="D53" s="126">
+        <v>0.35</v>
+      </c>
+      <c r="E53" s="126">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F53" s="126">
+        <v>1.7370000000000001</v>
+      </c>
+      <c r="G53" s="126">
+        <v>11</v>
+      </c>
+      <c r="H53" s="126">
+        <v>76.114999999999995</v>
+      </c>
+      <c r="I53" s="126">
+        <v>9.3699999999999992</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>3</v>
+      </c>
+      <c r="B54" s="126">
+        <v>0.45</v>
+      </c>
+      <c r="C54" s="126">
+        <v>0.38</v>
+      </c>
+      <c r="D54" s="126">
+        <v>0.35</v>
+      </c>
+      <c r="E54" s="126">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F54" s="126">
+        <v>1.635</v>
+      </c>
+      <c r="G54" s="126">
+        <v>16.7</v>
+      </c>
+      <c r="H54" s="126">
+        <v>115.04600000000001</v>
+      </c>
+      <c r="I54" s="126">
+        <v>11.88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>4</v>
+      </c>
+      <c r="B55" s="126">
+        <v>0.45</v>
+      </c>
+      <c r="C55" s="126">
+        <v>0.42</v>
+      </c>
+      <c r="D55" s="126">
+        <v>0.35</v>
+      </c>
+      <c r="E55" s="126">
+        <v>0.4325</v>
+      </c>
+      <c r="F55" s="126">
+        <v>1.732</v>
+      </c>
+      <c r="G55" s="126">
+        <v>88.3</v>
+      </c>
+      <c r="H55" s="126">
+        <v>609.05399999999997</v>
+      </c>
+      <c r="I55" s="126">
+        <v>26.54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>6</v>
+      </c>
+      <c r="B56" s="126">
+        <v>0.45</v>
+      </c>
+      <c r="C56" s="126">
+        <v>0.42</v>
+      </c>
+      <c r="D56" s="126">
+        <v>0.25</v>
+      </c>
+      <c r="E56" s="126">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F56" s="126">
+        <v>1.704</v>
+      </c>
+      <c r="G56" s="126">
+        <v>44.3</v>
+      </c>
+      <c r="H56" s="126">
+        <v>305.34100000000001</v>
+      </c>
+      <c r="I56" s="126">
+        <v>18.95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>8</v>
+      </c>
+      <c r="B57" s="126">
+        <v>0.45</v>
+      </c>
+      <c r="C57" s="126">
+        <v>0.38</v>
+      </c>
+      <c r="D57" s="126">
+        <v>0.25</v>
+      </c>
+      <c r="E57" s="126">
+        <v>0.4325</v>
+      </c>
+      <c r="F57" s="126">
+        <v>1.677</v>
+      </c>
+      <c r="G57" s="126">
+        <v>8.75</v>
+      </c>
+      <c r="H57" s="126">
+        <v>60.331000000000003</v>
+      </c>
+      <c r="I57" s="126">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="C58">
+        <v>0.4</v>
+      </c>
+      <c r="D58">
+        <v>0.3</v>
+      </c>
+      <c r="E58">
+        <v>0.49125000000000002</v>
+      </c>
+      <c r="F58">
+        <v>1.7589999999999999</v>
+      </c>
+      <c r="G58">
+        <v>10.5</v>
+      </c>
+      <c r="H58">
+        <v>72.244</v>
+      </c>
+      <c r="I58">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="C59">
+        <v>0.4</v>
+      </c>
+      <c r="D59">
+        <v>0.3</v>
+      </c>
+      <c r="E59">
+        <v>0.49125000000000002</v>
+      </c>
+      <c r="F59">
+        <v>1.7509999999999999</v>
+      </c>
+      <c r="G59">
+        <v>10.4</v>
+      </c>
+      <c r="H59">
+        <v>71.983999999999995</v>
+      </c>
+      <c r="I59">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60">
+        <v>0.5</v>
+      </c>
+      <c r="C60">
+        <v>0.38</v>
+      </c>
+      <c r="D60">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E60">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F60">
+        <v>1.776</v>
+      </c>
+      <c r="G60">
+        <v>13.8</v>
+      </c>
+      <c r="H60">
+        <v>94.909000000000006</v>
+      </c>
+      <c r="I60">
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61">
+        <v>0.5</v>
+      </c>
+      <c r="C61">
+        <v>0.38</v>
+      </c>
+      <c r="D61">
+        <v>0.35</v>
+      </c>
+      <c r="E61">
+        <v>0.4325</v>
+      </c>
+      <c r="F61">
+        <v>1.7969999999999999</v>
+      </c>
+      <c r="G61">
+        <v>5.7</v>
+      </c>
+      <c r="H61">
+        <v>392.11799999999999</v>
+      </c>
+      <c r="I61">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" t="s">
+        <v>78</v>
+      </c>
+      <c r="D64" t="s">
+        <v>79</v>
+      </c>
+      <c r="E64" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1</v>
+      </c>
+      <c r="B65">
+        <v>0.5</v>
+      </c>
+      <c r="C65">
+        <v>0.38</v>
+      </c>
+      <c r="D65">
+        <v>0.35</v>
+      </c>
+      <c r="E65">
+        <v>0.4325</v>
+      </c>
+      <c r="F65">
+        <v>1.7989999999999999</v>
+      </c>
+      <c r="G65">
+        <v>5.7</v>
+      </c>
+      <c r="H65">
+        <v>39.292000000000002</v>
+      </c>
+      <c r="I65">
+        <v>6.62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>0.5</v>
+      </c>
+      <c r="C66">
+        <v>0.38</v>
+      </c>
+      <c r="D66">
+        <v>0.35</v>
+      </c>
+      <c r="E66">
+        <v>0.4325</v>
+      </c>
+      <c r="F66">
+        <v>1.7969999999999999</v>
+      </c>
+      <c r="G66">
+        <v>5.7</v>
+      </c>
+      <c r="H66">
+        <v>39.210999999999999</v>
+      </c>
+      <c r="I66">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2</v>
+      </c>
+      <c r="B67">
+        <v>0.5</v>
+      </c>
+      <c r="C67">
+        <v>0.42</v>
+      </c>
+      <c r="D67">
+        <v>0.25</v>
+      </c>
+      <c r="E67">
+        <v>0.4325</v>
+      </c>
+      <c r="F67">
+        <v>1.796</v>
+      </c>
+      <c r="G67">
+        <v>5.8</v>
+      </c>
+      <c r="H67">
+        <v>40.273000000000003</v>
+      </c>
+      <c r="I67">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68">
+        <v>0.5</v>
+      </c>
+      <c r="C68">
+        <v>0.38</v>
+      </c>
+      <c r="D68">
+        <v>0.25</v>
+      </c>
+      <c r="E68">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F68">
+        <v>1.8009999999999999</v>
+      </c>
+      <c r="G68">
+        <v>2.88</v>
+      </c>
+      <c r="H68">
+        <v>19.887</v>
+      </c>
+      <c r="I68">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>8</v>
+      </c>
+      <c r="B69">
+        <v>0.5</v>
+      </c>
+      <c r="C69">
+        <v>0.38</v>
+      </c>
+      <c r="D69">
+        <v>0.35</v>
+      </c>
+      <c r="E69">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F69">
+        <v>1.8440000000000001</v>
+      </c>
+      <c r="G69">
+        <v>5.78</v>
+      </c>
+      <c r="H69">
+        <v>39.845999999999997</v>
+      </c>
+      <c r="I69">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>12</v>
+      </c>
+      <c r="B70">
+        <v>0.5</v>
+      </c>
+      <c r="C70">
+        <v>0.38</v>
+      </c>
+      <c r="D70">
+        <v>0.25</v>
+      </c>
+      <c r="E70">
+        <v>0.4325</v>
+      </c>
+      <c r="F70">
+        <v>1.887</v>
+      </c>
+      <c r="G70">
+        <v>3.01</v>
+      </c>
+      <c r="H70">
+        <v>20.803999999999998</v>
+      </c>
+      <c r="I70">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>13</v>
+      </c>
+      <c r="B71">
+        <v>0.5</v>
+      </c>
+      <c r="C71">
+        <v>0.42</v>
+      </c>
+      <c r="D71">
+        <v>0.35</v>
+      </c>
+      <c r="E71">
+        <v>0.4325</v>
+      </c>
+      <c r="F71" s="118">
+        <v>1.79</v>
+      </c>
+      <c r="G71">
+        <v>11.38</v>
+      </c>
+      <c r="H71">
+        <v>78.468000000000004</v>
+      </c>
+      <c r="I71">
+        <v>9.3699999999999992</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>14</v>
+      </c>
+      <c r="B72">
+        <v>0.5</v>
+      </c>
+      <c r="C72">
+        <v>0.42</v>
+      </c>
+      <c r="D72">
+        <v>0.25</v>
+      </c>
+      <c r="E72">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F72">
+        <v>1.742</v>
+      </c>
+      <c r="G72">
+        <v>5.7</v>
+      </c>
+      <c r="H72">
+        <v>39.021000000000001</v>
+      </c>
+      <c r="I72">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>15</v>
+      </c>
+      <c r="B73">
+        <v>0.5</v>
+      </c>
+      <c r="C73">
+        <v>0.42</v>
+      </c>
+      <c r="D73">
+        <v>0.35</v>
+      </c>
+      <c r="E73">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F73">
+        <v>1.7370000000000001</v>
+      </c>
+      <c r="G73">
+        <v>11</v>
+      </c>
+      <c r="H73">
+        <v>76.114999999999995</v>
+      </c>
+      <c r="I73">
+        <v>9.3699999999999992</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>16</v>
+      </c>
+      <c r="B74">
+        <v>0.45</v>
+      </c>
+      <c r="C74">
+        <v>0.42</v>
+      </c>
+      <c r="D74">
+        <v>0.25</v>
+      </c>
+      <c r="E74">
+        <v>0.4325</v>
+      </c>
+      <c r="F74">
+        <v>1.8009999999999999</v>
+      </c>
+      <c r="G74">
+        <v>46.8</v>
+      </c>
+      <c r="H74">
+        <v>322.99700000000001</v>
+      </c>
+      <c r="I74">
+        <v>18.96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>4</v>
+      </c>
+      <c r="B75">
+        <v>0.45</v>
+      </c>
+      <c r="C75">
+        <v>0.38</v>
+      </c>
+      <c r="D75">
+        <v>0.35</v>
+      </c>
+      <c r="E75">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F75">
+        <v>1.635</v>
+      </c>
+      <c r="G75">
+        <v>16.7</v>
+      </c>
+      <c r="H75">
+        <v>115.04600000000001</v>
+      </c>
+      <c r="I75">
+        <v>11.88</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>5</v>
+      </c>
+      <c r="B76">
+        <v>0.45</v>
+      </c>
+      <c r="C76">
+        <v>0.38</v>
+      </c>
+      <c r="D76">
+        <v>0.25</v>
+      </c>
+      <c r="E76">
+        <v>0.4325</v>
+      </c>
+      <c r="F76">
+        <v>1.677</v>
+      </c>
+      <c r="G76">
+        <v>8.75</v>
+      </c>
+      <c r="H76">
+        <v>60.331000000000003</v>
+      </c>
+      <c r="I76">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>6</v>
+      </c>
+      <c r="B77">
+        <v>0.45</v>
+      </c>
+      <c r="C77">
+        <v>0.38</v>
+      </c>
+      <c r="D77">
+        <v>0.35</v>
+      </c>
+      <c r="E77">
+        <v>0.4325</v>
+      </c>
+      <c r="F77">
+        <v>1.647</v>
+      </c>
+      <c r="G77">
+        <v>1.68</v>
+      </c>
+      <c r="H77">
+        <v>116.107</v>
+      </c>
+      <c r="I77">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>7</v>
+      </c>
+      <c r="B78">
+        <v>0.45</v>
+      </c>
+      <c r="C78">
+        <v>0.38</v>
+      </c>
+      <c r="D78">
+        <v>0.25</v>
+      </c>
+      <c r="E78">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F78">
+        <v>1.631</v>
+      </c>
+      <c r="G78">
+        <v>8.48</v>
+      </c>
+      <c r="H78">
+        <v>58.509</v>
+      </c>
+      <c r="I78">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>9</v>
+      </c>
+      <c r="B79">
+        <v>0.45</v>
+      </c>
+      <c r="C79">
+        <v>0.42</v>
+      </c>
+      <c r="D79">
+        <v>0.35</v>
+      </c>
+      <c r="E79">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F79" s="118">
+        <v>1.66</v>
+      </c>
+      <c r="G79">
+        <v>84.5</v>
+      </c>
+      <c r="H79">
+        <v>582.81299999999999</v>
+      </c>
+      <c r="I79">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>10</v>
+      </c>
+      <c r="B80">
+        <v>0.45</v>
+      </c>
+      <c r="C80">
+        <v>0.42</v>
+      </c>
+      <c r="D80">
+        <v>0.35</v>
+      </c>
+      <c r="E80">
+        <v>0.4325</v>
+      </c>
+      <c r="F80">
+        <v>1.732</v>
+      </c>
+      <c r="G80">
+        <v>88.3</v>
+      </c>
+      <c r="H80">
+        <v>609.05399999999997</v>
+      </c>
+      <c r="I80">
+        <v>26.54</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>11</v>
+      </c>
+      <c r="B81">
+        <v>0.45</v>
+      </c>
+      <c r="C81">
+        <v>0.42</v>
+      </c>
+      <c r="D81">
+        <v>0.25</v>
+      </c>
+      <c r="E81">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F81">
+        <v>1.704</v>
+      </c>
+      <c r="G81">
+        <v>44.3</v>
+      </c>
+      <c r="H81">
+        <v>305.34100000000001</v>
+      </c>
+      <c r="I81">
+        <v>18.95</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>94</v>
+      </c>
+      <c r="B82">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="C82">
+        <v>0.4</v>
+      </c>
+      <c r="D82">
+        <v>0.3</v>
+      </c>
+      <c r="E82">
+        <v>0.49125000000000002</v>
+      </c>
+      <c r="F82">
+        <v>1.7589999999999999</v>
+      </c>
+      <c r="G82">
+        <v>10.5</v>
+      </c>
+      <c r="H82">
+        <v>72.244</v>
+      </c>
+      <c r="I82">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>94</v>
+      </c>
+      <c r="B83">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="C83">
+        <v>0.4</v>
+      </c>
+      <c r="D83">
+        <v>0.3</v>
+      </c>
+      <c r="E83">
+        <v>0.49125000000000002</v>
+      </c>
+      <c r="F83">
+        <v>1.7509999999999999</v>
+      </c>
+      <c r="G83">
+        <v>10.4</v>
+      </c>
+      <c r="H83">
+        <v>71.983999999999995</v>
+      </c>
+      <c r="I83">
+        <v>9.08</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A8:F8"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="O8:T8"/>
+    <mergeCell ref="V8:AA8"/>
+    <mergeCell ref="AC8:AH8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -9578,7 +13127,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94FEFE3-C638-4C02-8D14-3FDB6DDF418A}">
   <dimension ref="A1:AE42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>
@@ -9600,20 +13149,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="93"/>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="97"/>
+      <c r="G1" s="93"/>
       <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
@@ -9622,20 +13171,20 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="86"/>
+      <c r="B2" s="95"/>
       <c r="C2" s="6">
         <v>0.44</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="86"/>
+      <c r="G2" s="95"/>
       <c r="H2" s="6">
         <v>0.25</v>
       </c>
@@ -9644,20 +13193,20 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="86"/>
+      <c r="B3" s="95"/>
       <c r="C3" s="6">
         <v>0.221</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="86"/>
+      <c r="G3" s="95"/>
       <c r="H3" s="6">
         <v>0.25</v>
       </c>
@@ -9666,20 +13215,20 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="86"/>
+      <c r="B4" s="95"/>
       <c r="C4" s="6">
         <v>0.42099999999999999</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="86"/>
+      <c r="G4" s="95"/>
       <c r="H4" s="6">
         <v>0.21</v>
       </c>
@@ -9688,20 +13237,20 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="86"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="6">
         <v>5.9499999999999997E-2</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="86"/>
+      <c r="G5" s="95"/>
       <c r="H5" s="6">
         <v>0.86499999999999999</v>
       </c>
@@ -9710,20 +13259,20 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="84"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="6">
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="86"/>
+      <c r="G6" s="95"/>
       <c r="H6" s="6">
         <v>0.4844</v>
       </c>
@@ -9732,18 +13281,18 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="84"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="7">
         <v>0.53984146967987301</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="86"/>
+      <c r="G7" s="95"/>
       <c r="H7" s="6">
         <f>(H6-C4)/2</f>
         <v>3.1700000000000006E-2</v>
@@ -9798,41 +13347,41 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="89" t="s">
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="91"/>
-      <c r="W11" s="95" t="s">
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="X11" s="95"/>
-      <c r="Y11" s="95"/>
-      <c r="Z11" s="95"/>
-      <c r="AA11" s="95"/>
-      <c r="AB11" s="95"/>
-      <c r="AC11" s="95"/>
+      <c r="X11" s="106"/>
+      <c r="Y11" s="106"/>
+      <c r="Z11" s="106"/>
+      <c r="AA11" s="106"/>
+      <c r="AB11" s="106"/>
+      <c r="AC11" s="106"/>
     </row>
     <row r="12" spans="1:29" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -10831,43 +14380,43 @@
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="88" t="s">
+      <c r="A29" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="92" t="s">
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="N29" s="93"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="93"/>
-      <c r="R29" s="93"/>
-      <c r="S29" s="93"/>
-      <c r="T29" s="93"/>
-      <c r="U29" s="93"/>
-      <c r="V29" s="93"/>
-      <c r="W29" s="93"/>
-      <c r="X29" s="94"/>
-      <c r="Y29" s="95" t="s">
+      <c r="N29" s="104"/>
+      <c r="O29" s="104"/>
+      <c r="P29" s="104"/>
+      <c r="Q29" s="104"/>
+      <c r="R29" s="104"/>
+      <c r="S29" s="104"/>
+      <c r="T29" s="104"/>
+      <c r="U29" s="104"/>
+      <c r="V29" s="104"/>
+      <c r="W29" s="104"/>
+      <c r="X29" s="105"/>
+      <c r="Y29" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="Z29" s="95"/>
-      <c r="AA29" s="95"/>
-      <c r="AB29" s="95"/>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="95"/>
-      <c r="AE29" s="95"/>
+      <c r="Z29" s="106"/>
+      <c r="AA29" s="106"/>
+      <c r="AB29" s="106"/>
+      <c r="AC29" s="106"/>
+      <c r="AD29" s="106"/>
+      <c r="AE29" s="106"/>
     </row>
     <row r="30" spans="1:31" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
@@ -11914,18 +15463,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="A11:L11"/>
     <mergeCell ref="A29:L29"/>
     <mergeCell ref="M29:X29"/>
@@ -11934,6 +15471,18 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="W11:AC11"/>
     <mergeCell ref="Y29:AE29"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11945,7 +15494,7 @@
   <dimension ref="A1:AE42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11965,20 +15514,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="93"/>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="97"/>
+      <c r="G1" s="93"/>
       <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
@@ -11987,20 +15536,20 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="86"/>
+      <c r="B2" s="95"/>
       <c r="C2" s="6">
         <v>0.44</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="86"/>
+      <c r="G2" s="95"/>
       <c r="H2" s="6">
         <v>0.25</v>
       </c>
@@ -12009,20 +15558,20 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="86"/>
+      <c r="B3" s="95"/>
       <c r="C3" s="6">
         <v>0.221</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="86"/>
+      <c r="G3" s="95"/>
       <c r="H3" s="6">
         <v>0.25</v>
       </c>
@@ -12031,20 +15580,20 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="86"/>
+      <c r="B4" s="95"/>
       <c r="C4" s="6">
         <v>0.42099999999999999</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="86"/>
+      <c r="G4" s="95"/>
       <c r="H4" s="6">
         <v>0.21</v>
       </c>
@@ -12053,20 +15602,20 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="86"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="6">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="86"/>
+      <c r="G5" s="95"/>
       <c r="H5" s="6">
         <v>0.86499999999999999</v>
       </c>
@@ -12075,20 +15624,20 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="84"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="6">
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="86"/>
+      <c r="G6" s="95"/>
       <c r="H6" s="6">
         <v>0.47499999999999998</v>
       </c>
@@ -12097,18 +15646,18 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="84"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="7">
         <v>0.55345091849533101</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="86"/>
+      <c r="G7" s="95"/>
       <c r="H7" s="6">
         <f>(H6-C4)/2</f>
         <v>2.6999999999999996E-2</v>
@@ -12163,41 +15712,41 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="89" t="s">
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="91"/>
-      <c r="W11" s="95" t="s">
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="X11" s="95"/>
-      <c r="Y11" s="95"/>
-      <c r="Z11" s="95"/>
-      <c r="AA11" s="95"/>
-      <c r="AB11" s="95"/>
-      <c r="AC11" s="95"/>
+      <c r="X11" s="106"/>
+      <c r="Y11" s="106"/>
+      <c r="Z11" s="106"/>
+      <c r="AA11" s="106"/>
+      <c r="AB11" s="106"/>
+      <c r="AC11" s="106"/>
     </row>
     <row r="12" spans="1:29" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -13148,43 +16697,43 @@
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="88" t="s">
+      <c r="A29" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="92" t="s">
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="N29" s="93"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="93"/>
-      <c r="R29" s="93"/>
-      <c r="S29" s="93"/>
-      <c r="T29" s="93"/>
-      <c r="U29" s="93"/>
-      <c r="V29" s="93"/>
-      <c r="W29" s="93"/>
-      <c r="X29" s="94"/>
-      <c r="Y29" s="95" t="s">
+      <c r="N29" s="104"/>
+      <c r="O29" s="104"/>
+      <c r="P29" s="104"/>
+      <c r="Q29" s="104"/>
+      <c r="R29" s="104"/>
+      <c r="S29" s="104"/>
+      <c r="T29" s="104"/>
+      <c r="U29" s="104"/>
+      <c r="V29" s="104"/>
+      <c r="W29" s="104"/>
+      <c r="X29" s="105"/>
+      <c r="Y29" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="Z29" s="95"/>
-      <c r="AA29" s="95"/>
-      <c r="AB29" s="95"/>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="95"/>
-      <c r="AE29" s="95"/>
+      <c r="Z29" s="106"/>
+      <c r="AA29" s="106"/>
+      <c r="AB29" s="106"/>
+      <c r="AC29" s="106"/>
+      <c r="AD29" s="106"/>
+      <c r="AE29" s="106"/>
     </row>
     <row r="30" spans="1:31" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
@@ -14231,26 +17780,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="A11:L11"/>
     <mergeCell ref="M11:V11"/>
     <mergeCell ref="A29:L29"/>
     <mergeCell ref="M29:X29"/>
     <mergeCell ref="Y29:AE29"/>
     <mergeCell ref="W11:AC11"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14261,8 +17810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424B0F11-3F14-4E75-ADE1-1A7CD1461A3A}">
   <dimension ref="A1:AE43"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14282,20 +17831,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="93"/>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="97"/>
+      <c r="G1" s="93"/>
       <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
@@ -14304,20 +17853,20 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="86"/>
+      <c r="B2" s="95"/>
       <c r="C2" s="6">
         <v>0.44</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="86"/>
+      <c r="G2" s="95"/>
       <c r="H2" s="6">
         <v>0.25</v>
       </c>
@@ -14326,20 +17875,20 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="86"/>
+      <c r="B3" s="95"/>
       <c r="C3" s="6">
         <v>0.221</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="86"/>
+      <c r="G3" s="95"/>
       <c r="H3" s="6">
         <v>0.25</v>
       </c>
@@ -14348,20 +17897,20 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="86"/>
+      <c r="B4" s="95"/>
       <c r="C4" s="6">
         <v>0.42099999999999999</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="86"/>
+      <c r="G4" s="95"/>
       <c r="H4" s="6">
         <v>0.21</v>
       </c>
@@ -14370,20 +17919,20 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="86"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="6">
         <v>5.9499999999999997E-2</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="86"/>
+      <c r="G5" s="95"/>
       <c r="H5" s="6">
         <v>0.86499999999999999</v>
       </c>
@@ -14392,20 +17941,20 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="84"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="6">
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="86"/>
+      <c r="G6" s="95"/>
       <c r="H6" s="6">
         <v>0.46875</v>
       </c>
@@ -14414,18 +17963,18 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="84"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="7">
         <v>0.53984146967987301</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="86"/>
+      <c r="G7" s="95"/>
       <c r="H7" s="6">
         <f>(H6-C4)/2</f>
         <v>2.3875000000000007E-2</v>
@@ -14480,41 +18029,41 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="87" t="s">
+      <c r="A11" s="98" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="87"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="87"/>
-      <c r="K11" s="87"/>
-      <c r="L11" s="87"/>
-      <c r="M11" s="89" t="s">
+      <c r="B11" s="98"/>
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="98"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="98"/>
+      <c r="M11" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="91"/>
-      <c r="W11" s="95" t="s">
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="X11" s="95"/>
-      <c r="Y11" s="95"/>
-      <c r="Z11" s="95"/>
-      <c r="AA11" s="95"/>
-      <c r="AB11" s="95"/>
-      <c r="AC11" s="95"/>
+      <c r="X11" s="106"/>
+      <c r="Y11" s="106"/>
+      <c r="Z11" s="106"/>
+      <c r="AA11" s="106"/>
+      <c r="AB11" s="106"/>
+      <c r="AC11" s="106"/>
     </row>
     <row r="12" spans="1:29" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -15445,43 +18994,43 @@
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="88" t="s">
+      <c r="A29" s="99" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="88"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
-      <c r="H29" s="88"/>
-      <c r="I29" s="88"/>
-      <c r="J29" s="88"/>
-      <c r="K29" s="88"/>
-      <c r="L29" s="88"/>
-      <c r="M29" s="92" t="s">
+      <c r="B29" s="99"/>
+      <c r="C29" s="99"/>
+      <c r="D29" s="99"/>
+      <c r="E29" s="99"/>
+      <c r="F29" s="99"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="99"/>
+      <c r="L29" s="99"/>
+      <c r="M29" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="N29" s="93"/>
-      <c r="O29" s="93"/>
-      <c r="P29" s="93"/>
-      <c r="Q29" s="93"/>
-      <c r="R29" s="93"/>
-      <c r="S29" s="93"/>
-      <c r="T29" s="93"/>
-      <c r="U29" s="93"/>
-      <c r="V29" s="93"/>
-      <c r="W29" s="93"/>
-      <c r="X29" s="94"/>
-      <c r="Y29" s="95" t="s">
+      <c r="N29" s="104"/>
+      <c r="O29" s="104"/>
+      <c r="P29" s="104"/>
+      <c r="Q29" s="104"/>
+      <c r="R29" s="104"/>
+      <c r="S29" s="104"/>
+      <c r="T29" s="104"/>
+      <c r="U29" s="104"/>
+      <c r="V29" s="104"/>
+      <c r="W29" s="104"/>
+      <c r="X29" s="105"/>
+      <c r="Y29" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="Z29" s="95"/>
-      <c r="AA29" s="95"/>
-      <c r="AB29" s="95"/>
-      <c r="AC29" s="95"/>
-      <c r="AD29" s="95"/>
-      <c r="AE29" s="95"/>
+      <c r="Z29" s="106"/>
+      <c r="AA29" s="106"/>
+      <c r="AB29" s="106"/>
+      <c r="AC29" s="106"/>
+      <c r="AD29" s="106"/>
+      <c r="AE29" s="106"/>
     </row>
     <row r="30" spans="1:31" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
@@ -16502,18 +20051,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="M29:X29"/>
     <mergeCell ref="A29:L29"/>
     <mergeCell ref="M11:V11"/>
@@ -16522,6 +20059,18 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="W11:AC11"/>
     <mergeCell ref="Y29:AE29"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16552,20 +20101,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="93"/>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="97"/>
+      <c r="G1" s="93"/>
       <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
@@ -16574,20 +20123,20 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="86"/>
+      <c r="B2" s="95"/>
       <c r="C2" s="6">
         <v>0.44</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="86"/>
+      <c r="G2" s="95"/>
       <c r="H2" s="6">
         <v>0.25</v>
       </c>
@@ -16596,20 +20145,20 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="86"/>
+      <c r="B3" s="95"/>
       <c r="C3" s="6">
         <v>0.221</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="86"/>
+      <c r="G3" s="95"/>
       <c r="H3" s="6">
         <v>0.25</v>
       </c>
@@ -16618,20 +20167,20 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="86"/>
+      <c r="B4" s="95"/>
       <c r="C4" s="6">
         <v>0.42099999999999999</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="86"/>
+      <c r="G4" s="95"/>
       <c r="H4" s="6">
         <v>0.21</v>
       </c>
@@ -16640,20 +20189,20 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="86"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="6" t="s">
         <v>76</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="86"/>
+      <c r="G5" s="95"/>
       <c r="H5" s="6">
         <v>0.86499999999999999</v>
       </c>
@@ -16662,20 +20211,20 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="84"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="6">
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="86"/>
+      <c r="G6" s="95"/>
       <c r="H6" s="6">
         <v>0.45100000000000001</v>
       </c>
@@ -16684,18 +20233,18 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="84"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="7">
         <v>0.36291863507890598</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="86"/>
+      <c r="G7" s="95"/>
       <c r="H7" s="6">
         <f>(H6-C4)/2</f>
         <v>1.5000000000000013E-2</v>
@@ -16750,41 +20299,41 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="89" t="s">
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="91"/>
-      <c r="W11" s="95" t="s">
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="X11" s="95"/>
-      <c r="Y11" s="95"/>
-      <c r="Z11" s="95"/>
-      <c r="AA11" s="95"/>
-      <c r="AB11" s="95"/>
-      <c r="AC11" s="95"/>
+      <c r="X11" s="106"/>
+      <c r="Y11" s="106"/>
+      <c r="Z11" s="106"/>
+      <c r="AA11" s="106"/>
+      <c r="AB11" s="106"/>
+      <c r="AC11" s="106"/>
     </row>
     <row r="12" spans="1:29" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -17549,43 +21098,43 @@
       <c r="V25" s="75"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="101" t="s">
+      <c r="A26" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="101"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="102"/>
-      <c r="M26" s="92" t="s">
+      <c r="B26" s="110"/>
+      <c r="C26" s="110"/>
+      <c r="D26" s="110"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="110"/>
+      <c r="H26" s="110"/>
+      <c r="I26" s="110"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="110"/>
+      <c r="L26" s="111"/>
+      <c r="M26" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="N26" s="93"/>
-      <c r="O26" s="93"/>
-      <c r="P26" s="93"/>
-      <c r="Q26" s="93"/>
-      <c r="R26" s="93"/>
-      <c r="S26" s="93"/>
-      <c r="T26" s="93"/>
-      <c r="U26" s="93"/>
-      <c r="V26" s="93"/>
-      <c r="W26" s="93"/>
-      <c r="X26" s="94"/>
-      <c r="Y26" s="95" t="s">
+      <c r="N26" s="104"/>
+      <c r="O26" s="104"/>
+      <c r="P26" s="104"/>
+      <c r="Q26" s="104"/>
+      <c r="R26" s="104"/>
+      <c r="S26" s="104"/>
+      <c r="T26" s="104"/>
+      <c r="U26" s="104"/>
+      <c r="V26" s="104"/>
+      <c r="W26" s="104"/>
+      <c r="X26" s="105"/>
+      <c r="Y26" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="Z26" s="95"/>
-      <c r="AA26" s="95"/>
-      <c r="AB26" s="95"/>
-      <c r="AC26" s="95"/>
-      <c r="AD26" s="95"/>
-      <c r="AE26" s="95"/>
+      <c r="Z26" s="106"/>
+      <c r="AA26" s="106"/>
+      <c r="AB26" s="106"/>
+      <c r="AC26" s="106"/>
+      <c r="AD26" s="106"/>
+      <c r="AE26" s="106"/>
     </row>
     <row r="27" spans="1:31" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
@@ -18608,6 +22157,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="A11:L11"/>
@@ -18616,18 +22177,6 @@
     <mergeCell ref="M26:X26"/>
     <mergeCell ref="W11:AC11"/>
     <mergeCell ref="Y26:AE26"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18638,8 +22187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE50"/>
   <sheetViews>
-    <sheetView topLeftCell="O7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18658,20 +22207,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="93"/>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="97"/>
+      <c r="G1" s="93"/>
       <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
@@ -18680,20 +22229,20 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="86"/>
+      <c r="B2" s="95"/>
       <c r="C2" s="6">
         <v>0.44</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="86"/>
+      <c r="G2" s="95"/>
       <c r="H2" s="6">
         <v>0.25</v>
       </c>
@@ -18702,20 +22251,20 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="86"/>
+      <c r="B3" s="95"/>
       <c r="C3" s="6">
         <v>0.221</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="86"/>
+      <c r="G3" s="95"/>
       <c r="H3" s="6">
         <v>0.25</v>
       </c>
@@ -18724,20 +22273,20 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="86"/>
+      <c r="B4" s="95"/>
       <c r="C4" s="6">
         <v>0.42099999999999999</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="86"/>
+      <c r="G4" s="95"/>
       <c r="H4" s="6">
         <v>0.21</v>
       </c>
@@ -18746,20 +22295,20 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="86"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="6">
         <v>0.04</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="86"/>
+      <c r="G5" s="95"/>
       <c r="H5" s="6">
         <v>0.86499999999999999</v>
       </c>
@@ -18768,20 +22317,20 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="84"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="6">
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="86"/>
+      <c r="G6" s="95"/>
       <c r="H6" s="6">
         <v>0.4375</v>
       </c>
@@ -18790,18 +22339,18 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="84"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="7">
         <v>0.36291863507890598</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="86"/>
+      <c r="G7" s="95"/>
       <c r="H7" s="6">
         <v>8.2499999999999796E-3</v>
       </c>
@@ -18855,41 +22404,41 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="89" t="s">
+      <c r="B11" s="108"/>
+      <c r="C11" s="108"/>
+      <c r="D11" s="108"/>
+      <c r="E11" s="108"/>
+      <c r="F11" s="108"/>
+      <c r="G11" s="108"/>
+      <c r="H11" s="108"/>
+      <c r="I11" s="108"/>
+      <c r="J11" s="108"/>
+      <c r="K11" s="108"/>
+      <c r="L11" s="109"/>
+      <c r="M11" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="91"/>
-      <c r="W11" s="95" t="s">
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="102"/>
+      <c r="W11" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="X11" s="95"/>
-      <c r="Y11" s="95"/>
-      <c r="Z11" s="95"/>
-      <c r="AA11" s="95"/>
-      <c r="AB11" s="95"/>
-      <c r="AC11" s="95"/>
+      <c r="X11" s="106"/>
+      <c r="Y11" s="106"/>
+      <c r="Z11" s="106"/>
+      <c r="AA11" s="106"/>
+      <c r="AB11" s="106"/>
+      <c r="AC11" s="106"/>
     </row>
     <row r="12" spans="1:29" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -19984,43 +23533,43 @@
       <c r="V30" s="34"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="101" t="s">
+      <c r="A31" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="101"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
-      <c r="G31" s="101"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="102"/>
-      <c r="M31" s="92" t="s">
+      <c r="B31" s="110"/>
+      <c r="C31" s="110"/>
+      <c r="D31" s="110"/>
+      <c r="E31" s="110"/>
+      <c r="F31" s="110"/>
+      <c r="G31" s="110"/>
+      <c r="H31" s="110"/>
+      <c r="I31" s="110"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="110"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="N31" s="93"/>
-      <c r="O31" s="93"/>
-      <c r="P31" s="93"/>
-      <c r="Q31" s="93"/>
-      <c r="R31" s="93"/>
-      <c r="S31" s="93"/>
-      <c r="T31" s="93"/>
-      <c r="U31" s="93"/>
-      <c r="V31" s="93"/>
-      <c r="W31" s="93"/>
-      <c r="X31" s="94"/>
-      <c r="Y31" s="95" t="s">
+      <c r="N31" s="104"/>
+      <c r="O31" s="104"/>
+      <c r="P31" s="104"/>
+      <c r="Q31" s="104"/>
+      <c r="R31" s="104"/>
+      <c r="S31" s="104"/>
+      <c r="T31" s="104"/>
+      <c r="U31" s="104"/>
+      <c r="V31" s="104"/>
+      <c r="W31" s="104"/>
+      <c r="X31" s="105"/>
+      <c r="Y31" s="106" t="s">
         <v>88</v>
       </c>
-      <c r="Z31" s="95"/>
-      <c r="AA31" s="95"/>
-      <c r="AB31" s="95"/>
-      <c r="AC31" s="95"/>
-      <c r="AD31" s="95"/>
-      <c r="AE31" s="95"/>
+      <c r="Z31" s="106"/>
+      <c r="AA31" s="106"/>
+      <c r="AB31" s="106"/>
+      <c r="AC31" s="106"/>
+      <c r="AD31" s="106"/>
+      <c r="AE31" s="106"/>
     </row>
     <row r="32" spans="1:31" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
@@ -21043,14 +24592,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="A6:B6"/>
@@ -21063,6 +24604,14 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="W11:AC11"/>
     <mergeCell ref="Y31:AE31"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -21083,18 +24632,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C2" s="103" t="s">
+      <c r="C2" s="112" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="103"/>
-      <c r="F2" s="103" t="s">
+      <c r="D2" s="112"/>
+      <c r="F2" s="112" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="103"/>
-      <c r="I2" s="103" t="s">
+      <c r="G2" s="112"/>
+      <c r="I2" s="112" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="103"/>
+      <c r="J2" s="112"/>
       <c r="L2" s="77"/>
       <c r="M2" t="s">
         <v>75</v>
@@ -21392,7 +24941,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X42"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
@@ -21417,20 +24966,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="93"/>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="97"/>
+      <c r="G1" s="93"/>
       <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
@@ -21439,20 +24988,20 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="86"/>
+      <c r="B2" s="95"/>
       <c r="C2" s="6">
         <v>0.44</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="86"/>
+      <c r="G2" s="95"/>
       <c r="H2" s="6">
         <v>0.25</v>
       </c>
@@ -21461,20 +25010,20 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="86"/>
+      <c r="B3" s="95"/>
       <c r="C3" s="6">
         <v>0.221</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="86"/>
+      <c r="G3" s="95"/>
       <c r="H3" s="6">
         <v>0.25</v>
       </c>
@@ -21483,20 +25032,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="86"/>
+      <c r="B4" s="95"/>
       <c r="C4" s="6">
         <v>0.42099999999999999</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="86"/>
+      <c r="G4" s="95"/>
       <c r="H4" s="6">
         <v>0.21</v>
       </c>
@@ -21505,20 +25054,20 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="86"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="6">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="86"/>
+      <c r="G5" s="95"/>
       <c r="H5" s="6">
         <v>0.86499999999999999</v>
       </c>
@@ -21527,20 +25076,20 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="84"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="6">
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="86"/>
+      <c r="G6" s="95"/>
       <c r="H6" s="6">
         <v>0.4375</v>
       </c>
@@ -21549,18 +25098,18 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="84"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="7">
         <v>0.235897112801289</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="86"/>
+      <c r="G7" s="95"/>
       <c r="H7" s="6">
         <v>8.2499999999999796E-3</v>
       </c>
@@ -21614,32 +25163,32 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="105" t="s">
+      <c r="A11" s="114" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="107"/>
-      <c r="M11" s="89" t="s">
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="116"/>
+      <c r="M11" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="N11" s="90"/>
-      <c r="O11" s="90"/>
-      <c r="P11" s="90"/>
-      <c r="Q11" s="90"/>
-      <c r="R11" s="90"/>
-      <c r="S11" s="90"/>
-      <c r="T11" s="90"/>
-      <c r="U11" s="90"/>
-      <c r="V11" s="91"/>
+      <c r="N11" s="101"/>
+      <c r="O11" s="101"/>
+      <c r="P11" s="101"/>
+      <c r="Q11" s="101"/>
+      <c r="R11" s="101"/>
+      <c r="S11" s="101"/>
+      <c r="T11" s="101"/>
+      <c r="U11" s="101"/>
+      <c r="V11" s="102"/>
     </row>
     <row r="12" spans="1:22" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -22469,34 +26018,34 @@
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="101" t="s">
+      <c r="A29" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="101"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="101"/>
-      <c r="G29" s="101"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="101"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="102"/>
-      <c r="M29" s="104" t="s">
+      <c r="B29" s="110"/>
+      <c r="C29" s="110"/>
+      <c r="D29" s="110"/>
+      <c r="E29" s="110"/>
+      <c r="F29" s="110"/>
+      <c r="G29" s="110"/>
+      <c r="H29" s="110"/>
+      <c r="I29" s="110"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="110"/>
+      <c r="L29" s="111"/>
+      <c r="M29" s="113" t="s">
         <v>57</v>
       </c>
-      <c r="N29" s="104"/>
-      <c r="O29" s="104"/>
-      <c r="P29" s="104"/>
-      <c r="Q29" s="104"/>
-      <c r="R29" s="104"/>
-      <c r="S29" s="104"/>
-      <c r="T29" s="104"/>
-      <c r="U29" s="104"/>
-      <c r="V29" s="104"/>
-      <c r="W29" s="104"/>
-      <c r="X29" s="104"/>
+      <c r="N29" s="113"/>
+      <c r="O29" s="113"/>
+      <c r="P29" s="113"/>
+      <c r="Q29" s="113"/>
+      <c r="R29" s="113"/>
+      <c r="S29" s="113"/>
+      <c r="T29" s="113"/>
+      <c r="U29" s="113"/>
+      <c r="V29" s="113"/>
+      <c r="W29" s="113"/>
+      <c r="X29" s="113"/>
     </row>
     <row r="30" spans="1:24" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
@@ -23238,24 +26787,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="M11:V11"/>
     <mergeCell ref="M29:X29"/>
     <mergeCell ref="A11:L11"/>
     <mergeCell ref="A29:L29"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -23267,7 +26816,7 @@
   <dimension ref="A1:L73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23284,20 +26833,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="97"/>
+      <c r="B1" s="93"/>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="96" t="s">
+      <c r="F1" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="97"/>
+      <c r="G1" s="93"/>
       <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
@@ -23306,20 +26855,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="85" t="s">
+      <c r="A2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="86"/>
+      <c r="B2" s="95"/>
       <c r="C2" s="6">
         <v>0.44</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="85" t="s">
+      <c r="F2" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="86"/>
+      <c r="G2" s="95"/>
       <c r="H2" s="6">
         <v>0.25</v>
       </c>
@@ -23328,20 +26877,20 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="94" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="86"/>
+      <c r="B3" s="95"/>
       <c r="C3" s="6">
         <v>0.221</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="94" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="86"/>
+      <c r="G3" s="95"/>
       <c r="H3" s="6">
         <v>0.25</v>
       </c>
@@ -23350,20 +26899,20 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="85" t="s">
+      <c r="A4" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="86"/>
+      <c r="B4" s="95"/>
       <c r="C4" s="6">
         <v>0.42099999999999999</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="85" t="s">
+      <c r="F4" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="86"/>
+      <c r="G4" s="95"/>
       <c r="H4" s="6">
         <v>0.21</v>
       </c>
@@ -23372,20 +26921,20 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="85" t="s">
+      <c r="A5" s="94" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="86"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="6">
         <v>5.9499999999999997E-2</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="85" t="s">
+      <c r="F5" s="94" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="86"/>
+      <c r="G5" s="95"/>
       <c r="H5" s="6">
         <v>0.86499999999999999</v>
       </c>
@@ -23394,20 +26943,20 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="83" t="s">
+      <c r="A6" s="96" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="84"/>
+      <c r="B6" s="97"/>
       <c r="C6" s="6">
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="85" t="s">
+      <c r="F6" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="86"/>
+      <c r="G6" s="95"/>
       <c r="H6" s="6">
         <v>0.4844</v>
       </c>
@@ -23416,18 +26965,18 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="83" t="s">
+      <c r="A7" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="84"/>
+      <c r="B7" s="97"/>
       <c r="C7" s="6">
         <v>0.54</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="F7" s="85" t="s">
+      <c r="F7" s="94" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="86"/>
+      <c r="G7" s="95"/>
       <c r="H7" s="6">
         <v>2.3900000000000001E-2</v>
       </c>

--- a/Pintle/Pintle Injector Design Documentation/Pintle_V3_python_hand_calcs.xlsx
+++ b/Pintle/Pintle Injector Design Documentation/Pintle_V3_python_hand_calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jntil\Documents\Git_Repos\liquid-engine-test-stand\Pintle\Pintle Injector Design Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97009608-718D-4074-B763-08E7C19E379D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9286DFA-4810-448D-B618-7738361620E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2010" yWindow="2370" windowWidth="6630" windowHeight="7770" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15525" yWindow="1290" windowWidth="6630" windowHeight="7770" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Injector V3 mjp T4A" sheetId="8" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="120">
   <si>
     <t>Pintle</t>
   </si>
@@ -400,6 +400,15 @@
   </si>
   <si>
     <t>1a</t>
+  </si>
+  <si>
+    <t>aod</t>
+  </si>
+  <si>
+    <t>pod</t>
+  </si>
+  <si>
+    <t>kl</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1099,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1336,13 +1345,27 @@
     <xf numFmtId="0" fontId="0" fillId="49" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1419,21 +1442,6 @@
     <xf numFmtId="0" fontId="18" fillId="43" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1791,8 +1799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3B43E7F-9391-4F52-B1F2-ACA9ED6BA5F7}">
   <dimension ref="A1:AE33"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S26" sqref="S26:S33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1811,20 +1819,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
+      <c r="B1" s="101"/>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="93"/>
+      <c r="G1" s="101"/>
       <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
@@ -1833,20 +1841,20 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="95"/>
+      <c r="B2" s="103"/>
       <c r="C2" s="6">
         <v>0.44</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="94" t="s">
+      <c r="F2" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="95"/>
+      <c r="G2" s="103"/>
       <c r="H2" s="6">
         <v>0.25</v>
       </c>
@@ -1855,20 +1863,20 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="95"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="6">
         <v>0.221</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="94" t="s">
+      <c r="F3" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="95"/>
+      <c r="G3" s="103"/>
       <c r="H3" s="6">
         <v>0.25</v>
       </c>
@@ -1877,20 +1885,20 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="95"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="6">
         <v>0.42099999999999999</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="94" t="s">
+      <c r="F4" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="95"/>
+      <c r="G4" s="103"/>
       <c r="H4" s="6">
         <v>0.21</v>
       </c>
@@ -1899,20 +1907,20 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="95"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="6">
         <v>6.3500000000000001E-2</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="94" t="s">
+      <c r="F5" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="95"/>
+      <c r="G5" s="103"/>
       <c r="H5" s="6">
         <v>0.86499999999999999</v>
       </c>
@@ -1921,20 +1929,20 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="97"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="6">
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="F6" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="95"/>
+      <c r="G6" s="103"/>
       <c r="H6" s="6">
         <v>0.51559999999999995</v>
       </c>
@@ -1943,18 +1951,18 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="7">
         <v>0.57613333318776305</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="95"/>
+      <c r="G7" s="103"/>
       <c r="H7" s="6">
         <v>4.7299999999999898E-2</v>
       </c>
@@ -2008,41 +2016,41 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="100" t="s">
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="101"/>
-      <c r="U11" s="101"/>
-      <c r="V11" s="102"/>
-      <c r="W11" s="106" t="s">
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="109"/>
+      <c r="T11" s="109"/>
+      <c r="U11" s="109"/>
+      <c r="V11" s="110"/>
+      <c r="W11" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="X11" s="106"/>
-      <c r="Y11" s="106"/>
-      <c r="Z11" s="106"/>
-      <c r="AA11" s="106"/>
-      <c r="AB11" s="106"/>
-      <c r="AC11" s="106"/>
+      <c r="X11" s="114"/>
+      <c r="Y11" s="114"/>
+      <c r="Z11" s="114"/>
+      <c r="AA11" s="114"/>
+      <c r="AB11" s="114"/>
+      <c r="AC11" s="114"/>
     </row>
     <row r="12" spans="1:29" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -2643,43 +2651,43 @@
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" s="99" t="s">
+      <c r="A24" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
-      <c r="K24" s="99"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="103" t="s">
+      <c r="B24" s="107"/>
+      <c r="C24" s="107"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="107"/>
+      <c r="H24" s="107"/>
+      <c r="I24" s="107"/>
+      <c r="J24" s="107"/>
+      <c r="K24" s="107"/>
+      <c r="L24" s="107"/>
+      <c r="M24" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="N24" s="104"/>
-      <c r="O24" s="104"/>
-      <c r="P24" s="104"/>
-      <c r="Q24" s="104"/>
-      <c r="R24" s="104"/>
-      <c r="S24" s="104"/>
-      <c r="T24" s="104"/>
-      <c r="U24" s="104"/>
-      <c r="V24" s="104"/>
-      <c r="W24" s="104"/>
-      <c r="X24" s="105"/>
-      <c r="Y24" s="106" t="s">
+      <c r="N24" s="112"/>
+      <c r="O24" s="112"/>
+      <c r="P24" s="112"/>
+      <c r="Q24" s="112"/>
+      <c r="R24" s="112"/>
+      <c r="S24" s="112"/>
+      <c r="T24" s="112"/>
+      <c r="U24" s="112"/>
+      <c r="V24" s="112"/>
+      <c r="W24" s="112"/>
+      <c r="X24" s="113"/>
+      <c r="Y24" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="Z24" s="106"/>
-      <c r="AA24" s="106"/>
-      <c r="AB24" s="106"/>
-      <c r="AC24" s="106"/>
-      <c r="AD24" s="106"/>
-      <c r="AE24" s="106"/>
+      <c r="Z24" s="114"/>
+      <c r="AA24" s="114"/>
+      <c r="AB24" s="114"/>
+      <c r="AC24" s="114"/>
+      <c r="AD24" s="114"/>
+      <c r="AE24" s="114"/>
     </row>
     <row r="25" spans="1:31" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
@@ -3409,20 +3417,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
+      <c r="B1" s="101"/>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="93"/>
+      <c r="G1" s="101"/>
       <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
@@ -3431,20 +3439,20 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="95"/>
+      <c r="B2" s="103"/>
       <c r="C2" s="6">
         <v>0.44</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="94" t="s">
+      <c r="F2" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="95"/>
+      <c r="G2" s="103"/>
       <c r="H2" s="6">
         <v>0.25</v>
       </c>
@@ -3453,20 +3461,20 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="95"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="6">
         <v>0.221</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="94" t="s">
+      <c r="F3" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="95"/>
+      <c r="G3" s="103"/>
       <c r="H3" s="6">
         <v>0.25</v>
       </c>
@@ -3475,20 +3483,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="95"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="6">
         <v>0.42099999999999999</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="94" t="s">
+      <c r="F4" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="95"/>
+      <c r="G4" s="103"/>
       <c r="H4" s="6">
         <v>0.21</v>
       </c>
@@ -3497,20 +3505,20 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="95"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="6">
         <v>5.9499999999999997E-2</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="94" t="s">
+      <c r="F5" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="95"/>
+      <c r="G5" s="103"/>
       <c r="H5" s="6">
         <v>0.86499999999999999</v>
       </c>
@@ -3519,20 +3527,20 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="97"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="6">
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="F6" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="95"/>
+      <c r="G6" s="103"/>
       <c r="H6" s="6">
         <v>0.46875</v>
       </c>
@@ -3541,18 +3549,18 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="6">
         <v>0.54</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="95"/>
+      <c r="G7" s="103"/>
       <c r="H7" s="6">
         <v>2.3900000000000001E-2</v>
       </c>
@@ -3606,32 +3614,32 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="117" t="s">
+      <c r="A11" s="125" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="117"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="100" t="s">
+      <c r="B11" s="125"/>
+      <c r="C11" s="125"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="125"/>
+      <c r="K11" s="125"/>
+      <c r="L11" s="125"/>
+      <c r="M11" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="101"/>
-      <c r="U11" s="101"/>
-      <c r="V11" s="102"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="109"/>
+      <c r="T11" s="109"/>
+      <c r="U11" s="109"/>
+      <c r="V11" s="110"/>
     </row>
     <row r="12" spans="1:22" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -5108,34 +5116,34 @@
       </c>
     </row>
     <row r="47" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A47" s="113" t="s">
+      <c r="A47" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="B47" s="113"/>
-      <c r="C47" s="113"/>
-      <c r="D47" s="113"/>
-      <c r="E47" s="113"/>
-      <c r="F47" s="113"/>
-      <c r="G47" s="113"/>
-      <c r="H47" s="113"/>
-      <c r="I47" s="113"/>
-      <c r="J47" s="113"/>
-      <c r="K47" s="113"/>
-      <c r="L47" s="113"/>
-      <c r="M47" s="113" t="s">
+      <c r="B47" s="121"/>
+      <c r="C47" s="121"/>
+      <c r="D47" s="121"/>
+      <c r="E47" s="121"/>
+      <c r="F47" s="121"/>
+      <c r="G47" s="121"/>
+      <c r="H47" s="121"/>
+      <c r="I47" s="121"/>
+      <c r="J47" s="121"/>
+      <c r="K47" s="121"/>
+      <c r="L47" s="121"/>
+      <c r="M47" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="N47" s="113"/>
-      <c r="O47" s="113"/>
-      <c r="P47" s="113"/>
-      <c r="Q47" s="113"/>
-      <c r="R47" s="113"/>
-      <c r="S47" s="113"/>
-      <c r="T47" s="113"/>
-      <c r="U47" s="113"/>
-      <c r="V47" s="113"/>
-      <c r="W47" s="113"/>
-      <c r="X47" s="113"/>
+      <c r="N47" s="121"/>
+      <c r="O47" s="121"/>
+      <c r="P47" s="121"/>
+      <c r="Q47" s="121"/>
+      <c r="R47" s="121"/>
+      <c r="S47" s="121"/>
+      <c r="T47" s="121"/>
+      <c r="U47" s="121"/>
+      <c r="V47" s="121"/>
+      <c r="W47" s="121"/>
+      <c r="X47" s="121"/>
     </row>
     <row r="48" spans="1:24" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
@@ -6686,10 +6694,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
+      <c r="B1" s="101"/>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
@@ -6698,10 +6706,10 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="95"/>
+      <c r="B2" s="103"/>
       <c r="C2" s="6">
         <v>0.44</v>
       </c>
@@ -6710,10 +6718,10 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="95"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="6">
         <v>0.221</v>
       </c>
@@ -6722,10 +6730,10 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="95"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="6">
         <v>0.42099999999999999</v>
       </c>
@@ -6734,10 +6742,10 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="95"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="6">
         <v>5.9499999999999997E-2</v>
       </c>
@@ -6746,10 +6754,10 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="97"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="6">
         <v>12</v>
       </c>
@@ -6758,10 +6766,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="6">
         <v>0.54</v>
       </c>
@@ -7858,10 +7866,10 @@
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="94" t="s">
+      <c r="A42" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B42" s="95"/>
+      <c r="B42" s="103"/>
       <c r="C42" s="6">
         <v>0.25</v>
       </c>
@@ -7870,10 +7878,10 @@
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="94" t="s">
+      <c r="A43" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="B43" s="95"/>
+      <c r="B43" s="103"/>
       <c r="C43" s="6">
         <v>0.25</v>
       </c>
@@ -7882,10 +7890,10 @@
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="94" t="s">
+      <c r="A44" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="B44" s="95"/>
+      <c r="B44" s="103"/>
       <c r="C44" s="6">
         <v>0.21</v>
       </c>
@@ -7894,10 +7902,10 @@
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="94" t="s">
+      <c r="A45" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="B45" s="95"/>
+      <c r="B45" s="103"/>
       <c r="C45" s="6">
         <v>0.86499999999999999</v>
       </c>
@@ -7906,10 +7914,10 @@
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="94" t="s">
+      <c r="A46" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="B46" s="95"/>
+      <c r="B46" s="103"/>
       <c r="C46" s="6">
         <v>0.46875</v>
       </c>
@@ -7918,10 +7926,10 @@
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="94" t="s">
+      <c r="A47" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="B47" s="95"/>
+      <c r="B47" s="103"/>
       <c r="C47" s="6">
         <v>2.3900000000000001E-2</v>
       </c>
@@ -9032,8 +9040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F5461F-8368-48AF-923C-ACCAFDFFD123}">
   <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9685,10 +9693,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7151EEB2-A148-497B-8F06-60E1B180A556}">
-  <dimension ref="A2:AI83"/>
+  <dimension ref="A2:AP103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="F74" sqref="F74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9700,7 +9708,7 @@
     <col min="7" max="7" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B2" s="87" t="s">
         <v>95</v>
       </c>
@@ -9708,7 +9716,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B3" s="87" t="s">
         <v>95</v>
       </c>
@@ -9716,7 +9724,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B4" s="87" t="s">
         <v>96</v>
       </c>
@@ -9724,7 +9732,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B5" s="87" t="s">
         <v>96</v>
       </c>
@@ -9732,7 +9740,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B6" s="83">
         <v>0</v>
       </c>
@@ -9740,7 +9748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>101</v>
       </c>
@@ -9766,53 +9774,53 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A8" s="112" t="s">
+    <row r="8" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A8" s="120" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="112"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="120"/>
       <c r="G8" s="86"/>
-      <c r="H8" s="112" t="s">
+      <c r="H8" s="120" t="s">
         <v>98</v>
       </c>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
+      <c r="I8" s="120"/>
+      <c r="J8" s="120"/>
+      <c r="K8" s="120"/>
+      <c r="L8" s="120"/>
+      <c r="M8" s="120"/>
       <c r="N8" s="86"/>
-      <c r="O8" s="112" t="s">
+      <c r="O8" s="120" t="s">
         <v>99</v>
       </c>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="112"/>
+      <c r="P8" s="120"/>
+      <c r="Q8" s="120"/>
+      <c r="R8" s="120"/>
+      <c r="S8" s="120"/>
+      <c r="T8" s="120"/>
       <c r="U8" s="86"/>
-      <c r="V8" s="112" t="s">
+      <c r="V8" s="120" t="s">
         <v>100</v>
       </c>
-      <c r="W8" s="112"/>
-      <c r="X8" s="112"/>
-      <c r="Y8" s="112"/>
-      <c r="Z8" s="112"/>
-      <c r="AA8" s="112"/>
+      <c r="W8" s="120"/>
+      <c r="X8" s="120"/>
+      <c r="Y8" s="120"/>
+      <c r="Z8" s="120"/>
+      <c r="AA8" s="120"/>
       <c r="AB8" s="86"/>
-      <c r="AC8" s="112" t="s">
+      <c r="AC8" s="120" t="s">
         <v>113</v>
       </c>
-      <c r="AD8" s="112"/>
-      <c r="AE8" s="112"/>
-      <c r="AF8" s="112"/>
-      <c r="AG8" s="112"/>
-      <c r="AH8" s="112"/>
-    </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AD8" s="120"/>
+      <c r="AE8" s="120"/>
+      <c r="AF8" s="120"/>
+      <c r="AG8" s="120"/>
+      <c r="AH8" s="120"/>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>0</v>
       </c>
@@ -9918,8 +9926,29 @@
       <c r="AI9" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ9" t="s">
+        <v>0</v>
+      </c>
+      <c r="AK9" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM9" t="s">
+        <v>82</v>
+      </c>
+      <c r="AN9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO9" t="s">
+        <v>19</v>
+      </c>
+      <c r="AP9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -9982,7 +10011,7 @@
       <c r="T10" s="83">
         <v>174.42400000000001</v>
       </c>
-      <c r="U10" s="91">
+      <c r="U10" s="90">
         <v>9.3000000000000007</v>
       </c>
       <c r="V10">
@@ -10031,8 +10060,29 @@
       <c r="AI10" s="86">
         <v>7.33</v>
       </c>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ10">
+        <v>1.5</v>
+      </c>
+      <c r="AK10" s="99">
+        <v>0.18</v>
+      </c>
+      <c r="AL10" s="99">
+        <v>0.26</v>
+      </c>
+      <c r="AM10" s="99">
+        <v>16.751999999999999</v>
+      </c>
+      <c r="AN10" s="99">
+        <v>177.8</v>
+      </c>
+      <c r="AO10" s="99">
+        <v>1225.7139999999999</v>
+      </c>
+      <c r="AP10" s="99">
+        <v>12.11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -10146,8 +10196,29 @@
       <c r="AI11" s="86">
         <v>7.58</v>
       </c>
-    </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ11">
+        <v>1.5</v>
+      </c>
+      <c r="AK11" s="99">
+        <v>0.18</v>
+      </c>
+      <c r="AL11" s="99">
+        <v>0.36</v>
+      </c>
+      <c r="AM11" s="99">
+        <v>5.6890000000000001</v>
+      </c>
+      <c r="AN11" s="99">
+        <v>44.22</v>
+      </c>
+      <c r="AO11" s="99">
+        <v>304.91120000000001</v>
+      </c>
+      <c r="AP11" s="99">
+        <v>10.37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -10189,7 +10260,7 @@
       <c r="M12" s="86">
         <v>298.52100000000002</v>
       </c>
-      <c r="N12" s="91">
+      <c r="N12" s="90">
         <v>17.100000000000001</v>
       </c>
       <c r="O12">
@@ -10206,7 +10277,7 @@
       <c r="R12" s="83">
         <v>2.6970000000000001</v>
       </c>
-      <c r="S12" s="90">
+      <c r="S12" s="89">
         <v>32</v>
       </c>
       <c r="T12" s="83">
@@ -10261,8 +10332,30 @@
       <c r="AI12" s="86">
         <v>8.23</v>
       </c>
-    </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ12">
+        <v>1.5</v>
+      </c>
+      <c r="AK12" s="99">
+        <f t="shared" ref="AK10:AK12" si="4">AD12+0.02</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AL12" s="99">
+        <v>0.26</v>
+      </c>
+      <c r="AM12" s="99">
+        <v>7.9089999999999998</v>
+      </c>
+      <c r="AN12" s="99">
+        <v>187.1</v>
+      </c>
+      <c r="AO12" s="99">
+        <v>1290.299</v>
+      </c>
+      <c r="AP12" s="99">
+        <v>18.09</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>4</v>
       </c>
@@ -10288,29 +10381,26 @@
         <v>4</v>
       </c>
       <c r="I13" s="88">
-        <f t="shared" ref="I13:N13" si="4">B10</f>
+        <f t="shared" ref="I13:N13" si="5">B10</f>
         <v>0.06</v>
       </c>
       <c r="J13" s="88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.22</v>
       </c>
       <c r="K13" s="88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>2.2490000000000001</v>
       </c>
       <c r="L13" s="88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>24.3</v>
       </c>
       <c r="M13" s="88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>167.655</v>
       </c>
-      <c r="N13" s="88">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+      <c r="N13" s="88"/>
       <c r="O13">
         <v>4</v>
       </c>
@@ -10380,8 +10470,30 @@
       <c r="AI13" s="88">
         <v>8.3699999999999992</v>
       </c>
-    </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ13">
+        <v>1.5</v>
+      </c>
+      <c r="AK13" s="88">
+        <f>AD10</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AL13" s="88">
+        <v>0.36</v>
+      </c>
+      <c r="AM13" s="88">
+        <v>3.4039999999999999</v>
+      </c>
+      <c r="AN13" s="88">
+        <v>55.11</v>
+      </c>
+      <c r="AO13" s="88">
+        <v>380.00200000000001</v>
+      </c>
+      <c r="AP13" s="88">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -10497,8 +10609,31 @@
       <c r="AI14" s="86">
         <v>7.84</v>
       </c>
-    </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ14">
+        <v>1.5</v>
+      </c>
+      <c r="AK14" s="99">
+        <f>0.5*(AK11-AK13)+AK13</f>
+        <v>0.16</v>
+      </c>
+      <c r="AL14" s="99">
+        <f>0.5*(AL10-AL13)+AL13</f>
+        <v>0.31</v>
+      </c>
+      <c r="AM14" s="99">
+        <v>6.6349999999999998</v>
+      </c>
+      <c r="AN14" s="99">
+        <v>91.38</v>
+      </c>
+      <c r="AO14" s="82">
+        <v>630.08000000000004</v>
+      </c>
+      <c r="AP14" s="99">
+        <v>13.798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B15" s="83"/>
       <c r="C15" s="83"/>
       <c r="D15" s="83"/>
@@ -10568,8 +10703,29 @@
       <c r="AI15" s="86">
         <v>16.98</v>
       </c>
-    </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="AJ15">
+        <v>1.5</v>
+      </c>
+      <c r="AK15" s="99">
+        <v>0.18</v>
+      </c>
+      <c r="AL15" s="99">
+        <v>0.26</v>
+      </c>
+      <c r="AM15" s="99">
+        <v>15.613</v>
+      </c>
+      <c r="AN15" s="99">
+        <v>178.2</v>
+      </c>
+      <c r="AO15" s="99">
+        <v>1229.0740000000001</v>
+      </c>
+      <c r="AP15" s="99">
+        <v>12.56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.25">
       <c r="B16" s="83"/>
       <c r="C16" s="83"/>
       <c r="D16" s="83"/>
@@ -10597,2003 +10753,1991 @@
       <c r="AI16" s="86">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:35" s="120" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="120" t="s">
+      <c r="AJ16">
+        <v>1.5</v>
+      </c>
+      <c r="AK16" s="99">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AL16" s="99">
+        <v>0.26</v>
+      </c>
+      <c r="AM16" s="99">
+        <v>7.8810000000000002</v>
+      </c>
+      <c r="AN16" s="99">
+        <v>195.1</v>
+      </c>
+      <c r="AO16" s="82">
+        <v>1345.4449999999999</v>
+      </c>
+      <c r="AP16" s="99">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="99"/>
+      <c r="AD17" s="99"/>
+      <c r="AE17" s="99"/>
+      <c r="AF17" s="99"/>
+      <c r="AG17" s="99"/>
+      <c r="AH17" s="82"/>
+      <c r="AI17" s="99"/>
+    </row>
+    <row r="18" spans="1:35" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="I17" s="120" t="s">
+      <c r="I18" s="92" t="s">
         <v>102</v>
       </c>
-      <c r="P17" s="120" t="s">
+      <c r="P18" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="W17" s="120" t="s">
+      <c r="W18" s="92" t="s">
         <v>104</v>
       </c>
-      <c r="AD17" s="120" t="s">
+      <c r="AD18" s="92" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="18" spans="1:35" s="120" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="120" t="s">
+    <row r="19" spans="1:35" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="120" t="s">
+      <c r="B19" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="C18" s="120" t="s">
+      <c r="C19" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="D18" s="120" t="s">
+      <c r="D19" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="E18" s="120" t="s">
+      <c r="E19" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="F18" s="120" t="s">
+      <c r="F19" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="120" t="s">
+      <c r="G19" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="H18" s="120" t="s">
+      <c r="H19" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="I18" s="120" t="s">
+      <c r="I19" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="J18" s="120" t="s">
+      <c r="J19" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="K18" s="120" t="s">
+      <c r="K19" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="L18" s="120" t="s">
+      <c r="L19" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="M18" s="120" t="s">
+      <c r="M19" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="N18" s="120" t="s">
+      <c r="N19" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="O18" s="120" t="s">
+      <c r="O19" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="P18" s="120" t="s">
+      <c r="P19" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="Q18" s="120" t="s">
+      <c r="Q19" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="R18" s="120" t="s">
+      <c r="R19" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="S18" s="120" t="s">
+      <c r="S19" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="T18" s="120" t="s">
+      <c r="T19" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="U18" s="120" t="s">
+      <c r="U19" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="V18" s="120" t="s">
+      <c r="V19" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="W18" s="120" t="s">
+      <c r="W19" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="X18" s="120" t="s">
+      <c r="X19" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="Y18" s="120" t="s">
+      <c r="Y19" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="Z18" s="120" t="s">
+      <c r="Z19" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="AA18" s="120" t="s">
+      <c r="AA19" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="AB18" s="120" t="s">
+      <c r="AB19" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="AC18" s="120" t="s">
+      <c r="AC19" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="AD18" s="120" t="s">
+      <c r="AD19" s="92" t="s">
         <v>77</v>
       </c>
-      <c r="AE18" s="120" t="s">
+      <c r="AE19" s="92" t="s">
         <v>78</v>
       </c>
-      <c r="AF18" s="120" t="s">
+      <c r="AF19" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="AG18" s="120" t="s">
+      <c r="AG19" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="AH18" s="120" t="s">
+      <c r="AH19" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="AI18" s="120" t="s">
+      <c r="AI19" s="92" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:35" s="120" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="120">
+    <row r="20" spans="1:35" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="92">
         <v>1</v>
       </c>
-      <c r="B19" s="121">
+      <c r="B20" s="93">
         <v>0.47499999999999998</v>
       </c>
-      <c r="C19" s="121">
+      <c r="C20" s="93">
         <v>0.4</v>
       </c>
-      <c r="D19" s="121">
+      <c r="D20" s="93">
         <v>1.782</v>
       </c>
-      <c r="E19" s="121">
+      <c r="E20" s="93">
         <v>7.33</v>
       </c>
-      <c r="F19" s="121">
+      <c r="F20" s="93">
         <v>5.05</v>
       </c>
-      <c r="G19" s="121">
+      <c r="G20" s="93">
         <v>7.54</v>
       </c>
-      <c r="H19" s="120">
+      <c r="H20" s="92">
         <v>1</v>
       </c>
-      <c r="I19" s="121">
-        <f>B19+0.05</f>
-        <v>0.52500000000000002</v>
-      </c>
-      <c r="J19" s="121">
-        <f>C19+0.05</f>
-        <v>0.45</v>
-      </c>
-      <c r="K19" s="122"/>
-      <c r="L19" s="121"/>
-      <c r="M19" s="122"/>
-      <c r="N19" s="121"/>
-      <c r="O19" s="120">
-        <v>1</v>
-      </c>
-      <c r="P19" s="121">
-        <f>I19+0.05</f>
-        <v>0.57500000000000007</v>
-      </c>
-      <c r="Q19" s="121">
-        <f>J19+0.05</f>
-        <v>0.5</v>
-      </c>
-      <c r="R19" s="120">
-        <v>1.91</v>
-      </c>
-      <c r="S19" s="120">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="T19" s="120">
-        <v>70.23</v>
-      </c>
-      <c r="U19" s="120">
-        <v>8.58</v>
-      </c>
-      <c r="V19" s="120">
-        <v>1</v>
-      </c>
-      <c r="W19" s="121">
-        <f>P19+0.05</f>
-        <v>0.62500000000000011</v>
-      </c>
-      <c r="X19" s="121">
-        <f>Q19+0.05</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="Y19" s="121"/>
-      <c r="Z19" s="121"/>
-      <c r="AA19" s="121"/>
-      <c r="AB19" s="121"/>
-      <c r="AC19" s="120">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="121">
-        <f>W19+0.05</f>
-        <v>0.67500000000000016</v>
-      </c>
-      <c r="AE19" s="121">
-        <f>X19+0.05</f>
-        <v>0.60000000000000009</v>
-      </c>
-      <c r="AF19" s="121"/>
-      <c r="AG19" s="121"/>
-      <c r="AH19" s="121"/>
-    </row>
-    <row r="20" spans="1:35" s="120" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="120">
-        <v>2</v>
-      </c>
-      <c r="B20" s="121">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="C20" s="121">
-        <v>0.3</v>
-      </c>
-      <c r="D20" s="121">
-        <v>2.1949999999999998</v>
-      </c>
-      <c r="E20" s="121">
-        <v>2.13</v>
-      </c>
-      <c r="F20" s="121">
-        <v>14.69</v>
-      </c>
-      <c r="G20" s="121">
-        <v>3.66</v>
-      </c>
-      <c r="H20" s="120">
-        <v>2</v>
-      </c>
-      <c r="I20" s="121">
+      <c r="I20" s="93">
         <f>B20+0.05</f>
         <v>0.52500000000000002</v>
       </c>
-      <c r="J20" s="121">
-        <f>C20+0.1</f>
+      <c r="J20" s="93">
+        <f>C20+0.05</f>
+        <v>0.45</v>
+      </c>
+      <c r="K20" s="94"/>
+      <c r="L20" s="93"/>
+      <c r="M20" s="94"/>
+      <c r="N20" s="93"/>
+      <c r="O20" s="92">
+        <v>1</v>
+      </c>
+      <c r="P20" s="93">
+        <f t="shared" ref="P20:Q23" si="6">I20+0.05</f>
+        <v>0.57500000000000007</v>
+      </c>
+      <c r="Q20" s="93">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="R20" s="92">
+        <v>1.91</v>
+      </c>
+      <c r="S20" s="92">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="T20" s="92">
+        <v>70.23</v>
+      </c>
+      <c r="U20" s="92">
+        <v>8.58</v>
+      </c>
+      <c r="V20" s="92">
+        <v>1</v>
+      </c>
+      <c r="W20" s="93">
+        <f t="shared" ref="W20:X23" si="7">P20+0.05</f>
+        <v>0.62500000000000011</v>
+      </c>
+      <c r="X20" s="93">
+        <f t="shared" si="7"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Y20" s="93"/>
+      <c r="Z20" s="93"/>
+      <c r="AA20" s="93"/>
+      <c r="AB20" s="93"/>
+      <c r="AC20" s="92">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="93">
+        <f t="shared" ref="AD20:AE23" si="8">W20+0.05</f>
+        <v>0.67500000000000016</v>
+      </c>
+      <c r="AE20" s="93">
+        <f t="shared" si="8"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="AF20" s="93"/>
+      <c r="AG20" s="93"/>
+      <c r="AH20" s="93"/>
+    </row>
+    <row r="21" spans="1:35" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="92">
+        <v>2</v>
+      </c>
+      <c r="B21" s="93">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="C21" s="93">
+        <v>0.3</v>
+      </c>
+      <c r="D21" s="93">
+        <v>2.1949999999999998</v>
+      </c>
+      <c r="E21" s="93">
+        <v>2.13</v>
+      </c>
+      <c r="F21" s="93">
+        <v>14.69</v>
+      </c>
+      <c r="G21" s="93">
+        <v>3.66</v>
+      </c>
+      <c r="H21" s="92">
+        <v>2</v>
+      </c>
+      <c r="I21" s="93">
+        <f>B21+0.05</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="J21" s="93">
+        <f>C21+0.1</f>
         <v>0.4</v>
       </c>
-      <c r="K20" s="121">
+      <c r="K21" s="93">
         <v>1.851</v>
       </c>
-      <c r="L20" s="121">
+      <c r="L21" s="93">
         <v>25.35</v>
       </c>
-      <c r="M20" s="121">
+      <c r="M21" s="93">
         <v>174.834</v>
       </c>
-      <c r="N20" s="121">
+      <c r="N21" s="93">
         <v>13.76</v>
       </c>
-      <c r="O20" s="120">
+      <c r="O21" s="92">
         <v>2</v>
       </c>
-      <c r="P20" s="121">
-        <f>I20+0.05</f>
+      <c r="P21" s="93">
+        <f t="shared" si="6"/>
         <v>0.57500000000000007</v>
       </c>
-      <c r="Q20" s="121">
-        <f>J20+0.05</f>
+      <c r="Q21" s="93">
+        <f t="shared" si="6"/>
         <v>0.45</v>
       </c>
-      <c r="R20" s="121"/>
-      <c r="S20" s="121"/>
-      <c r="T20" s="121"/>
-      <c r="U20" s="121"/>
-      <c r="V20" s="120">
+      <c r="R21" s="93"/>
+      <c r="S21" s="93"/>
+      <c r="T21" s="93"/>
+      <c r="U21" s="93"/>
+      <c r="V21" s="92">
         <v>2</v>
       </c>
-      <c r="W20" s="121">
-        <f>P20+0.05</f>
+      <c r="W21" s="93">
+        <f t="shared" si="7"/>
         <v>0.62500000000000011</v>
       </c>
-      <c r="X20" s="121">
-        <f>Q20+0.05</f>
+      <c r="X21" s="93">
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-      <c r="Y20" s="121"/>
-      <c r="Z20" s="121"/>
-      <c r="AA20" s="121"/>
-      <c r="AB20" s="121"/>
-      <c r="AC20" s="120">
+      <c r="Y21" s="93"/>
+      <c r="Z21" s="93"/>
+      <c r="AA21" s="93"/>
+      <c r="AB21" s="93"/>
+      <c r="AC21" s="92">
         <v>2</v>
       </c>
-      <c r="AD20" s="121">
-        <f>W20+0.05</f>
+      <c r="AD21" s="93">
+        <f t="shared" si="8"/>
         <v>0.67500000000000016</v>
       </c>
-      <c r="AE20" s="121">
-        <f>X20+0.05</f>
+      <c r="AE21" s="93">
+        <f t="shared" si="8"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="AF20" s="121"/>
-      <c r="AG20" s="121"/>
-      <c r="AH20" s="121"/>
-    </row>
-    <row r="21" spans="1:35" s="120" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="120">
+      <c r="AF21" s="93"/>
+      <c r="AG21" s="93"/>
+      <c r="AH21" s="93"/>
+    </row>
+    <row r="22" spans="1:35" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="92">
         <v>3</v>
       </c>
-      <c r="B21" s="121">
+      <c r="B22" s="93">
         <v>0.42499999999999999</v>
       </c>
-      <c r="C21" s="121">
+      <c r="C22" s="93">
         <v>0.4</v>
       </c>
-      <c r="D21" s="121">
+      <c r="D22" s="93">
         <v>1.8109999999999999</v>
       </c>
-      <c r="E21" s="121">
+      <c r="E22" s="93">
         <v>75.5</v>
       </c>
-      <c r="F21" s="121">
+      <c r="F22" s="93">
         <v>520.28</v>
       </c>
-      <c r="G21" s="123">
+      <c r="G22" s="95">
         <v>24</v>
       </c>
-      <c r="H21" s="120">
+      <c r="H22" s="92">
         <v>3</v>
       </c>
-      <c r="I21" s="121">
-        <f>I22</f>
+      <c r="I22" s="93">
+        <f>I23</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="J21" s="121">
+      <c r="J22" s="93">
         <v>0.45</v>
       </c>
-      <c r="K21" s="121"/>
-      <c r="L21" s="121"/>
-      <c r="M21" s="121"/>
-      <c r="N21" s="121"/>
-      <c r="O21" s="120">
+      <c r="K22" s="93"/>
+      <c r="L22" s="93"/>
+      <c r="M22" s="93"/>
+      <c r="N22" s="93"/>
+      <c r="O22" s="92">
         <v>3</v>
       </c>
-      <c r="P21" s="121">
-        <f>I21+0.05</f>
+      <c r="P22" s="93">
+        <f t="shared" si="6"/>
         <v>0.52500000000000002</v>
       </c>
-      <c r="Q21" s="121">
-        <f>J21+0.05</f>
+      <c r="Q22" s="93">
+        <f t="shared" si="6"/>
         <v>0.5</v>
       </c>
-      <c r="R21" s="121"/>
-      <c r="S21" s="121"/>
-      <c r="T21" s="121"/>
-      <c r="U21" s="121"/>
-      <c r="V21" s="120">
+      <c r="R22" s="93"/>
+      <c r="S22" s="93"/>
+      <c r="T22" s="93"/>
+      <c r="U22" s="93"/>
+      <c r="V22" s="92">
         <v>3</v>
       </c>
-      <c r="W21" s="121">
-        <f>P21+0.05</f>
+      <c r="W22" s="93">
+        <f t="shared" si="7"/>
         <v>0.57500000000000007</v>
       </c>
-      <c r="X21" s="121">
-        <f>Q21+0.05</f>
+      <c r="X22" s="93">
+        <f t="shared" si="7"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="Y21" s="121"/>
-      <c r="Z21" s="121"/>
-      <c r="AA21" s="121"/>
-      <c r="AB21" s="121"/>
-      <c r="AC21" s="120">
+      <c r="Y22" s="93"/>
+      <c r="Z22" s="93"/>
+      <c r="AA22" s="93"/>
+      <c r="AB22" s="93"/>
+      <c r="AC22" s="92">
         <v>3</v>
       </c>
-      <c r="AD21" s="121">
-        <f>W21+0.05</f>
+      <c r="AD22" s="93">
+        <f t="shared" si="8"/>
         <v>0.62500000000000011</v>
       </c>
-      <c r="AE21" s="121">
-        <f>X21+0.05</f>
+      <c r="AE22" s="93">
+        <f t="shared" si="8"/>
         <v>0.60000000000000009</v>
       </c>
-      <c r="AF21" s="121"/>
-      <c r="AG21" s="121"/>
-      <c r="AH21" s="121"/>
-    </row>
-    <row r="22" spans="1:35" s="120" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="120">
+      <c r="AF22" s="93"/>
+      <c r="AG22" s="93"/>
+      <c r="AH22" s="93"/>
+    </row>
+    <row r="23" spans="1:35" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="92">
         <v>4</v>
       </c>
-      <c r="B22" s="121">
+      <c r="B23" s="93">
         <v>0.42499999999999999</v>
       </c>
-      <c r="C22" s="121">
+      <c r="C23" s="93">
         <v>0.3</v>
       </c>
-      <c r="D22" s="121">
+      <c r="D23" s="93">
         <v>1.8480000000000001</v>
       </c>
-      <c r="E22" s="121">
+      <c r="E23" s="93">
         <v>4.0199999999999996</v>
       </c>
-      <c r="F22" s="121">
+      <c r="F23" s="93">
         <v>27.690999999999999</v>
       </c>
-      <c r="G22" s="121">
+      <c r="G23" s="93">
         <v>5.48</v>
       </c>
-      <c r="H22" s="120">
+      <c r="H23" s="92">
         <v>4</v>
       </c>
-      <c r="I22" s="121">
-        <f>B19</f>
+      <c r="I23" s="93">
+        <f>B20</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="J22" s="121">
+      <c r="J23" s="93">
         <v>0.4</v>
       </c>
-      <c r="O22" s="120">
+      <c r="O23" s="92">
         <v>4</v>
       </c>
-      <c r="P22" s="121">
-        <f>I22+0.05</f>
+      <c r="P23" s="93">
+        <f t="shared" si="6"/>
         <v>0.52500000000000002</v>
       </c>
-      <c r="Q22" s="121">
-        <f>J22+0.05</f>
+      <c r="Q23" s="93">
+        <f t="shared" si="6"/>
         <v>0.45</v>
       </c>
-      <c r="V22" s="120">
+      <c r="V23" s="92">
         <v>4</v>
       </c>
-      <c r="W22" s="121">
-        <f>P22+0.05</f>
+      <c r="W23" s="93">
+        <f t="shared" si="7"/>
         <v>0.57500000000000007</v>
       </c>
-      <c r="X22" s="121">
-        <f>Q22+0.05</f>
+      <c r="X23" s="93">
+        <f t="shared" si="7"/>
         <v>0.5</v>
       </c>
-      <c r="AC22" s="120">
+      <c r="AC23" s="92">
         <v>4</v>
       </c>
-      <c r="AD22" s="121">
-        <f>W22+0.05</f>
+      <c r="AD23" s="93">
+        <f t="shared" si="8"/>
         <v>0.62500000000000011</v>
       </c>
-      <c r="AE22" s="121">
-        <f>X22+0.05</f>
+      <c r="AE23" s="93">
+        <f t="shared" si="8"/>
         <v>0.55000000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:35" s="120" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="120">
+    <row r="24" spans="1:35" s="92" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="92">
         <v>5</v>
       </c>
-      <c r="B23" s="121">
-        <f>0.5*(B20-B22)+B22</f>
+      <c r="B24" s="93">
+        <f>0.5*(B21-B23)+B23</f>
         <v>0.44999999999999996</v>
       </c>
-      <c r="C23" s="121">
-        <f>0.5*(C19-C22)+C22</f>
+      <c r="C24" s="93">
+        <f>0.5*(C20-C23)+C23</f>
         <v>0.35</v>
       </c>
-      <c r="D23" s="121">
+      <c r="D24" s="93">
         <v>1.7949999999999999</v>
       </c>
-      <c r="E23" s="121">
+      <c r="E24" s="93">
         <v>4.95</v>
       </c>
-      <c r="F23" s="121">
+      <c r="F24" s="93">
         <v>34.127000000000002</v>
       </c>
-      <c r="G23" s="121">
+      <c r="G24" s="93">
         <v>6.17</v>
       </c>
-      <c r="H23" s="120">
+      <c r="H24" s="92">
         <v>5</v>
       </c>
-      <c r="I23" s="121">
-        <f>0.5*(I20-I22)+I22</f>
+      <c r="I24" s="93">
+        <f>0.5*(I21-I23)+I23</f>
         <v>0.5</v>
       </c>
-      <c r="J23" s="121">
-        <f>0.5*(J19-J22)+J22</f>
+      <c r="J24" s="93">
+        <f>0.5*(J20-J23)+J23</f>
         <v>0.42500000000000004</v>
       </c>
-      <c r="K23" s="121"/>
-      <c r="L23" s="121"/>
-      <c r="M23" s="121"/>
-      <c r="N23" s="121"/>
-      <c r="O23" s="120">
+      <c r="K24" s="93"/>
+      <c r="L24" s="93"/>
+      <c r="M24" s="93"/>
+      <c r="N24" s="93"/>
+      <c r="O24" s="92">
         <v>5</v>
       </c>
-      <c r="P23" s="121">
-        <f>0.5*(P20-P22)+P22</f>
+      <c r="P24" s="93">
+        <f>0.5*(P21-P23)+P23</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="Q23" s="121">
-        <f>0.5*(Q19-Q22)+Q22</f>
+      <c r="Q24" s="93">
+        <f>0.5*(Q20-Q23)+Q23</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="R23" s="121"/>
-      <c r="S23" s="121"/>
-      <c r="T23" s="121"/>
-      <c r="U23" s="121"/>
-      <c r="V23" s="120">
+      <c r="R24" s="93"/>
+      <c r="S24" s="93"/>
+      <c r="T24" s="93"/>
+      <c r="U24" s="93"/>
+      <c r="V24" s="92">
         <v>5</v>
       </c>
-      <c r="W23" s="121">
-        <f>0.5*(W20-W22)+W22</f>
+      <c r="W24" s="93">
+        <f>0.5*(W21-W23)+W23</f>
         <v>0.60000000000000009</v>
       </c>
-      <c r="X23" s="121">
-        <f>0.5*(X19-X22)+X22</f>
+      <c r="X24" s="93">
+        <f>0.5*(X20-X23)+X23</f>
         <v>0.52500000000000002</v>
       </c>
-      <c r="Y23" s="121"/>
-      <c r="Z23" s="121"/>
-      <c r="AA23" s="121"/>
-      <c r="AB23" s="121"/>
-      <c r="AC23" s="120">
+      <c r="Y24" s="93"/>
+      <c r="Z24" s="93"/>
+      <c r="AA24" s="93"/>
+      <c r="AB24" s="93"/>
+      <c r="AC24" s="92">
         <v>5</v>
       </c>
-      <c r="AD23" s="121">
-        <f>0.5*(AD20-AD22)+AD22</f>
+      <c r="AD24" s="93">
+        <f>0.5*(AD21-AD23)+AD23</f>
         <v>0.65000000000000013</v>
       </c>
-      <c r="AE23" s="121">
-        <f>0.5*(AE19-AE22)+AE22</f>
+      <c r="AE24" s="93">
+        <f>0.5*(AE20-AE23)+AE23</f>
         <v>0.57500000000000007</v>
       </c>
-      <c r="AF23" s="121"/>
-      <c r="AG23" s="121"/>
-      <c r="AH23" s="121"/>
-    </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A27" s="120" t="s">
+      <c r="AF24" s="93"/>
+      <c r="AG24" s="93"/>
+      <c r="AH24" s="93"/>
+    </row>
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A28" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="120" t="s">
+      <c r="B28" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="C27" s="120" t="s">
+      <c r="C28" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="120" t="s">
+      <c r="D28" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="120" t="s">
+      <c r="E28" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="F27" s="120" t="s">
+      <c r="F28" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="120" t="s">
+      <c r="G28" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="H27" s="120" t="s">
+      <c r="H28" s="92" t="s">
         <v>91</v>
       </c>
-      <c r="I27" s="120" t="s">
+      <c r="I28" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="J27" s="120" t="s">
+      <c r="J28" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="K27" s="120" t="s">
+      <c r="K28" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="L27" s="120" t="s">
+      <c r="L28" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="M27" s="120" t="s">
+      <c r="M28" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="N27" s="120" t="s">
+      <c r="N28" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="O27" s="120" t="s">
+      <c r="O28" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="P27" s="120" t="s">
+      <c r="P28" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="Q27" s="120" t="s">
+      <c r="Q28" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="R27" s="120" t="s">
+      <c r="R28" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="S27" s="120" t="s">
+      <c r="S28" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="T27" s="120" t="s">
+      <c r="T28" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="U27" s="120" t="s">
+      <c r="U28" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="V27" s="120" t="s">
+      <c r="V28" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="W27" s="120" t="s">
+      <c r="W28" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="X27" s="120" t="s">
+      <c r="X28" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="Y27" s="120" t="s">
+      <c r="Y28" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="Z27" s="120" t="s">
+      <c r="Z28" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="AA27" s="120" t="s">
+      <c r="AA28" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="AB27" s="120" t="s">
+      <c r="AB28" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="AC27" s="120" t="s">
+      <c r="AC28" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="AD27" s="120" t="s">
+      <c r="AD28" s="92" t="s">
         <v>72</v>
       </c>
-      <c r="AE27" s="120" t="s">
+      <c r="AE28" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="AF27" s="120" t="s">
+      <c r="AF28" s="92" t="s">
         <v>82</v>
       </c>
-      <c r="AG27" s="120" t="s">
+      <c r="AG28" s="92" t="s">
         <v>89</v>
       </c>
-      <c r="AH27" s="120" t="s">
+      <c r="AH28" s="92" t="s">
         <v>19</v>
       </c>
-      <c r="AI27" s="120" t="s">
+      <c r="AI28" s="92" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A28" s="120">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A29" s="92">
         <v>0.25</v>
       </c>
-      <c r="B28" s="121">
+      <c r="B29" s="93">
         <v>0.03</v>
       </c>
-      <c r="C28" s="121">
+      <c r="C29" s="93">
         <f>C10+0.2</f>
         <v>0.42000000000000004</v>
       </c>
-      <c r="D28" s="124">
+      <c r="D29" s="96">
         <v>1.73</v>
       </c>
-      <c r="E28" s="120">
+      <c r="E29" s="92">
         <v>10.5</v>
       </c>
-      <c r="F28" s="120">
+      <c r="F29" s="92">
         <v>72.522000000000006</v>
       </c>
-      <c r="G28" s="120">
+      <c r="G29" s="92">
         <v>9.17</v>
       </c>
-      <c r="H28" s="120">
+      <c r="H29" s="92">
         <v>0.5</v>
       </c>
-      <c r="I28" s="121">
-        <f>B28+0.005</f>
+      <c r="I29" s="93">
+        <f>B29+0.005</f>
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="J28" s="121">
+      <c r="J29" s="93">
         <f>J10+0.2</f>
         <v>0.44</v>
       </c>
-      <c r="K28" s="120">
+      <c r="K29" s="92">
         <v>1.718</v>
       </c>
-      <c r="L28" s="120">
+      <c r="L29" s="92">
         <v>27.5</v>
       </c>
-      <c r="M28" s="120">
+      <c r="M29" s="92">
         <v>189.94300000000001</v>
       </c>
-      <c r="N28" s="120">
+      <c r="N29" s="92">
         <v>14.89</v>
       </c>
-      <c r="O28" s="120">
+      <c r="O29" s="92">
         <v>0.7</v>
       </c>
-      <c r="P28" s="121">
-        <f>I28+0.005</f>
+      <c r="P29" s="93">
+        <f>I29+0.005</f>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="Q28" s="121">
+      <c r="Q29" s="93">
         <f>Q10+0.3</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="R28" s="120">
+      <c r="R29" s="92">
         <v>1.823</v>
       </c>
-      <c r="S28" s="120">
+      <c r="S29" s="92">
         <v>27.4</v>
       </c>
-      <c r="T28" s="120">
+      <c r="T29" s="92">
         <v>188.916</v>
       </c>
-      <c r="U28" s="120">
+      <c r="U29" s="92">
         <v>14.4</v>
       </c>
-      <c r="V28" s="120">
+      <c r="V29" s="92">
         <v>1</v>
       </c>
-      <c r="W28" s="121">
-        <f>P28+0.005</f>
+      <c r="W29" s="93">
+        <f>P29+0.005</f>
         <v>4.4999999999999991E-2</v>
       </c>
-      <c r="X28" s="121">
+      <c r="X29" s="93">
         <f>X10+0.4</f>
         <v>0.68</v>
       </c>
-      <c r="Y28" s="120">
+      <c r="Y29" s="92">
         <v>2.0459999999999998</v>
       </c>
-      <c r="Z28" s="120">
+      <c r="Z29" s="92">
         <v>33.9</v>
       </c>
-      <c r="AA28" s="120">
+      <c r="AA29" s="92">
         <v>234.05600000000001</v>
       </c>
-      <c r="AB28" s="120">
+      <c r="AB29" s="92">
         <v>15.1</v>
       </c>
-      <c r="AC28" s="120">
+      <c r="AC29" s="92">
         <v>1.5</v>
       </c>
-      <c r="AD28" s="121">
-        <f>W28+0.005</f>
+      <c r="AD29" s="93">
+        <f>W29+0.005</f>
         <v>4.9999999999999989E-2</v>
       </c>
-      <c r="AE28" s="121">
+      <c r="AE29" s="93">
         <f>AE10+0.4</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="AF28" s="120">
+      <c r="AF29" s="92">
         <v>2.1259999999999999</v>
       </c>
-      <c r="AG28" s="120">
+      <c r="AG29" s="92">
         <v>61.2</v>
       </c>
-      <c r="AH28" s="120">
+      <c r="AH29" s="92">
         <v>422.262</v>
       </c>
-      <c r="AI28" s="120">
+      <c r="AI29" s="92">
         <v>19.96</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A29" s="120">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A30" s="92">
         <v>0.35</v>
       </c>
-      <c r="B29" s="121">
+      <c r="B30" s="93">
         <v>0.03</v>
       </c>
-      <c r="C29" s="121">
+      <c r="C30" s="93">
         <f>C11+0.2</f>
         <v>0.4</v>
       </c>
-      <c r="D29" s="120">
+      <c r="D30" s="92">
         <v>1.6910000000000001</v>
       </c>
-      <c r="E29" s="120">
+      <c r="E30" s="92">
         <v>22.1</v>
       </c>
-      <c r="F29" s="120">
+      <c r="F30" s="92">
         <v>152.148</v>
       </c>
-      <c r="G29" s="120">
+      <c r="G30" s="92">
         <v>13.43</v>
       </c>
-      <c r="H29" s="120">
+      <c r="H30" s="92">
         <v>0.5</v>
       </c>
-      <c r="I29" s="121">
-        <f>B29+0.005</f>
+      <c r="I30" s="93">
+        <f>B30+0.005</f>
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="J29" s="121">
+      <c r="J30" s="93">
         <f>J11+0.2</f>
         <v>0.42000000000000004</v>
       </c>
-      <c r="K29" s="120">
+      <c r="K30" s="92">
         <v>1.6919999999999999</v>
       </c>
-      <c r="L29" s="120">
+      <c r="L30" s="92">
         <v>29.6</v>
       </c>
-      <c r="M29" s="124">
+      <c r="M30" s="96">
         <v>203.84</v>
       </c>
-      <c r="N29" s="120">
+      <c r="N30" s="92">
         <v>15.54</v>
       </c>
-      <c r="O29" s="120">
+      <c r="O30" s="92">
         <v>0.7</v>
       </c>
-      <c r="P29" s="121">
-        <f>I29+0.005</f>
+      <c r="P30" s="93">
+        <f>I30+0.005</f>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="Q29" s="121">
+      <c r="Q30" s="93">
         <f>Q11+0.3</f>
         <v>0.54</v>
       </c>
-      <c r="R29" s="120">
+      <c r="R30" s="92">
         <v>1.8340000000000001</v>
       </c>
-      <c r="S29" s="120">
+      <c r="S30" s="92">
         <v>29.4</v>
       </c>
-      <c r="T29" s="120">
+      <c r="T30" s="92">
         <v>202.85599999999999</v>
       </c>
-      <c r="U29" s="120">
+      <c r="U30" s="92">
         <v>14.89</v>
       </c>
-      <c r="V29" s="120">
+      <c r="V30" s="92">
         <v>1</v>
       </c>
-      <c r="W29" s="121">
-        <f>P29+0.005</f>
+      <c r="W30" s="93">
+        <f>P30+0.005</f>
         <v>4.4999999999999991E-2</v>
       </c>
-      <c r="X29" s="121">
+      <c r="X30" s="93">
         <f>X11+0.4</f>
         <v>0.66</v>
       </c>
-      <c r="Y29" s="120">
+      <c r="Y30" s="92">
         <v>1.9930000000000001</v>
       </c>
-      <c r="Z29" s="120">
+      <c r="Z30" s="92">
         <v>34.9</v>
       </c>
-      <c r="AA29" s="120">
+      <c r="AA30" s="92">
         <v>240.876</v>
       </c>
-      <c r="AB29" s="120">
+      <c r="AB30" s="92">
         <v>15.57</v>
       </c>
-      <c r="AC29" s="120">
+      <c r="AC30" s="92">
         <v>1.5</v>
       </c>
-      <c r="AD29" s="121">
-        <f>W29+0.005</f>
+      <c r="AD30" s="93">
+        <f>W30+0.005</f>
         <v>4.9999999999999989E-2</v>
       </c>
-      <c r="AE29" s="121">
+      <c r="AE30" s="93">
         <f>AE11+0.4</f>
         <v>0.68</v>
       </c>
-      <c r="AF29" s="120"/>
-      <c r="AG29" s="120"/>
-      <c r="AH29" s="120"/>
-      <c r="AI29" s="120"/>
-    </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A30" s="120">
+      <c r="AF30" s="92"/>
+      <c r="AG30" s="92"/>
+      <c r="AH30" s="92"/>
+      <c r="AI30" s="92"/>
+    </row>
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A31" s="92">
         <v>0.4</v>
       </c>
-      <c r="B30" s="121">
-        <f>B28-0.005</f>
+      <c r="B31" s="93">
+        <f>B29-0.005</f>
         <v>2.4999999999999998E-2</v>
       </c>
-      <c r="C30" s="121">
+      <c r="C31" s="93">
         <f>C12+0.2</f>
         <v>0.42000000000000004</v>
       </c>
-      <c r="D30" s="124">
+      <c r="D31" s="96">
         <v>1.67</v>
       </c>
-      <c r="E30" s="120">
+      <c r="E31" s="92">
         <v>38.299999999999997</v>
       </c>
-      <c r="F30" s="120">
+      <c r="F31" s="92">
         <v>264.346</v>
       </c>
-      <c r="G30" s="120">
+      <c r="G31" s="92">
         <v>17.8</v>
       </c>
-      <c r="H30" s="120">
+      <c r="H31" s="92">
         <v>0.5</v>
       </c>
-      <c r="I30" s="121">
-        <f>I28-0.005</f>
+      <c r="I31" s="93">
+        <f>I29-0.005</f>
         <v>2.9999999999999995E-2</v>
       </c>
-      <c r="J30" s="121">
+      <c r="J31" s="93">
         <f>J12+0.2</f>
         <v>0.44</v>
       </c>
-      <c r="K30" s="120">
+      <c r="K31" s="92">
         <v>1.673</v>
       </c>
-      <c r="L30" s="120">
+      <c r="L31" s="92">
         <v>37.299999999999997</v>
       </c>
-      <c r="M30" s="124">
+      <c r="M31" s="96">
         <v>257.01</v>
       </c>
-      <c r="N30" s="120">
+      <c r="N31" s="92">
         <v>17.55</v>
       </c>
-      <c r="O30" s="120">
+      <c r="O31" s="92">
         <v>0.7</v>
       </c>
-      <c r="P30" s="121">
-        <f>P28-0.005</f>
+      <c r="P31" s="93">
+        <f>P29-0.005</f>
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="Q30" s="121">
+      <c r="Q31" s="93">
         <f>Q12+0.3</f>
         <v>0.56000000000000005</v>
       </c>
-      <c r="R30" s="120">
+      <c r="R31" s="92">
         <v>1.7809999999999999</v>
       </c>
-      <c r="S30" s="120">
+      <c r="S31" s="92">
         <v>35.700000000000003</v>
       </c>
-      <c r="T30" s="120">
+      <c r="T31" s="92">
         <v>246.267</v>
       </c>
-      <c r="U30" s="120">
+      <c r="U31" s="92">
         <v>16.649999999999999</v>
       </c>
-      <c r="V30" s="120">
+      <c r="V31" s="92">
         <v>1</v>
       </c>
-      <c r="W30" s="121">
-        <f>W28-0.005</f>
+      <c r="W31" s="93">
+        <f>W29-0.005</f>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="X30" s="121">
+      <c r="X31" s="93">
         <f>X12+0.4</f>
         <v>0.68</v>
       </c>
-      <c r="Y30" s="120">
+      <c r="Y31" s="92">
         <v>1.9219999999999999</v>
       </c>
-      <c r="Z30" s="120">
+      <c r="Z31" s="92">
         <v>40.9</v>
       </c>
-      <c r="AA30" s="120">
+      <c r="AA31" s="92">
         <v>281.80200000000002</v>
       </c>
-      <c r="AB30" s="120">
+      <c r="AB31" s="92">
         <v>17.100000000000001</v>
       </c>
-      <c r="AC30" s="120">
+      <c r="AC31" s="92">
         <v>1.5</v>
       </c>
-      <c r="AD30" s="121">
-        <f>AD28-0.005</f>
+      <c r="AD31" s="93">
+        <f>AD29-0.005</f>
         <v>4.4999999999999991E-2</v>
       </c>
-      <c r="AE30" s="121">
+      <c r="AE31" s="93">
         <f>AE12+0.4</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="AF30" s="120"/>
-      <c r="AG30" s="120"/>
-      <c r="AH30" s="120"/>
-      <c r="AI30" s="120"/>
-    </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A31" s="120">
+      <c r="AF31" s="92"/>
+      <c r="AG31" s="92"/>
+      <c r="AH31" s="92"/>
+      <c r="AI31" s="92"/>
+    </row>
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A32" s="92">
         <v>0.4</v>
       </c>
-      <c r="B31" s="121">
-        <f>B29-0.005</f>
+      <c r="B32" s="93">
+        <f>B30-0.005</f>
         <v>2.4999999999999998E-2</v>
       </c>
-      <c r="C31" s="121">
+      <c r="C32" s="93">
         <f>C13+0.2</f>
         <v>0.4</v>
       </c>
-      <c r="D31" s="120">
+      <c r="D32" s="92">
         <v>1.6639999999999999</v>
       </c>
-      <c r="E31" s="125">
+      <c r="E32" s="97">
         <v>42</v>
       </c>
-      <c r="F31" s="120">
+      <c r="F32" s="92">
         <v>288.16199999999998</v>
       </c>
-      <c r="G31" s="120">
+      <c r="G32" s="92">
         <v>18.63</v>
       </c>
-      <c r="H31" s="120">
+      <c r="H32" s="92">
         <v>0.5</v>
       </c>
-      <c r="I31" s="121">
-        <f>I29-0.005</f>
+      <c r="I32" s="93">
+        <f>I30-0.005</f>
         <v>2.9999999999999995E-2</v>
       </c>
-      <c r="J31" s="121">
+      <c r="J32" s="93">
         <f>J13+0.2</f>
         <v>0.42000000000000004</v>
       </c>
-      <c r="K31" s="124">
+      <c r="K32" s="96">
         <v>1.65</v>
       </c>
-      <c r="L31" s="120">
+      <c r="L32" s="92">
         <v>40.1</v>
       </c>
-      <c r="M31" s="120">
+      <c r="M32" s="92">
         <v>276.74900000000002</v>
       </c>
-      <c r="N31" s="120">
+      <c r="N32" s="92">
         <v>18.34</v>
       </c>
-      <c r="O31" s="120">
+      <c r="O32" s="92">
         <v>0.7</v>
       </c>
-      <c r="P31" s="121">
-        <f>P29-0.005</f>
+      <c r="P32" s="93">
+        <f>P30-0.005</f>
         <v>3.4999999999999996E-2</v>
       </c>
-      <c r="Q31" s="121">
+      <c r="Q32" s="93">
         <f>Q13+0.3</f>
         <v>0.54</v>
       </c>
-      <c r="R31" s="120">
+      <c r="R32" s="92">
         <v>1.752</v>
       </c>
-      <c r="S31" s="120">
+      <c r="S32" s="92">
         <v>37.6</v>
       </c>
-      <c r="T31" s="120">
+      <c r="T32" s="92">
         <v>259.27499999999998</v>
       </c>
-      <c r="U31" s="120">
+      <c r="U32" s="92">
         <v>17.23</v>
       </c>
-      <c r="V31" s="120">
+      <c r="V32" s="92">
         <v>1</v>
       </c>
-      <c r="W31" s="121">
-        <f>W29-0.005</f>
+      <c r="W32" s="93">
+        <f>W30-0.005</f>
         <v>3.9999999999999994E-2</v>
       </c>
-      <c r="X31" s="121">
+      <c r="X32" s="93">
         <f>X13+0.4</f>
         <v>0.66</v>
       </c>
-      <c r="Y31" s="120">
+      <c r="Y32" s="92">
         <v>1.9139999999999999</v>
       </c>
-      <c r="Z31" s="120">
+      <c r="Z32" s="92">
         <v>43.1</v>
       </c>
-      <c r="AA31" s="120">
+      <c r="AA32" s="92">
         <v>296.86700000000002</v>
       </c>
-      <c r="AB31" s="120">
+      <c r="AB32" s="92">
         <v>17.64</v>
       </c>
-      <c r="AC31" s="120">
+      <c r="AC32" s="92">
         <v>1.5</v>
       </c>
-      <c r="AD31" s="121">
-        <f>AD29-0.005</f>
+      <c r="AD32" s="93">
+        <f>AD30-0.005</f>
         <v>4.4999999999999991E-2</v>
       </c>
-      <c r="AE31" s="121">
+      <c r="AE32" s="93">
         <f>AE13+0.4</f>
         <v>0.68</v>
       </c>
-      <c r="AF31" s="120"/>
-      <c r="AG31" s="120"/>
-      <c r="AH31" s="120"/>
-      <c r="AI31" s="120"/>
-    </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A32" s="120">
+      <c r="AF32" s="92"/>
+      <c r="AG32" s="92"/>
+      <c r="AH32" s="92"/>
+      <c r="AI32" s="92"/>
+    </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A33" s="92">
         <v>0.45</v>
       </c>
-      <c r="B32" s="121">
-        <f>0.5*(B29-B31)+B31</f>
+      <c r="B33" s="93">
+        <f>0.5*(B30-B32)+B32</f>
         <v>2.7499999999999997E-2</v>
       </c>
-      <c r="C32" s="121">
-        <f>0.5*(C28-C31)+C31</f>
+      <c r="C33" s="93">
+        <f>0.5*(C29-C32)+C32</f>
         <v>0.41000000000000003</v>
       </c>
-      <c r="D32" s="124">
+      <c r="D33" s="96">
         <v>1.66</v>
       </c>
-      <c r="E32" s="120">
+      <c r="E33" s="92">
         <v>41.2</v>
       </c>
-      <c r="F32" s="120">
+      <c r="F33" s="92">
         <v>283.91899999999998</v>
       </c>
-      <c r="G32" s="120">
+      <c r="G33" s="92">
         <v>18.52</v>
       </c>
-      <c r="H32" s="120">
+      <c r="H33" s="92">
         <v>0.5</v>
       </c>
-      <c r="I32" s="121">
-        <f>0.5*(I29-I31)+I31</f>
+      <c r="I33" s="93">
+        <f>0.5*(I30-I32)+I32</f>
         <v>3.2499999999999994E-2</v>
       </c>
-      <c r="J32" s="121">
-        <f>0.5*(J28-J31)+J31</f>
+      <c r="J33" s="93">
+        <f>0.5*(J29-J32)+J32</f>
         <v>0.43000000000000005</v>
       </c>
-      <c r="K32" s="120">
+      <c r="K33" s="92">
         <v>1.669</v>
       </c>
-      <c r="L32" s="120">
+      <c r="L33" s="92">
         <v>32.799999999999997</v>
       </c>
-      <c r="M32" s="120">
+      <c r="M33" s="92">
         <v>226.452</v>
       </c>
-      <c r="N32" s="120">
+      <c r="N33" s="92">
         <v>16.489999999999998</v>
       </c>
-      <c r="O32" s="120">
+      <c r="O33" s="92">
         <v>0.7</v>
       </c>
-      <c r="P32" s="121">
-        <f>0.5*(P29-P31)+P31</f>
+      <c r="P33" s="93">
+        <f>0.5*(P30-P32)+P32</f>
         <v>3.7499999999999992E-2</v>
       </c>
-      <c r="Q32" s="121">
-        <f>0.5*(Q28-Q31)+Q31</f>
+      <c r="Q33" s="93">
+        <f>0.5*(Q29-Q32)+Q32</f>
         <v>0.55000000000000004</v>
       </c>
-      <c r="R32" s="120">
+      <c r="R33" s="92">
         <v>1.804</v>
       </c>
-      <c r="S32" s="120">
+      <c r="S33" s="92">
         <v>32.299999999999997</v>
       </c>
-      <c r="T32" s="120">
+      <c r="T33" s="92">
         <v>222.45400000000001</v>
       </c>
-      <c r="U32" s="120">
+      <c r="U33" s="92">
         <v>15.72</v>
       </c>
-      <c r="V32" s="120">
+      <c r="V33" s="92">
         <v>1.5</v>
       </c>
-      <c r="W32" s="121">
-        <f>0.5*(W29-W31)+W31</f>
+      <c r="W33" s="93">
+        <f>0.5*(W30-W32)+W32</f>
         <v>4.2499999999999996E-2</v>
       </c>
-      <c r="X32" s="121">
-        <f>0.5*(X28-X31)+X31</f>
+      <c r="X33" s="93">
+        <f>0.5*(X29-X32)+X32</f>
         <v>0.67</v>
       </c>
-      <c r="Y32" s="120">
+      <c r="Y33" s="92">
         <v>1.9550000000000001</v>
       </c>
-      <c r="Z32" s="120">
+      <c r="Z33" s="92">
         <v>86.3</v>
       </c>
-      <c r="AA32" s="120">
+      <c r="AA33" s="92">
         <v>595.048</v>
       </c>
-      <c r="AB32" s="120">
+      <c r="AB33" s="92">
         <v>24.7</v>
       </c>
-      <c r="AC32" s="120">
+      <c r="AC33" s="92">
         <v>1.5</v>
       </c>
-      <c r="AD32" s="121">
-        <f>0.5*(AD29-AD31)+AD31</f>
+      <c r="AD33" s="93">
+        <f>0.5*(AD30-AD32)+AD32</f>
         <v>4.7499999999999987E-2</v>
       </c>
-      <c r="AE32" s="121">
-        <f>0.5*(AE28-AE31)+AE31</f>
+      <c r="AE33" s="93">
+        <f>0.5*(AE29-AE32)+AE32</f>
         <v>0.69000000000000006</v>
       </c>
-      <c r="AF32" s="120"/>
-      <c r="AG32" s="120"/>
-      <c r="AH32" s="120"/>
-      <c r="AI32" s="120"/>
-    </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="AF33" s="92"/>
+      <c r="AG33" s="92"/>
+      <c r="AH33" s="92"/>
+      <c r="AI33" s="92"/>
+    </row>
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A36">
         <v>0.45</v>
       </c>
-      <c r="B35">
+      <c r="B36">
         <v>2.7499999999999997E-2</v>
       </c>
-      <c r="C35">
+      <c r="C36">
         <v>0.45</v>
       </c>
-      <c r="D35">
+      <c r="D36">
         <v>1.6930000000000001</v>
       </c>
-      <c r="E35">
+      <c r="E36">
         <v>35.200000000000003</v>
       </c>
-      <c r="F35">
+      <c r="F36">
         <v>242.577</v>
       </c>
-      <c r="G35">
+      <c r="G36">
         <v>16.95</v>
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>28</v>
-      </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E38" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" t="s">
         <v>89</v>
       </c>
-      <c r="F38" t="s">
+      <c r="H38" t="s">
         <v>19</v>
       </c>
-      <c r="G38" t="s">
-        <v>106</v>
-      </c>
-      <c r="H38" t="s">
-        <v>91</v>
-      </c>
       <c r="I38" t="s">
-        <v>72</v>
-      </c>
-      <c r="J38" t="s">
-        <v>114</v>
-      </c>
-      <c r="K38" t="s">
-        <v>82</v>
-      </c>
-      <c r="L38" t="s">
-        <v>89</v>
-      </c>
-      <c r="M38" t="s">
-        <v>19</v>
-      </c>
-      <c r="N38" t="s">
-        <v>106</v>
-      </c>
-      <c r="O38" t="s">
-        <v>28</v>
-      </c>
-      <c r="P38" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q38" t="s">
-        <v>114</v>
-      </c>
-      <c r="R38" t="s">
-        <v>82</v>
-      </c>
-      <c r="S38" t="s">
-        <v>89</v>
-      </c>
-      <c r="T38" t="s">
-        <v>19</v>
-      </c>
-      <c r="U38" t="s">
-        <v>106</v>
-      </c>
-      <c r="V38" t="s">
-        <v>28</v>
-      </c>
-      <c r="W38" t="s">
-        <v>72</v>
-      </c>
-      <c r="X38" t="s">
-        <v>114</v>
-      </c>
-      <c r="Y38" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z38" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA38" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>106</v>
-      </c>
-      <c r="AC38" t="s">
-        <v>28</v>
-      </c>
-      <c r="AD38" t="s">
-        <v>72</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>114</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>82</v>
-      </c>
-      <c r="AG38" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH38" t="s">
-        <v>19</v>
-      </c>
-      <c r="AI38" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39">
+        <v>1</v>
+      </c>
+      <c r="B39" s="98">
+        <v>0.5</v>
+      </c>
+      <c r="C39" s="98">
+        <v>0.38</v>
+      </c>
+      <c r="D39" s="98">
         <v>0.25</v>
       </c>
-      <c r="B39" s="89">
-        <v>0.03</v>
-      </c>
-      <c r="C39" s="89">
-        <v>0.7</v>
-      </c>
-      <c r="D39" s="118"/>
-      <c r="H39">
-        <v>0.5</v>
-      </c>
-      <c r="I39" s="89">
-        <f>B39+0.005</f>
-        <v>3.4999999999999996E-2</v>
-      </c>
-      <c r="J39" s="89">
-        <v>0.68</v>
-      </c>
-      <c r="O39">
-        <v>0.7</v>
-      </c>
-      <c r="P39" s="89">
-        <f>I39+0.005</f>
-        <v>3.9999999999999994E-2</v>
-      </c>
-      <c r="Q39" s="89">
-        <f>Q28+0.1</f>
-        <v>0.66</v>
-      </c>
-      <c r="V39">
-        <v>1</v>
-      </c>
-      <c r="W39" s="89">
-        <f>P39+0.005</f>
-        <v>4.4999999999999991E-2</v>
-      </c>
-      <c r="X39" s="89">
-        <v>0.44</v>
-      </c>
-      <c r="AD39" s="89">
-        <f>W39+0.005</f>
-        <v>4.9999999999999989E-2</v>
-      </c>
-      <c r="AE39" s="89">
-        <v>0.42000000000000004</v>
+      <c r="E39" s="98">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F39" s="98">
+        <v>1.8009999999999999</v>
+      </c>
+      <c r="G39" s="98">
+        <v>2.88</v>
+      </c>
+      <c r="H39" s="98">
+        <v>19.887</v>
+      </c>
+      <c r="I39" s="98">
+        <v>4.71</v>
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40" s="98">
+        <v>0.5</v>
+      </c>
+      <c r="C40" s="98">
+        <v>0.38</v>
+      </c>
+      <c r="D40" s="98">
         <v>0.35</v>
       </c>
-      <c r="B40" s="89">
-        <v>0.03</v>
-      </c>
-      <c r="C40" s="89">
-        <v>0.68</v>
-      </c>
-      <c r="H40">
-        <v>0.5</v>
-      </c>
-      <c r="I40" s="89">
-        <f>B40+0.005</f>
-        <v>3.4999999999999996E-2</v>
-      </c>
-      <c r="J40" s="89">
-        <v>0.66</v>
-      </c>
-      <c r="M40" s="118"/>
-      <c r="O40">
-        <v>0.7</v>
-      </c>
-      <c r="P40" s="89">
-        <f>I40+0.005</f>
-        <v>3.9999999999999994E-2</v>
-      </c>
-      <c r="Q40" s="89">
-        <f>Q29+0.1</f>
-        <v>0.64</v>
-      </c>
-      <c r="V40">
-        <v>1</v>
-      </c>
-      <c r="W40" s="89">
-        <f>P40+0.005</f>
-        <v>4.4999999999999991E-2</v>
-      </c>
-      <c r="X40" s="89">
-        <v>0.42000000000000004</v>
-      </c>
-      <c r="AD40" s="89">
-        <f>W40+0.005</f>
-        <v>4.9999999999999989E-2</v>
-      </c>
-      <c r="AE40" s="89">
-        <v>0.4</v>
+      <c r="E40" s="98">
+        <v>0.4325</v>
+      </c>
+      <c r="F40" s="98">
+        <v>1.7989999999999999</v>
+      </c>
+      <c r="G40" s="98">
+        <v>5.7</v>
+      </c>
+      <c r="H40" s="98">
+        <v>39.292000000000002</v>
+      </c>
+      <c r="I40" s="98">
+        <v>6.62</v>
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>0.4</v>
-      </c>
-      <c r="B41" s="89">
-        <f>B39-0.005</f>
-        <v>2.4999999999999998E-2</v>
-      </c>
-      <c r="C41" s="89">
-        <v>0.7</v>
-      </c>
-      <c r="D41" s="118"/>
-      <c r="H41">
+        <v>5</v>
+      </c>
+      <c r="B41" s="98">
         <v>0.5</v>
       </c>
-      <c r="I41" s="89">
-        <f>I39-0.005</f>
-        <v>2.9999999999999995E-2</v>
-      </c>
-      <c r="J41" s="89">
-        <v>0.68</v>
-      </c>
-      <c r="M41" s="118"/>
-      <c r="O41">
-        <v>0.7</v>
-      </c>
-      <c r="P41" s="89">
-        <f>P39-0.005</f>
-        <v>3.4999999999999996E-2</v>
-      </c>
-      <c r="Q41" s="89">
-        <f>Q30+0.1</f>
-        <v>0.66</v>
-      </c>
-      <c r="V41">
-        <v>1</v>
-      </c>
-      <c r="W41" s="89">
-        <f>W39-0.005</f>
-        <v>3.9999999999999994E-2</v>
-      </c>
-      <c r="X41" s="89">
-        <v>0.44</v>
-      </c>
-      <c r="AD41" s="89">
-        <f>AD39-0.005</f>
-        <v>4.4999999999999991E-2</v>
-      </c>
-      <c r="AE41" s="89">
-        <v>0.42000000000000004</v>
+      <c r="C41" s="98">
+        <v>0.42</v>
+      </c>
+      <c r="D41" s="98">
+        <v>0.25</v>
+      </c>
+      <c r="E41" s="98">
+        <v>0.4325</v>
+      </c>
+      <c r="F41" s="98">
+        <v>1.796</v>
+      </c>
+      <c r="G41" s="98">
+        <v>5.8</v>
+      </c>
+      <c r="H41" s="98">
+        <v>40.273000000000003</v>
+      </c>
+      <c r="I41" s="98">
+        <v>6.7</v>
       </c>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>0.4</v>
-      </c>
-      <c r="B42" s="89">
-        <f>B40-0.005</f>
-        <v>2.4999999999999998E-2</v>
-      </c>
-      <c r="C42" s="89">
-        <v>0.68</v>
-      </c>
-      <c r="E42" s="119"/>
-      <c r="H42">
+        <v>7</v>
+      </c>
+      <c r="B42" s="98">
         <v>0.5</v>
       </c>
-      <c r="I42" s="89">
-        <f>I40-0.005</f>
-        <v>2.9999999999999995E-2</v>
-      </c>
-      <c r="J42" s="89">
-        <v>0.66</v>
-      </c>
-      <c r="K42" s="118"/>
-      <c r="O42">
-        <v>0.7</v>
-      </c>
-      <c r="P42" s="89">
-        <f>P40-0.005</f>
-        <v>3.4999999999999996E-2</v>
-      </c>
-      <c r="Q42" s="89">
-        <f>Q31+0.1</f>
-        <v>0.64</v>
-      </c>
-      <c r="V42">
-        <v>1</v>
-      </c>
-      <c r="W42" s="89">
-        <f>W40-0.005</f>
-        <v>3.9999999999999994E-2</v>
-      </c>
-      <c r="X42" s="89">
-        <v>0.42000000000000004</v>
-      </c>
-      <c r="AD42" s="89">
-        <f>AD40-0.005</f>
-        <v>4.4999999999999991E-2</v>
-      </c>
-      <c r="AE42" s="89">
-        <v>0.4</v>
+      <c r="C42" s="98">
+        <v>0.42</v>
+      </c>
+      <c r="D42" s="98">
+        <v>0.35</v>
+      </c>
+      <c r="E42" s="98">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F42" s="98">
+        <v>1.7370000000000001</v>
+      </c>
+      <c r="G42" s="98">
+        <v>11</v>
+      </c>
+      <c r="H42" s="98">
+        <v>76.114999999999995</v>
+      </c>
+      <c r="I42" s="98">
+        <v>9.3699999999999992</v>
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43" s="98">
         <v>0.45</v>
       </c>
-      <c r="B43" s="89">
-        <f>0.5*(B40-B42)+B42</f>
-        <v>2.7499999999999997E-2</v>
-      </c>
-      <c r="C43" s="89">
-        <f>0.5*(C39-C42)+C42</f>
-        <v>0.69</v>
-      </c>
-      <c r="D43" s="118"/>
-      <c r="H43">
+      <c r="C43" s="98">
+        <v>0.38</v>
+      </c>
+      <c r="D43" s="98">
+        <v>0.35</v>
+      </c>
+      <c r="E43" s="98">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F43" s="98">
+        <v>1.635</v>
+      </c>
+      <c r="G43" s="98">
+        <v>16.7</v>
+      </c>
+      <c r="H43" s="98">
+        <v>115.04600000000001</v>
+      </c>
+      <c r="I43" s="98">
+        <v>11.88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4</v>
+      </c>
+      <c r="B44" s="98">
+        <v>0.45</v>
+      </c>
+      <c r="C44" s="98">
+        <v>0.42</v>
+      </c>
+      <c r="D44" s="98">
+        <v>0.35</v>
+      </c>
+      <c r="E44" s="98">
+        <v>0.4325</v>
+      </c>
+      <c r="F44" s="98">
+        <v>1.732</v>
+      </c>
+      <c r="G44" s="98">
+        <v>88.3</v>
+      </c>
+      <c r="H44" s="98">
+        <v>609.05399999999997</v>
+      </c>
+      <c r="I44" s="98">
+        <v>26.54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>6</v>
+      </c>
+      <c r="B45" s="98">
+        <v>0.45</v>
+      </c>
+      <c r="C45" s="98">
+        <v>0.42</v>
+      </c>
+      <c r="D45" s="98">
+        <v>0.25</v>
+      </c>
+      <c r="E45" s="98">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F45" s="98">
+        <v>1.704</v>
+      </c>
+      <c r="G45" s="98">
+        <v>44.3</v>
+      </c>
+      <c r="H45" s="98">
+        <v>305.34100000000001</v>
+      </c>
+      <c r="I45" s="98">
+        <v>18.95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>8</v>
+      </c>
+      <c r="B46" s="98">
+        <v>0.45</v>
+      </c>
+      <c r="C46" s="98">
+        <v>0.38</v>
+      </c>
+      <c r="D46" s="98">
+        <v>0.25</v>
+      </c>
+      <c r="E46" s="98">
+        <v>0.4325</v>
+      </c>
+      <c r="F46" s="98">
+        <v>1.677</v>
+      </c>
+      <c r="G46" s="98">
+        <v>8.75</v>
+      </c>
+      <c r="H46" s="98">
+        <v>60.331000000000003</v>
+      </c>
+      <c r="I46" s="98">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="C47">
+        <v>0.4</v>
+      </c>
+      <c r="D47">
+        <v>0.3</v>
+      </c>
+      <c r="E47">
+        <v>0.49125000000000002</v>
+      </c>
+      <c r="F47">
+        <v>1.7589999999999999</v>
+      </c>
+      <c r="G47">
+        <v>10.5</v>
+      </c>
+      <c r="H47">
+        <v>72.244</v>
+      </c>
+      <c r="I47">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="C48">
+        <v>0.4</v>
+      </c>
+      <c r="D48">
+        <v>0.3</v>
+      </c>
+      <c r="E48">
+        <v>0.49125000000000002</v>
+      </c>
+      <c r="F48">
+        <v>1.7509999999999999</v>
+      </c>
+      <c r="G48">
+        <v>10.4</v>
+      </c>
+      <c r="H48">
+        <v>71.983999999999995</v>
+      </c>
+      <c r="I48">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49">
         <v>0.5</v>
       </c>
-      <c r="I43" s="89">
-        <f>0.5*(I40-I42)+I42</f>
-        <v>3.2499999999999994E-2</v>
-      </c>
-      <c r="J43" s="89">
-        <f>0.5*(J39-J42)+J42</f>
-        <v>0.67</v>
-      </c>
-      <c r="O43">
-        <v>0.7</v>
-      </c>
-      <c r="P43" s="89">
-        <f>0.5*(P40-P42)+P42</f>
-        <v>3.7499999999999992E-2</v>
-      </c>
-      <c r="Q43" s="89">
-        <f>0.5*(Q39-Q42)+Q42</f>
-        <v>0.65</v>
-      </c>
-      <c r="V43">
-        <v>1</v>
-      </c>
-      <c r="W43" s="89">
-        <f>0.5*(W40-W42)+W42</f>
-        <v>4.2499999999999996E-2</v>
-      </c>
-      <c r="X43" s="89">
-        <f>0.5*(X39-X42)+X42</f>
-        <v>0.43000000000000005</v>
-      </c>
-      <c r="AD43" s="89">
-        <f>0.5*(AD40-AD42)+AD42</f>
-        <v>4.7499999999999987E-2</v>
-      </c>
-      <c r="AE43" s="89">
-        <f>0.5*(AE39-AE42)+AE42</f>
-        <v>0.41000000000000003</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
+      <c r="C49">
+        <v>0.38</v>
+      </c>
+      <c r="D49">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E49">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F49">
+        <v>1.776</v>
+      </c>
+      <c r="G49">
+        <v>13.8</v>
+      </c>
+      <c r="H49">
+        <v>94.909000000000006</v>
+      </c>
+      <c r="I49">
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50">
+        <v>0.5</v>
+      </c>
+      <c r="C50">
+        <v>0.38</v>
+      </c>
+      <c r="D50">
+        <v>0.35</v>
+      </c>
+      <c r="E50">
+        <v>0.4325</v>
+      </c>
+      <c r="F50">
+        <v>1.7969999999999999</v>
+      </c>
+      <c r="G50">
+        <v>5.7</v>
+      </c>
+      <c r="H50">
+        <v>392.11799999999999</v>
+      </c>
+      <c r="I50">
+        <v>6.61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>77</v>
       </c>
-      <c r="C49" t="s">
+      <c r="C53" t="s">
         <v>78</v>
       </c>
-      <c r="D49" t="s">
+      <c r="D53" t="s">
         <v>79</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E53" t="s">
         <v>115</v>
-      </c>
-      <c r="F49" t="s">
-        <v>86</v>
-      </c>
-      <c r="G49" t="s">
-        <v>89</v>
-      </c>
-      <c r="H49" t="s">
-        <v>19</v>
-      </c>
-      <c r="I49" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>1</v>
-      </c>
-      <c r="B50" s="126">
-        <v>0.5</v>
-      </c>
-      <c r="C50" s="126">
-        <v>0.38</v>
-      </c>
-      <c r="D50" s="126">
-        <v>0.25</v>
-      </c>
-      <c r="E50" s="126">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F50" s="126">
-        <v>1.8009999999999999</v>
-      </c>
-      <c r="G50" s="126">
-        <v>2.88</v>
-      </c>
-      <c r="H50" s="126">
-        <v>19.887</v>
-      </c>
-      <c r="I50" s="126">
-        <v>4.71</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>2</v>
-      </c>
-      <c r="B51" s="126">
-        <v>0.5</v>
-      </c>
-      <c r="C51" s="126">
-        <v>0.38</v>
-      </c>
-      <c r="D51" s="126">
-        <v>0.35</v>
-      </c>
-      <c r="E51" s="126">
-        <v>0.4325</v>
-      </c>
-      <c r="F51" s="126">
-        <v>1.7989999999999999</v>
-      </c>
-      <c r="G51" s="126">
-        <v>5.7</v>
-      </c>
-      <c r="H51" s="126">
-        <v>39.292000000000002</v>
-      </c>
-      <c r="I51" s="126">
-        <v>6.62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>5</v>
-      </c>
-      <c r="B52" s="126">
-        <v>0.5</v>
-      </c>
-      <c r="C52" s="126">
-        <v>0.42</v>
-      </c>
-      <c r="D52" s="126">
-        <v>0.25</v>
-      </c>
-      <c r="E52" s="126">
-        <v>0.4325</v>
-      </c>
-      <c r="F52" s="126">
-        <v>1.796</v>
-      </c>
-      <c r="G52" s="126">
-        <v>5.8</v>
-      </c>
-      <c r="H52" s="126">
-        <v>40.273000000000003</v>
-      </c>
-      <c r="I52" s="126">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>7</v>
-      </c>
-      <c r="B53" s="126">
-        <v>0.5</v>
-      </c>
-      <c r="C53" s="126">
-        <v>0.42</v>
-      </c>
-      <c r="D53" s="126">
-        <v>0.35</v>
-      </c>
-      <c r="E53" s="126">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F53" s="126">
-        <v>1.7370000000000001</v>
-      </c>
-      <c r="G53" s="126">
-        <v>11</v>
-      </c>
-      <c r="H53" s="126">
-        <v>76.114999999999995</v>
-      </c>
-      <c r="I53" s="126">
-        <v>9.3699999999999992</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>3</v>
-      </c>
-      <c r="B54" s="126">
-        <v>0.45</v>
-      </c>
-      <c r="C54" s="126">
+        <v>1</v>
+      </c>
+      <c r="B54">
+        <v>0.5</v>
+      </c>
+      <c r="C54">
         <v>0.38</v>
       </c>
-      <c r="D54" s="126">
+      <c r="D54">
         <v>0.35</v>
       </c>
-      <c r="E54" s="126">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F54" s="126">
-        <v>1.635</v>
-      </c>
-      <c r="G54" s="126">
-        <v>16.7</v>
-      </c>
-      <c r="H54" s="126">
-        <v>115.04600000000001</v>
-      </c>
-      <c r="I54" s="126">
-        <v>11.88</v>
+      <c r="E54">
+        <v>0.4325</v>
+      </c>
+      <c r="F54">
+        <v>1.7989999999999999</v>
+      </c>
+      <c r="G54">
+        <v>5.7</v>
+      </c>
+      <c r="H54">
+        <v>39.292000000000002</v>
+      </c>
+      <c r="I54">
+        <v>6.62</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>4</v>
-      </c>
-      <c r="B55" s="126">
-        <v>0.45</v>
-      </c>
-      <c r="C55" s="126">
-        <v>0.42</v>
-      </c>
-      <c r="D55" s="126">
+      <c r="B55">
+        <v>0.5</v>
+      </c>
+      <c r="C55">
+        <v>0.38</v>
+      </c>
+      <c r="D55">
         <v>0.35</v>
       </c>
-      <c r="E55" s="126">
+      <c r="E55">
         <v>0.4325</v>
       </c>
-      <c r="F55" s="126">
-        <v>1.732</v>
-      </c>
-      <c r="G55" s="126">
-        <v>88.3</v>
-      </c>
-      <c r="H55" s="126">
-        <v>609.05399999999997</v>
-      </c>
-      <c r="I55" s="126">
-        <v>26.54</v>
+      <c r="F55">
+        <v>1.7969999999999999</v>
+      </c>
+      <c r="G55">
+        <v>5.7</v>
+      </c>
+      <c r="H55">
+        <v>39.210999999999999</v>
+      </c>
+      <c r="I55">
+        <v>6.61</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>6</v>
-      </c>
-      <c r="B56" s="126">
-        <v>0.45</v>
-      </c>
-      <c r="C56" s="126">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <v>0.5</v>
+      </c>
+      <c r="C56">
         <v>0.42</v>
       </c>
-      <c r="D56" s="126">
+      <c r="D56">
         <v>0.25</v>
       </c>
-      <c r="E56" s="126">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F56" s="126">
-        <v>1.704</v>
-      </c>
-      <c r="G56" s="126">
-        <v>44.3</v>
-      </c>
-      <c r="H56" s="126">
-        <v>305.34100000000001</v>
-      </c>
-      <c r="I56" s="126">
-        <v>18.95</v>
+      <c r="E56">
+        <v>0.4325</v>
+      </c>
+      <c r="F56">
+        <v>1.796</v>
+      </c>
+      <c r="G56">
+        <v>5.8</v>
+      </c>
+      <c r="H56">
+        <v>40.273000000000003</v>
+      </c>
+      <c r="I56">
+        <v>6.7</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>0.5</v>
+      </c>
+      <c r="C57">
+        <v>0.38</v>
+      </c>
+      <c r="D57">
+        <v>0.25</v>
+      </c>
+      <c r="E57">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F57">
+        <v>1.8009999999999999</v>
+      </c>
+      <c r="G57">
+        <v>2.88</v>
+      </c>
+      <c r="H57">
+        <v>19.887</v>
+      </c>
+      <c r="I57">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58">
         <v>8</v>
       </c>
-      <c r="B57" s="126">
-        <v>0.45</v>
-      </c>
-      <c r="C57" s="126">
+      <c r="B58">
+        <v>0.5</v>
+      </c>
+      <c r="C58">
         <v>0.38</v>
       </c>
-      <c r="D57" s="126">
+      <c r="D58">
+        <v>0.35</v>
+      </c>
+      <c r="E58">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F58">
+        <v>1.8440000000000001</v>
+      </c>
+      <c r="G58">
+        <v>5.78</v>
+      </c>
+      <c r="H58">
+        <v>39.845999999999997</v>
+      </c>
+      <c r="I58">
+        <v>6.58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>12</v>
+      </c>
+      <c r="B59">
+        <v>0.5</v>
+      </c>
+      <c r="C59">
+        <v>0.38</v>
+      </c>
+      <c r="D59">
         <v>0.25</v>
       </c>
-      <c r="E57" s="126">
+      <c r="E59">
         <v>0.4325</v>
       </c>
-      <c r="F57" s="126">
-        <v>1.677</v>
-      </c>
-      <c r="G57" s="126">
-        <v>8.75</v>
-      </c>
-      <c r="H57" s="126">
-        <v>60.331000000000003</v>
-      </c>
-      <c r="I57" s="126">
-        <v>8.49</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B58">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="C58">
-        <v>0.4</v>
-      </c>
-      <c r="D58">
-        <v>0.3</v>
-      </c>
-      <c r="E58">
-        <v>0.49125000000000002</v>
-      </c>
-      <c r="F58">
-        <v>1.7589999999999999</v>
-      </c>
-      <c r="G58">
-        <v>10.5</v>
-      </c>
-      <c r="H58">
-        <v>72.244</v>
-      </c>
-      <c r="I58">
-        <v>9.08</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B59">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="C59">
-        <v>0.4</v>
-      </c>
-      <c r="D59">
-        <v>0.3</v>
-      </c>
-      <c r="E59">
-        <v>0.49125000000000002</v>
-      </c>
       <c r="F59">
-        <v>1.7509999999999999</v>
+        <v>1.887</v>
       </c>
       <c r="G59">
-        <v>10.4</v>
+        <v>3.01</v>
       </c>
       <c r="H59">
-        <v>71.983999999999995</v>
+        <v>20.803999999999998</v>
       </c>
       <c r="I59">
-        <v>9.08</v>
+        <v>4.7</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>116</v>
+      <c r="A60">
+        <v>13</v>
       </c>
       <c r="B60">
         <v>0.5</v>
       </c>
       <c r="C60">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="D60">
-        <v>0.55000000000000004</v>
+        <v>0.35</v>
       </c>
       <c r="E60">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F60">
-        <v>1.776</v>
+        <v>0.4325</v>
+      </c>
+      <c r="F60" s="91">
+        <v>1.79</v>
       </c>
       <c r="G60">
-        <v>13.8</v>
+        <v>11.38</v>
       </c>
       <c r="H60">
-        <v>94.909000000000006</v>
+        <v>78.468000000000004</v>
       </c>
       <c r="I60">
-        <v>10.35</v>
+        <v>9.3699999999999992</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>63</v>
+      <c r="A61">
+        <v>14</v>
       </c>
       <c r="B61">
         <v>0.5</v>
       </c>
       <c r="C61">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="D61">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="E61">
-        <v>0.4325</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F61">
-        <v>1.7969999999999999</v>
+        <v>1.742</v>
       </c>
       <c r="G61">
         <v>5.7</v>
       </c>
       <c r="H61">
-        <v>392.11799999999999</v>
+        <v>39.021000000000001</v>
       </c>
       <c r="I61">
-        <v>6.61</v>
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>15</v>
+      </c>
+      <c r="B62">
+        <v>0.5</v>
+      </c>
+      <c r="C62">
+        <v>0.42</v>
+      </c>
+      <c r="D62">
+        <v>0.35</v>
+      </c>
+      <c r="E62">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F62">
+        <v>1.7370000000000001</v>
+      </c>
+      <c r="G62">
+        <v>11</v>
+      </c>
+      <c r="H62">
+        <v>76.114999999999995</v>
+      </c>
+      <c r="I62">
+        <v>9.3699999999999992</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>16</v>
+      </c>
+      <c r="B63">
+        <v>0.45</v>
+      </c>
+      <c r="C63">
+        <v>0.42</v>
+      </c>
+      <c r="D63">
+        <v>0.25</v>
+      </c>
+      <c r="E63">
+        <v>0.4325</v>
+      </c>
+      <c r="F63">
+        <v>1.8009999999999999</v>
+      </c>
+      <c r="G63">
+        <v>46.8</v>
+      </c>
+      <c r="H63">
+        <v>322.99700000000001</v>
+      </c>
+      <c r="I63">
+        <v>18.96</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>77</v>
-      </c>
-      <c r="C64" t="s">
-        <v>78</v>
-      </c>
-      <c r="D64" t="s">
-        <v>79</v>
-      </c>
-      <c r="E64" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>4</v>
+      </c>
+      <c r="B64">
+        <v>0.45</v>
+      </c>
+      <c r="C64">
+        <v>0.38</v>
+      </c>
+      <c r="D64">
+        <v>0.35</v>
+      </c>
+      <c r="E64">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F64">
+        <v>1.635</v>
+      </c>
+      <c r="G64">
+        <v>16.7</v>
+      </c>
+      <c r="H64">
+        <v>115.04600000000001</v>
+      </c>
+      <c r="I64">
+        <v>11.88</v>
+      </c>
+    </row>
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B65">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="C65">
         <v>0.38</v>
       </c>
       <c r="D65">
-        <v>0.35</v>
+        <v>0.25</v>
       </c>
       <c r="E65">
         <v>0.4325</v>
       </c>
       <c r="F65">
-        <v>1.7989999999999999</v>
+        <v>1.677</v>
       </c>
       <c r="G65">
-        <v>5.7</v>
+        <v>8.75</v>
       </c>
       <c r="H65">
-        <v>39.292000000000002</v>
+        <v>60.331000000000003</v>
       </c>
       <c r="I65">
-        <v>6.62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8.49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>6</v>
+      </c>
       <c r="B66">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="C66">
         <v>0.38</v>
@@ -12605,509 +12749,918 @@
         <v>0.4325</v>
       </c>
       <c r="F66">
-        <v>1.7969999999999999</v>
+        <v>1.647</v>
       </c>
       <c r="G66">
-        <v>5.7</v>
+        <v>1.68</v>
       </c>
       <c r="H66">
-        <v>39.210999999999999</v>
+        <v>116.107</v>
       </c>
       <c r="I66">
-        <v>6.61</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>11.89</v>
+      </c>
+    </row>
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B67">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="C67">
-        <v>0.42</v>
+        <v>0.38</v>
       </c>
       <c r="D67">
         <v>0.25</v>
       </c>
       <c r="E67">
-        <v>0.4325</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F67">
-        <v>1.796</v>
+        <v>1.631</v>
       </c>
       <c r="G67">
-        <v>5.8</v>
+        <v>8.48</v>
       </c>
       <c r="H67">
-        <v>40.273000000000003</v>
+        <v>58.509</v>
       </c>
       <c r="I67">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>8.48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B68">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="C68">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="D68">
-        <v>0.25</v>
+        <v>0.35</v>
       </c>
       <c r="E68">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F68">
-        <v>1.8009999999999999</v>
+      <c r="F68" s="91">
+        <v>1.66</v>
       </c>
       <c r="G68">
-        <v>2.88</v>
+        <v>84.5</v>
       </c>
       <c r="H68">
-        <v>19.887</v>
+        <v>582.81299999999999</v>
       </c>
       <c r="I68">
-        <v>4.71</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B69">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="C69">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="D69">
         <v>0.35</v>
       </c>
       <c r="E69">
-        <v>0.55000000000000004</v>
+        <v>0.4325</v>
       </c>
       <c r="F69">
-        <v>1.8440000000000001</v>
+        <v>1.732</v>
       </c>
       <c r="G69">
-        <v>5.78</v>
+        <v>88.3</v>
       </c>
       <c r="H69">
-        <v>39.845999999999997</v>
+        <v>609.05399999999997</v>
       </c>
       <c r="I69">
-        <v>6.58</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26.54</v>
+      </c>
+    </row>
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B70">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="C70">
-        <v>0.38</v>
+        <v>0.42</v>
       </c>
       <c r="D70">
         <v>0.25</v>
       </c>
       <c r="E70">
-        <v>0.4325</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="F70">
-        <v>1.887</v>
+        <v>1.704</v>
       </c>
       <c r="G70">
-        <v>3.01</v>
+        <v>44.3</v>
       </c>
       <c r="H70">
-        <v>20.803999999999998</v>
+        <v>305.34100000000001</v>
       </c>
       <c r="I70">
-        <v>4.7</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>13</v>
+        <v>18.95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>94</v>
       </c>
       <c r="B71">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="C71">
+        <v>0.4</v>
+      </c>
+      <c r="D71">
+        <v>0.3</v>
+      </c>
+      <c r="E71">
+        <v>0.49125000000000002</v>
+      </c>
+      <c r="F71">
+        <v>1.7589999999999999</v>
+      </c>
+      <c r="G71">
+        <v>10.5</v>
+      </c>
+      <c r="H71">
+        <v>72.244</v>
+      </c>
+      <c r="I71">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>94</v>
+      </c>
+      <c r="B72">
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="C72">
+        <v>0.4</v>
+      </c>
+      <c r="D72">
+        <v>0.3</v>
+      </c>
+      <c r="E72">
+        <v>0.49125000000000002</v>
+      </c>
+      <c r="F72">
+        <v>1.7509999999999999</v>
+      </c>
+      <c r="G72">
+        <v>10.4</v>
+      </c>
+      <c r="H72">
+        <v>71.983999999999995</v>
+      </c>
+      <c r="I72">
+        <v>9.08</v>
+      </c>
+    </row>
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" t="s">
+        <v>72</v>
+      </c>
+      <c r="C76" t="s">
+        <v>114</v>
+      </c>
+      <c r="D76" t="s">
+        <v>82</v>
+      </c>
+      <c r="E76" t="s">
+        <v>89</v>
+      </c>
+      <c r="F76" t="s">
+        <v>19</v>
+      </c>
+      <c r="G76" t="s">
+        <v>106</v>
+      </c>
+      <c r="H76" t="s">
+        <v>91</v>
+      </c>
+      <c r="I76" t="s">
+        <v>72</v>
+      </c>
+      <c r="J76" t="s">
+        <v>114</v>
+      </c>
+      <c r="K76" t="s">
+        <v>82</v>
+      </c>
+      <c r="L76" t="s">
+        <v>89</v>
+      </c>
+      <c r="M76" t="s">
+        <v>19</v>
+      </c>
+      <c r="N76" t="s">
+        <v>106</v>
+      </c>
+      <c r="O76" t="s">
+        <v>28</v>
+      </c>
+      <c r="P76" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>114</v>
+      </c>
+      <c r="R76" t="s">
+        <v>82</v>
+      </c>
+      <c r="S76" t="s">
+        <v>89</v>
+      </c>
+      <c r="T76" t="s">
+        <v>19</v>
+      </c>
+      <c r="U76" t="s">
+        <v>106</v>
+      </c>
+      <c r="V76" t="s">
+        <v>28</v>
+      </c>
+      <c r="W76" t="s">
+        <v>72</v>
+      </c>
+      <c r="X76" t="s">
+        <v>114</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>82</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA76" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB76" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC76" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD76" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE76" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF76" t="s">
+        <v>82</v>
+      </c>
+      <c r="AG76" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="E77">
+        <v>10.5</v>
+      </c>
+      <c r="F77">
+        <v>72.522000000000006</v>
+      </c>
+      <c r="G77">
+        <v>9.17</v>
+      </c>
+      <c r="H77">
         <v>0.5</v>
       </c>
-      <c r="C71">
-        <v>0.42</v>
-      </c>
-      <c r="D71">
+      <c r="I77">
+        <v>3.4999999999999996E-2</v>
+      </c>
+      <c r="J77">
+        <v>0.44</v>
+      </c>
+      <c r="K77">
+        <v>1.718</v>
+      </c>
+      <c r="L77">
+        <v>27.5</v>
+      </c>
+      <c r="M77">
+        <v>189.94300000000001</v>
+      </c>
+      <c r="N77">
+        <v>14.89</v>
+      </c>
+      <c r="S77">
+        <v>27.4</v>
+      </c>
+      <c r="T77">
+        <v>188.916</v>
+      </c>
+      <c r="U77">
+        <v>14.4</v>
+      </c>
+      <c r="V77">
+        <v>1</v>
+      </c>
+      <c r="W77">
+        <v>4.4999999999999991E-2</v>
+      </c>
+      <c r="X77">
+        <v>0.68</v>
+      </c>
+      <c r="Y77">
+        <v>2.0459999999999998</v>
+      </c>
+      <c r="Z77">
+        <v>33.9</v>
+      </c>
+      <c r="AA77">
+        <v>234.05600000000001</v>
+      </c>
+      <c r="AB77">
+        <v>15.1</v>
+      </c>
+      <c r="AC77">
+        <v>1.5</v>
+      </c>
+      <c r="AD77">
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="AE77">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="AF77">
+        <v>2.1259999999999999</v>
+      </c>
+      <c r="AG77">
+        <v>61.2</v>
+      </c>
+      <c r="AH77">
+        <v>422.262</v>
+      </c>
+      <c r="AI77">
+        <v>19.96</v>
+      </c>
+    </row>
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="E78">
+        <v>22.1</v>
+      </c>
+      <c r="F78">
+        <v>152.148</v>
+      </c>
+      <c r="G78">
+        <v>13.43</v>
+      </c>
+      <c r="H78">
+        <v>0.5</v>
+      </c>
+      <c r="I78">
+        <v>3.4999999999999996E-2</v>
+      </c>
+      <c r="J78">
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="K78">
+        <v>1.6919999999999999</v>
+      </c>
+      <c r="L78">
+        <v>29.6</v>
+      </c>
+      <c r="M78">
+        <v>203.84</v>
+      </c>
+      <c r="N78">
+        <v>15.54</v>
+      </c>
+      <c r="S78">
+        <v>29.4</v>
+      </c>
+      <c r="T78">
+        <v>202.85599999999999</v>
+      </c>
+      <c r="U78">
+        <v>14.89</v>
+      </c>
+      <c r="V78">
+        <v>1</v>
+      </c>
+      <c r="W78">
+        <v>4.4999999999999991E-2</v>
+      </c>
+      <c r="X78">
+        <v>0.66</v>
+      </c>
+      <c r="Y78">
+        <v>1.9930000000000001</v>
+      </c>
+      <c r="Z78">
+        <v>34.9</v>
+      </c>
+      <c r="AA78">
+        <v>240.876</v>
+      </c>
+      <c r="AB78">
+        <v>15.57</v>
+      </c>
+      <c r="AC78">
+        <v>1.5</v>
+      </c>
+      <c r="AD78">
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="AE78">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="E79">
+        <v>38.299999999999997</v>
+      </c>
+      <c r="F79">
+        <v>264.346</v>
+      </c>
+      <c r="G79">
+        <v>17.8</v>
+      </c>
+      <c r="H79">
+        <v>0.5</v>
+      </c>
+      <c r="I79">
+        <v>2.9999999999999995E-2</v>
+      </c>
+      <c r="J79">
+        <v>0.44</v>
+      </c>
+      <c r="K79">
+        <v>1.673</v>
+      </c>
+      <c r="L79">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="M79">
+        <v>257.01</v>
+      </c>
+      <c r="N79">
+        <v>17.55</v>
+      </c>
+      <c r="S79">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="T79">
+        <v>246.267</v>
+      </c>
+      <c r="U79">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="V79">
+        <v>1</v>
+      </c>
+      <c r="W79">
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="X79">
+        <v>0.68</v>
+      </c>
+      <c r="Y79">
+        <v>1.9219999999999999</v>
+      </c>
+      <c r="Z79">
+        <v>40.9</v>
+      </c>
+      <c r="AA79">
+        <v>281.80200000000002</v>
+      </c>
+      <c r="AB79">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="AC79">
+        <v>1.5</v>
+      </c>
+      <c r="AD79">
+        <v>4.4999999999999991E-2</v>
+      </c>
+      <c r="AE79">
+        <v>0.70000000000000007</v>
+      </c>
+    </row>
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="E80">
+        <v>42</v>
+      </c>
+      <c r="F80">
+        <v>288.16199999999998</v>
+      </c>
+      <c r="G80">
+        <v>18.63</v>
+      </c>
+      <c r="H80">
+        <v>0.5</v>
+      </c>
+      <c r="I80">
+        <v>2.9999999999999995E-2</v>
+      </c>
+      <c r="J80">
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="K80">
+        <v>1.65</v>
+      </c>
+      <c r="L80">
+        <v>40.1</v>
+      </c>
+      <c r="M80">
+        <v>276.74900000000002</v>
+      </c>
+      <c r="N80">
+        <v>18.34</v>
+      </c>
+      <c r="S80">
+        <v>37.6</v>
+      </c>
+      <c r="T80">
+        <v>259.27499999999998</v>
+      </c>
+      <c r="U80">
+        <v>17.23</v>
+      </c>
+      <c r="V80">
+        <v>1</v>
+      </c>
+      <c r="W80">
+        <v>3.9999999999999994E-2</v>
+      </c>
+      <c r="X80">
+        <v>0.66</v>
+      </c>
+      <c r="Y80">
+        <v>1.9139999999999999</v>
+      </c>
+      <c r="Z80">
+        <v>43.1</v>
+      </c>
+      <c r="AA80">
+        <v>296.86700000000002</v>
+      </c>
+      <c r="AB80">
+        <v>17.64</v>
+      </c>
+      <c r="AC80">
+        <v>1.5</v>
+      </c>
+      <c r="AD80">
+        <v>4.4999999999999991E-2</v>
+      </c>
+      <c r="AE80">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="81" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="E81">
+        <v>41.2</v>
+      </c>
+      <c r="F81">
+        <v>283.91899999999998</v>
+      </c>
+      <c r="G81">
+        <v>18.52</v>
+      </c>
+      <c r="H81">
+        <v>0.5</v>
+      </c>
+      <c r="I81">
+        <v>3.2499999999999994E-2</v>
+      </c>
+      <c r="J81">
+        <v>0.43000000000000005</v>
+      </c>
+      <c r="K81">
+        <v>1.669</v>
+      </c>
+      <c r="L81">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="M81">
+        <v>226.452</v>
+      </c>
+      <c r="N81">
+        <v>16.489999999999998</v>
+      </c>
+      <c r="S81">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="T81">
+        <v>222.45400000000001</v>
+      </c>
+      <c r="U81">
+        <v>15.72</v>
+      </c>
+      <c r="V81">
+        <v>1.5</v>
+      </c>
+      <c r="W81">
+        <v>4.2499999999999996E-2</v>
+      </c>
+      <c r="X81">
+        <v>0.67</v>
+      </c>
+      <c r="Y81">
+        <v>1.9550000000000001</v>
+      </c>
+      <c r="Z81">
+        <v>86.3</v>
+      </c>
+      <c r="AA81">
+        <v>595.048</v>
+      </c>
+      <c r="AB81">
+        <v>24.7</v>
+      </c>
+      <c r="AC81">
+        <v>1.5</v>
+      </c>
+      <c r="AD81">
+        <v>4.7499999999999987E-2</v>
+      </c>
+      <c r="AE81">
+        <v>0.69000000000000006</v>
+      </c>
+    </row>
+    <row r="87" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>117</v>
+      </c>
+      <c r="B87" t="s">
+        <v>118</v>
+      </c>
+      <c r="C87" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="88" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f>2*0.05+B88</f>
+        <v>0.8</v>
+      </c>
+      <c r="B88">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="C88">
+        <v>1.5</v>
+      </c>
+      <c r="D88">
+        <v>2.1259999999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f>2*0.045+B89</f>
+        <v>0.77</v>
+      </c>
+      <c r="B89">
+        <v>0.68</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>2.0459999999999998</v>
+      </c>
+    </row>
+    <row r="90" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f>2*0.045+B90</f>
+        <v>0.75</v>
+      </c>
+      <c r="B90">
+        <v>0.66</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>1.9930000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f>2*0.04+B91</f>
+        <v>0.76</v>
+      </c>
+      <c r="B91">
+        <v>0.68</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>1.9219999999999999</v>
+      </c>
+    </row>
+    <row r="92" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f>2*0.04+B92</f>
+        <v>0.74</v>
+      </c>
+      <c r="B92">
+        <v>0.66</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1.9139999999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f>2*0.0425+B93</f>
+        <v>0.755</v>
+      </c>
+      <c r="B93">
+        <v>0.67</v>
+      </c>
+      <c r="C93">
+        <v>1.5</v>
+      </c>
+      <c r="D93">
+        <v>1.9550000000000001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f>2*0.04+B94</f>
+        <v>0.64</v>
+      </c>
+      <c r="B94">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C94">
+        <v>0.7</v>
+      </c>
+      <c r="D94">
+        <v>1.823</v>
+      </c>
+    </row>
+    <row r="95" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f>2*0.04+B95</f>
+        <v>0.62</v>
+      </c>
+      <c r="B95">
+        <v>0.54</v>
+      </c>
+      <c r="C95">
+        <v>0.7</v>
+      </c>
+      <c r="D95">
+        <v>1.8340000000000001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f>2*0.035+B96</f>
+        <v>0.63000000000000012</v>
+      </c>
+      <c r="B96">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="C96">
+        <v>0.7</v>
+      </c>
+      <c r="D96">
+        <v>1.7809999999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f>2*0.035+B97</f>
+        <v>0.6100000000000001</v>
+      </c>
+      <c r="B97">
+        <v>0.54</v>
+      </c>
+      <c r="C97">
+        <v>0.7</v>
+      </c>
+      <c r="D97">
+        <v>1.752</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f>2*0.0375+B98</f>
+        <v>0.625</v>
+      </c>
+      <c r="B98">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C98">
+        <v>0.7</v>
+      </c>
+      <c r="D98">
+        <v>1.804</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f>2*0.03+B99</f>
+        <v>0.48000000000000004</v>
+      </c>
+      <c r="B99">
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="C99">
+        <v>0.25</v>
+      </c>
+      <c r="D99">
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f>2*0.03+B100</f>
+        <v>0.46</v>
+      </c>
+      <c r="B100">
+        <v>0.4</v>
+      </c>
+      <c r="C100">
         <v>0.35</v>
       </c>
-      <c r="E71">
-        <v>0.4325</v>
-      </c>
-      <c r="F71" s="118">
-        <v>1.79</v>
-      </c>
-      <c r="G71">
-        <v>11.38</v>
-      </c>
-      <c r="H71">
-        <v>78.468000000000004</v>
-      </c>
-      <c r="I71">
-        <v>9.3699999999999992</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>14</v>
-      </c>
-      <c r="B72">
-        <v>0.5</v>
-      </c>
-      <c r="C72">
-        <v>0.42</v>
-      </c>
-      <c r="D72">
-        <v>0.25</v>
-      </c>
-      <c r="E72">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F72">
-        <v>1.742</v>
-      </c>
-      <c r="G72">
-        <v>5.7</v>
-      </c>
-      <c r="H72">
-        <v>39.021000000000001</v>
-      </c>
-      <c r="I72">
-        <v>6.7</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>15</v>
-      </c>
-      <c r="B73">
-        <v>0.5</v>
-      </c>
-      <c r="C73">
-        <v>0.42</v>
-      </c>
-      <c r="D73">
-        <v>0.35</v>
-      </c>
-      <c r="E73">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F73">
-        <v>1.7370000000000001</v>
-      </c>
-      <c r="G73">
-        <v>11</v>
-      </c>
-      <c r="H73">
-        <v>76.114999999999995</v>
-      </c>
-      <c r="I73">
-        <v>9.3699999999999992</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>16</v>
-      </c>
-      <c r="B74">
+      <c r="D100">
+        <v>1.6910000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <f>2*0.025+B101</f>
+        <v>0.47000000000000003</v>
+      </c>
+      <c r="B101">
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="C101">
+        <v>0.4</v>
+      </c>
+      <c r="D101">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <f>2*0.025+B102</f>
         <v>0.45</v>
       </c>
-      <c r="C74">
-        <v>0.42</v>
-      </c>
-      <c r="D74">
-        <v>0.25</v>
-      </c>
-      <c r="E74">
-        <v>0.4325</v>
-      </c>
-      <c r="F74">
-        <v>1.8009999999999999</v>
-      </c>
-      <c r="G74">
-        <v>46.8</v>
-      </c>
-      <c r="H74">
-        <v>322.99700000000001</v>
-      </c>
-      <c r="I74">
-        <v>18.96</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>4</v>
-      </c>
-      <c r="B75">
+      <c r="B102">
+        <v>0.4</v>
+      </c>
+      <c r="C102">
+        <v>0.4</v>
+      </c>
+      <c r="D102">
+        <v>1.6639999999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <f>2*0.0275+B103</f>
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="B103">
+        <v>0.41000000000000003</v>
+      </c>
+      <c r="C103">
         <v>0.45</v>
       </c>
-      <c r="C75">
-        <v>0.38</v>
-      </c>
-      <c r="D75">
-        <v>0.35</v>
-      </c>
-      <c r="E75">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F75">
-        <v>1.635</v>
-      </c>
-      <c r="G75">
-        <v>16.7</v>
-      </c>
-      <c r="H75">
-        <v>115.04600000000001</v>
-      </c>
-      <c r="I75">
-        <v>11.88</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>5</v>
-      </c>
-      <c r="B76">
-        <v>0.45</v>
-      </c>
-      <c r="C76">
-        <v>0.38</v>
-      </c>
-      <c r="D76">
-        <v>0.25</v>
-      </c>
-      <c r="E76">
-        <v>0.4325</v>
-      </c>
-      <c r="F76">
-        <v>1.677</v>
-      </c>
-      <c r="G76">
-        <v>8.75</v>
-      </c>
-      <c r="H76">
-        <v>60.331000000000003</v>
-      </c>
-      <c r="I76">
-        <v>8.49</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>6</v>
-      </c>
-      <c r="B77">
-        <v>0.45</v>
-      </c>
-      <c r="C77">
-        <v>0.38</v>
-      </c>
-      <c r="D77">
-        <v>0.35</v>
-      </c>
-      <c r="E77">
-        <v>0.4325</v>
-      </c>
-      <c r="F77">
-        <v>1.647</v>
-      </c>
-      <c r="G77">
-        <v>1.68</v>
-      </c>
-      <c r="H77">
-        <v>116.107</v>
-      </c>
-      <c r="I77">
-        <v>11.89</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>7</v>
-      </c>
-      <c r="B78">
-        <v>0.45</v>
-      </c>
-      <c r="C78">
-        <v>0.38</v>
-      </c>
-      <c r="D78">
-        <v>0.25</v>
-      </c>
-      <c r="E78">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F78">
-        <v>1.631</v>
-      </c>
-      <c r="G78">
-        <v>8.48</v>
-      </c>
-      <c r="H78">
-        <v>58.509</v>
-      </c>
-      <c r="I78">
-        <v>8.48</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>9</v>
-      </c>
-      <c r="B79">
-        <v>0.45</v>
-      </c>
-      <c r="C79">
-        <v>0.42</v>
-      </c>
-      <c r="D79">
-        <v>0.35</v>
-      </c>
-      <c r="E79">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F79" s="118">
+      <c r="D103">
         <v>1.66</v>
-      </c>
-      <c r="G79">
-        <v>84.5</v>
-      </c>
-      <c r="H79">
-        <v>582.81299999999999</v>
-      </c>
-      <c r="I79">
-        <v>26.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>10</v>
-      </c>
-      <c r="B80">
-        <v>0.45</v>
-      </c>
-      <c r="C80">
-        <v>0.42</v>
-      </c>
-      <c r="D80">
-        <v>0.35</v>
-      </c>
-      <c r="E80">
-        <v>0.4325</v>
-      </c>
-      <c r="F80">
-        <v>1.732</v>
-      </c>
-      <c r="G80">
-        <v>88.3</v>
-      </c>
-      <c r="H80">
-        <v>609.05399999999997</v>
-      </c>
-      <c r="I80">
-        <v>26.54</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>11</v>
-      </c>
-      <c r="B81">
-        <v>0.45</v>
-      </c>
-      <c r="C81">
-        <v>0.42</v>
-      </c>
-      <c r="D81">
-        <v>0.25</v>
-      </c>
-      <c r="E81">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="F81">
-        <v>1.704</v>
-      </c>
-      <c r="G81">
-        <v>44.3</v>
-      </c>
-      <c r="H81">
-        <v>305.34100000000001</v>
-      </c>
-      <c r="I81">
-        <v>18.95</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>94</v>
-      </c>
-      <c r="B82">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="C82">
-        <v>0.4</v>
-      </c>
-      <c r="D82">
-        <v>0.3</v>
-      </c>
-      <c r="E82">
-        <v>0.49125000000000002</v>
-      </c>
-      <c r="F82">
-        <v>1.7589999999999999</v>
-      </c>
-      <c r="G82">
-        <v>10.5</v>
-      </c>
-      <c r="H82">
-        <v>72.244</v>
-      </c>
-      <c r="I82">
-        <v>9.08</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>94</v>
-      </c>
-      <c r="B83">
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="C83">
-        <v>0.4</v>
-      </c>
-      <c r="D83">
-        <v>0.3</v>
-      </c>
-      <c r="E83">
-        <v>0.49125000000000002</v>
-      </c>
-      <c r="F83">
-        <v>1.7509999999999999</v>
-      </c>
-      <c r="G83">
-        <v>10.4</v>
-      </c>
-      <c r="H83">
-        <v>71.983999999999995</v>
-      </c>
-      <c r="I83">
-        <v>9.08</v>
       </c>
     </row>
   </sheetData>
@@ -13127,7 +13680,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94FEFE3-C638-4C02-8D14-3FDB6DDF418A}">
   <dimension ref="A1:AE42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>
@@ -13149,20 +13702,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
+      <c r="B1" s="101"/>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="93"/>
+      <c r="G1" s="101"/>
       <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
@@ -13171,20 +13724,20 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="95"/>
+      <c r="B2" s="103"/>
       <c r="C2" s="6">
         <v>0.44</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="94" t="s">
+      <c r="F2" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="95"/>
+      <c r="G2" s="103"/>
       <c r="H2" s="6">
         <v>0.25</v>
       </c>
@@ -13193,20 +13746,20 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="95"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="6">
         <v>0.221</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="94" t="s">
+      <c r="F3" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="95"/>
+      <c r="G3" s="103"/>
       <c r="H3" s="6">
         <v>0.25</v>
       </c>
@@ -13215,20 +13768,20 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="95"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="6">
         <v>0.42099999999999999</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="94" t="s">
+      <c r="F4" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="95"/>
+      <c r="G4" s="103"/>
       <c r="H4" s="6">
         <v>0.21</v>
       </c>
@@ -13237,20 +13790,20 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="95"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="6">
         <v>5.9499999999999997E-2</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="94" t="s">
+      <c r="F5" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="95"/>
+      <c r="G5" s="103"/>
       <c r="H5" s="6">
         <v>0.86499999999999999</v>
       </c>
@@ -13259,20 +13812,20 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="97"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="6">
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="F6" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="95"/>
+      <c r="G6" s="103"/>
       <c r="H6" s="6">
         <v>0.4844</v>
       </c>
@@ -13281,18 +13834,18 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="7">
         <v>0.53984146967987301</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="95"/>
+      <c r="G7" s="103"/>
       <c r="H7" s="6">
         <f>(H6-C4)/2</f>
         <v>3.1700000000000006E-2</v>
@@ -13347,41 +13900,41 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="100" t="s">
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="101"/>
-      <c r="U11" s="101"/>
-      <c r="V11" s="102"/>
-      <c r="W11" s="106" t="s">
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="109"/>
+      <c r="T11" s="109"/>
+      <c r="U11" s="109"/>
+      <c r="V11" s="110"/>
+      <c r="W11" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="X11" s="106"/>
-      <c r="Y11" s="106"/>
-      <c r="Z11" s="106"/>
-      <c r="AA11" s="106"/>
-      <c r="AB11" s="106"/>
-      <c r="AC11" s="106"/>
+      <c r="X11" s="114"/>
+      <c r="Y11" s="114"/>
+      <c r="Z11" s="114"/>
+      <c r="AA11" s="114"/>
+      <c r="AB11" s="114"/>
+      <c r="AC11" s="114"/>
     </row>
     <row r="12" spans="1:29" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -14380,43 +14933,43 @@
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="99" t="s">
+      <c r="A29" s="107" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="99"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="103" t="s">
+      <c r="B29" s="107"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="N29" s="104"/>
-      <c r="O29" s="104"/>
-      <c r="P29" s="104"/>
-      <c r="Q29" s="104"/>
-      <c r="R29" s="104"/>
-      <c r="S29" s="104"/>
-      <c r="T29" s="104"/>
-      <c r="U29" s="104"/>
-      <c r="V29" s="104"/>
-      <c r="W29" s="104"/>
-      <c r="X29" s="105"/>
-      <c r="Y29" s="106" t="s">
+      <c r="N29" s="112"/>
+      <c r="O29" s="112"/>
+      <c r="P29" s="112"/>
+      <c r="Q29" s="112"/>
+      <c r="R29" s="112"/>
+      <c r="S29" s="112"/>
+      <c r="T29" s="112"/>
+      <c r="U29" s="112"/>
+      <c r="V29" s="112"/>
+      <c r="W29" s="112"/>
+      <c r="X29" s="113"/>
+      <c r="Y29" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="Z29" s="106"/>
-      <c r="AA29" s="106"/>
-      <c r="AB29" s="106"/>
-      <c r="AC29" s="106"/>
-      <c r="AD29" s="106"/>
-      <c r="AE29" s="106"/>
+      <c r="Z29" s="114"/>
+      <c r="AA29" s="114"/>
+      <c r="AB29" s="114"/>
+      <c r="AC29" s="114"/>
+      <c r="AD29" s="114"/>
+      <c r="AE29" s="114"/>
     </row>
     <row r="30" spans="1:31" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
@@ -15493,7 +16046,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB4F8A2-6B31-4218-9E4E-149FAE8D9902}">
   <dimension ref="A1:AE42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -15514,20 +16067,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
+      <c r="B1" s="101"/>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="93"/>
+      <c r="G1" s="101"/>
       <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
@@ -15536,20 +16089,20 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="95"/>
+      <c r="B2" s="103"/>
       <c r="C2" s="6">
         <v>0.44</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="94" t="s">
+      <c r="F2" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="95"/>
+      <c r="G2" s="103"/>
       <c r="H2" s="6">
         <v>0.25</v>
       </c>
@@ -15558,20 +16111,20 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="95"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="6">
         <v>0.221</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="94" t="s">
+      <c r="F3" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="95"/>
+      <c r="G3" s="103"/>
       <c r="H3" s="6">
         <v>0.25</v>
       </c>
@@ -15580,20 +16133,20 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="95"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="6">
         <v>0.42099999999999999</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="94" t="s">
+      <c r="F4" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="95"/>
+      <c r="G4" s="103"/>
       <c r="H4" s="6">
         <v>0.21</v>
       </c>
@@ -15602,20 +16155,20 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="95"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="6">
         <v>6.0999999999999999E-2</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="94" t="s">
+      <c r="F5" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="95"/>
+      <c r="G5" s="103"/>
       <c r="H5" s="6">
         <v>0.86499999999999999</v>
       </c>
@@ -15624,20 +16177,20 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="97"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="6">
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="F6" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="95"/>
+      <c r="G6" s="103"/>
       <c r="H6" s="6">
         <v>0.47499999999999998</v>
       </c>
@@ -15646,18 +16199,18 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="7">
         <v>0.55345091849533101</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="95"/>
+      <c r="G7" s="103"/>
       <c r="H7" s="6">
         <f>(H6-C4)/2</f>
         <v>2.6999999999999996E-2</v>
@@ -15712,41 +16265,41 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="100" t="s">
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="101"/>
-      <c r="U11" s="101"/>
-      <c r="V11" s="102"/>
-      <c r="W11" s="106" t="s">
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="109"/>
+      <c r="T11" s="109"/>
+      <c r="U11" s="109"/>
+      <c r="V11" s="110"/>
+      <c r="W11" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="X11" s="106"/>
-      <c r="Y11" s="106"/>
-      <c r="Z11" s="106"/>
-      <c r="AA11" s="106"/>
-      <c r="AB11" s="106"/>
-      <c r="AC11" s="106"/>
+      <c r="X11" s="114"/>
+      <c r="Y11" s="114"/>
+      <c r="Z11" s="114"/>
+      <c r="AA11" s="114"/>
+      <c r="AB11" s="114"/>
+      <c r="AC11" s="114"/>
     </row>
     <row r="12" spans="1:29" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -16697,43 +17250,43 @@
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="99" t="s">
+      <c r="A29" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="99"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="103" t="s">
+      <c r="B29" s="107"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="N29" s="104"/>
-      <c r="O29" s="104"/>
-      <c r="P29" s="104"/>
-      <c r="Q29" s="104"/>
-      <c r="R29" s="104"/>
-      <c r="S29" s="104"/>
-      <c r="T29" s="104"/>
-      <c r="U29" s="104"/>
-      <c r="V29" s="104"/>
-      <c r="W29" s="104"/>
-      <c r="X29" s="105"/>
-      <c r="Y29" s="106" t="s">
+      <c r="N29" s="112"/>
+      <c r="O29" s="112"/>
+      <c r="P29" s="112"/>
+      <c r="Q29" s="112"/>
+      <c r="R29" s="112"/>
+      <c r="S29" s="112"/>
+      <c r="T29" s="112"/>
+      <c r="U29" s="112"/>
+      <c r="V29" s="112"/>
+      <c r="W29" s="112"/>
+      <c r="X29" s="113"/>
+      <c r="Y29" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="Z29" s="106"/>
-      <c r="AA29" s="106"/>
-      <c r="AB29" s="106"/>
-      <c r="AC29" s="106"/>
-      <c r="AD29" s="106"/>
-      <c r="AE29" s="106"/>
+      <c r="Z29" s="114"/>
+      <c r="AA29" s="114"/>
+      <c r="AB29" s="114"/>
+      <c r="AC29" s="114"/>
+      <c r="AD29" s="114"/>
+      <c r="AE29" s="114"/>
     </row>
     <row r="30" spans="1:31" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
@@ -17810,7 +18363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424B0F11-3F14-4E75-ADE1-1A7CD1461A3A}">
   <dimension ref="A1:AE43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -17831,20 +18384,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
+      <c r="B1" s="101"/>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="93"/>
+      <c r="G1" s="101"/>
       <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
@@ -17853,20 +18406,20 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="95"/>
+      <c r="B2" s="103"/>
       <c r="C2" s="6">
         <v>0.44</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="94" t="s">
+      <c r="F2" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="95"/>
+      <c r="G2" s="103"/>
       <c r="H2" s="6">
         <v>0.25</v>
       </c>
@@ -17875,20 +18428,20 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="95"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="6">
         <v>0.221</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="94" t="s">
+      <c r="F3" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="95"/>
+      <c r="G3" s="103"/>
       <c r="H3" s="6">
         <v>0.25</v>
       </c>
@@ -17897,20 +18450,20 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="95"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="6">
         <v>0.42099999999999999</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="94" t="s">
+      <c r="F4" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="95"/>
+      <c r="G4" s="103"/>
       <c r="H4" s="6">
         <v>0.21</v>
       </c>
@@ -17919,20 +18472,20 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="95"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="6">
         <v>5.9499999999999997E-2</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="94" t="s">
+      <c r="F5" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="95"/>
+      <c r="G5" s="103"/>
       <c r="H5" s="6">
         <v>0.86499999999999999</v>
       </c>
@@ -17941,20 +18494,20 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="97"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="6">
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="F6" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="95"/>
+      <c r="G6" s="103"/>
       <c r="H6" s="6">
         <v>0.46875</v>
       </c>
@@ -17963,18 +18516,18 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="7">
         <v>0.53984146967987301</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="95"/>
+      <c r="G7" s="103"/>
       <c r="H7" s="6">
         <f>(H6-C4)/2</f>
         <v>2.3875000000000007E-2</v>
@@ -18029,41 +18582,41 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="98" t="s">
+      <c r="A11" s="106" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="98"/>
-      <c r="M11" s="100" t="s">
+      <c r="B11" s="106"/>
+      <c r="C11" s="106"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="106"/>
+      <c r="L11" s="106"/>
+      <c r="M11" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="101"/>
-      <c r="U11" s="101"/>
-      <c r="V11" s="102"/>
-      <c r="W11" s="106" t="s">
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="109"/>
+      <c r="T11" s="109"/>
+      <c r="U11" s="109"/>
+      <c r="V11" s="110"/>
+      <c r="W11" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="X11" s="106"/>
-      <c r="Y11" s="106"/>
-      <c r="Z11" s="106"/>
-      <c r="AA11" s="106"/>
-      <c r="AB11" s="106"/>
-      <c r="AC11" s="106"/>
+      <c r="X11" s="114"/>
+      <c r="Y11" s="114"/>
+      <c r="Z11" s="114"/>
+      <c r="AA11" s="114"/>
+      <c r="AB11" s="114"/>
+      <c r="AC11" s="114"/>
     </row>
     <row r="12" spans="1:29" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -18994,43 +19547,43 @@
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="99" t="s">
+      <c r="A29" s="107" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="99"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="99"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="99"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="99"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="103" t="s">
+      <c r="B29" s="107"/>
+      <c r="C29" s="107"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="107"/>
+      <c r="F29" s="107"/>
+      <c r="G29" s="107"/>
+      <c r="H29" s="107"/>
+      <c r="I29" s="107"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="107"/>
+      <c r="L29" s="107"/>
+      <c r="M29" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="N29" s="104"/>
-      <c r="O29" s="104"/>
-      <c r="P29" s="104"/>
-      <c r="Q29" s="104"/>
-      <c r="R29" s="104"/>
-      <c r="S29" s="104"/>
-      <c r="T29" s="104"/>
-      <c r="U29" s="104"/>
-      <c r="V29" s="104"/>
-      <c r="W29" s="104"/>
-      <c r="X29" s="105"/>
-      <c r="Y29" s="106" t="s">
+      <c r="N29" s="112"/>
+      <c r="O29" s="112"/>
+      <c r="P29" s="112"/>
+      <c r="Q29" s="112"/>
+      <c r="R29" s="112"/>
+      <c r="S29" s="112"/>
+      <c r="T29" s="112"/>
+      <c r="U29" s="112"/>
+      <c r="V29" s="112"/>
+      <c r="W29" s="112"/>
+      <c r="X29" s="113"/>
+      <c r="Y29" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="Z29" s="106"/>
-      <c r="AA29" s="106"/>
-      <c r="AB29" s="106"/>
-      <c r="AC29" s="106"/>
-      <c r="AD29" s="106"/>
-      <c r="AE29" s="106"/>
+      <c r="Z29" s="114"/>
+      <c r="AA29" s="114"/>
+      <c r="AB29" s="114"/>
+      <c r="AC29" s="114"/>
+      <c r="AD29" s="114"/>
+      <c r="AE29" s="114"/>
     </row>
     <row r="30" spans="1:31" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
@@ -20081,7 +20634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE57B4B2-19E5-400A-83DC-CBA5BA1EA8C9}">
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -20101,20 +20654,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
+      <c r="B1" s="101"/>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="93"/>
+      <c r="G1" s="101"/>
       <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
@@ -20123,20 +20676,20 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="95"/>
+      <c r="B2" s="103"/>
       <c r="C2" s="6">
         <v>0.44</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="94" t="s">
+      <c r="F2" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="95"/>
+      <c r="G2" s="103"/>
       <c r="H2" s="6">
         <v>0.25</v>
       </c>
@@ -20145,20 +20698,20 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="95"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="6">
         <v>0.221</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="94" t="s">
+      <c r="F3" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="95"/>
+      <c r="G3" s="103"/>
       <c r="H3" s="6">
         <v>0.25</v>
       </c>
@@ -20167,20 +20720,20 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="95"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="6">
         <v>0.42099999999999999</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="94" t="s">
+      <c r="F4" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="95"/>
+      <c r="G4" s="103"/>
       <c r="H4" s="6">
         <v>0.21</v>
       </c>
@@ -20189,20 +20742,20 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="95"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="6" t="s">
         <v>76</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="94" t="s">
+      <c r="F5" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="95"/>
+      <c r="G5" s="103"/>
       <c r="H5" s="6">
         <v>0.86499999999999999</v>
       </c>
@@ -20211,20 +20764,20 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="97"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="6">
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="F6" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="95"/>
+      <c r="G6" s="103"/>
       <c r="H6" s="6">
         <v>0.45100000000000001</v>
       </c>
@@ -20233,18 +20786,18 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="7">
         <v>0.36291863507890598</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="95"/>
+      <c r="G7" s="103"/>
       <c r="H7" s="6">
         <f>(H6-C4)/2</f>
         <v>1.5000000000000013E-2</v>
@@ -20299,41 +20852,41 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="100" t="s">
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="101"/>
-      <c r="U11" s="101"/>
-      <c r="V11" s="102"/>
-      <c r="W11" s="106" t="s">
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="109"/>
+      <c r="T11" s="109"/>
+      <c r="U11" s="109"/>
+      <c r="V11" s="110"/>
+      <c r="W11" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="X11" s="106"/>
-      <c r="Y11" s="106"/>
-      <c r="Z11" s="106"/>
-      <c r="AA11" s="106"/>
-      <c r="AB11" s="106"/>
-      <c r="AC11" s="106"/>
+      <c r="X11" s="114"/>
+      <c r="Y11" s="114"/>
+      <c r="Z11" s="114"/>
+      <c r="AA11" s="114"/>
+      <c r="AB11" s="114"/>
+      <c r="AC11" s="114"/>
     </row>
     <row r="12" spans="1:29" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -21098,43 +21651,43 @@
       <c r="V25" s="75"/>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A26" s="110" t="s">
+      <c r="A26" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="110"/>
-      <c r="C26" s="110"/>
-      <c r="D26" s="110"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="110"/>
-      <c r="G26" s="110"/>
-      <c r="H26" s="110"/>
-      <c r="I26" s="110"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="110"/>
-      <c r="L26" s="111"/>
-      <c r="M26" s="103" t="s">
+      <c r="B26" s="118"/>
+      <c r="C26" s="118"/>
+      <c r="D26" s="118"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="118"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="118"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="119"/>
+      <c r="M26" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="N26" s="104"/>
-      <c r="O26" s="104"/>
-      <c r="P26" s="104"/>
-      <c r="Q26" s="104"/>
-      <c r="R26" s="104"/>
-      <c r="S26" s="104"/>
-      <c r="T26" s="104"/>
-      <c r="U26" s="104"/>
-      <c r="V26" s="104"/>
-      <c r="W26" s="104"/>
-      <c r="X26" s="105"/>
-      <c r="Y26" s="106" t="s">
+      <c r="N26" s="112"/>
+      <c r="O26" s="112"/>
+      <c r="P26" s="112"/>
+      <c r="Q26" s="112"/>
+      <c r="R26" s="112"/>
+      <c r="S26" s="112"/>
+      <c r="T26" s="112"/>
+      <c r="U26" s="112"/>
+      <c r="V26" s="112"/>
+      <c r="W26" s="112"/>
+      <c r="X26" s="113"/>
+      <c r="Y26" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="Z26" s="106"/>
-      <c r="AA26" s="106"/>
-      <c r="AB26" s="106"/>
-      <c r="AC26" s="106"/>
-      <c r="AD26" s="106"/>
-      <c r="AE26" s="106"/>
+      <c r="Z26" s="114"/>
+      <c r="AA26" s="114"/>
+      <c r="AB26" s="114"/>
+      <c r="AC26" s="114"/>
+      <c r="AD26" s="114"/>
+      <c r="AE26" s="114"/>
     </row>
     <row r="27" spans="1:31" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
@@ -22187,7 +22740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE50"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
@@ -22207,20 +22760,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
+      <c r="B1" s="101"/>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="93"/>
+      <c r="G1" s="101"/>
       <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
@@ -22229,20 +22782,20 @@
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="95"/>
+      <c r="B2" s="103"/>
       <c r="C2" s="6">
         <v>0.44</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="94" t="s">
+      <c r="F2" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="95"/>
+      <c r="G2" s="103"/>
       <c r="H2" s="6">
         <v>0.25</v>
       </c>
@@ -22251,20 +22804,20 @@
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="95"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="6">
         <v>0.221</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="94" t="s">
+      <c r="F3" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="95"/>
+      <c r="G3" s="103"/>
       <c r="H3" s="6">
         <v>0.25</v>
       </c>
@@ -22273,20 +22826,20 @@
       </c>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="95"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="6">
         <v>0.42099999999999999</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="94" t="s">
+      <c r="F4" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="95"/>
+      <c r="G4" s="103"/>
       <c r="H4" s="6">
         <v>0.21</v>
       </c>
@@ -22295,20 +22848,20 @@
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="95"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="6">
         <v>0.04</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="94" t="s">
+      <c r="F5" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="95"/>
+      <c r="G5" s="103"/>
       <c r="H5" s="6">
         <v>0.86499999999999999</v>
       </c>
@@ -22317,20 +22870,20 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="97"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="6">
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="F6" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="95"/>
+      <c r="G6" s="103"/>
       <c r="H6" s="6">
         <v>0.4375</v>
       </c>
@@ -22339,18 +22892,18 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="7">
         <v>0.36291863507890598</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="95"/>
+      <c r="G7" s="103"/>
       <c r="H7" s="6">
         <v>8.2499999999999796E-3</v>
       </c>
@@ -22404,41 +22957,41 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="107" t="s">
+      <c r="A11" s="115" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="108"/>
-      <c r="C11" s="108"/>
-      <c r="D11" s="108"/>
-      <c r="E11" s="108"/>
-      <c r="F11" s="108"/>
-      <c r="G11" s="108"/>
-      <c r="H11" s="108"/>
-      <c r="I11" s="108"/>
-      <c r="J11" s="108"/>
-      <c r="K11" s="108"/>
-      <c r="L11" s="109"/>
-      <c r="M11" s="100" t="s">
+      <c r="B11" s="116"/>
+      <c r="C11" s="116"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="116"/>
+      <c r="F11" s="116"/>
+      <c r="G11" s="116"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="116"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="108" t="s">
         <v>65</v>
       </c>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="101"/>
-      <c r="U11" s="101"/>
-      <c r="V11" s="102"/>
-      <c r="W11" s="106" t="s">
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="109"/>
+      <c r="T11" s="109"/>
+      <c r="U11" s="109"/>
+      <c r="V11" s="110"/>
+      <c r="W11" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="X11" s="106"/>
-      <c r="Y11" s="106"/>
-      <c r="Z11" s="106"/>
-      <c r="AA11" s="106"/>
-      <c r="AB11" s="106"/>
-      <c r="AC11" s="106"/>
+      <c r="X11" s="114"/>
+      <c r="Y11" s="114"/>
+      <c r="Z11" s="114"/>
+      <c r="AA11" s="114"/>
+      <c r="AB11" s="114"/>
+      <c r="AC11" s="114"/>
     </row>
     <row r="12" spans="1:29" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -23533,43 +24086,43 @@
       <c r="V30" s="34"/>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A31" s="110" t="s">
+      <c r="A31" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="B31" s="110"/>
-      <c r="C31" s="110"/>
-      <c r="D31" s="110"/>
-      <c r="E31" s="110"/>
-      <c r="F31" s="110"/>
-      <c r="G31" s="110"/>
-      <c r="H31" s="110"/>
-      <c r="I31" s="110"/>
-      <c r="J31" s="110"/>
-      <c r="K31" s="110"/>
-      <c r="L31" s="111"/>
-      <c r="M31" s="103" t="s">
+      <c r="B31" s="118"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="118"/>
+      <c r="E31" s="118"/>
+      <c r="F31" s="118"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="118"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="119"/>
+      <c r="M31" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="N31" s="104"/>
-      <c r="O31" s="104"/>
-      <c r="P31" s="104"/>
-      <c r="Q31" s="104"/>
-      <c r="R31" s="104"/>
-      <c r="S31" s="104"/>
-      <c r="T31" s="104"/>
-      <c r="U31" s="104"/>
-      <c r="V31" s="104"/>
-      <c r="W31" s="104"/>
-      <c r="X31" s="105"/>
-      <c r="Y31" s="106" t="s">
+      <c r="N31" s="112"/>
+      <c r="O31" s="112"/>
+      <c r="P31" s="112"/>
+      <c r="Q31" s="112"/>
+      <c r="R31" s="112"/>
+      <c r="S31" s="112"/>
+      <c r="T31" s="112"/>
+      <c r="U31" s="112"/>
+      <c r="V31" s="112"/>
+      <c r="W31" s="112"/>
+      <c r="X31" s="113"/>
+      <c r="Y31" s="114" t="s">
         <v>88</v>
       </c>
-      <c r="Z31" s="106"/>
-      <c r="AA31" s="106"/>
-      <c r="AB31" s="106"/>
-      <c r="AC31" s="106"/>
-      <c r="AD31" s="106"/>
-      <c r="AE31" s="106"/>
+      <c r="Z31" s="114"/>
+      <c r="AA31" s="114"/>
+      <c r="AB31" s="114"/>
+      <c r="AC31" s="114"/>
+      <c r="AD31" s="114"/>
+      <c r="AE31" s="114"/>
     </row>
     <row r="32" spans="1:31" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
@@ -24632,18 +25185,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:13" x14ac:dyDescent="0.25">
-      <c r="C2" s="112" t="s">
+      <c r="C2" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="D2" s="112"/>
-      <c r="F2" s="112" t="s">
+      <c r="D2" s="120"/>
+      <c r="F2" s="120" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="112"/>
-      <c r="I2" s="112" t="s">
+      <c r="G2" s="120"/>
+      <c r="I2" s="120" t="s">
         <v>74</v>
       </c>
-      <c r="J2" s="112"/>
+      <c r="J2" s="120"/>
       <c r="L2" s="77"/>
       <c r="M2" t="s">
         <v>75</v>
@@ -24966,20 +25519,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
+      <c r="B1" s="101"/>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="93"/>
+      <c r="G1" s="101"/>
       <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
@@ -24988,20 +25541,20 @@
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="95"/>
+      <c r="B2" s="103"/>
       <c r="C2" s="6">
         <v>0.44</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="94" t="s">
+      <c r="F2" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="95"/>
+      <c r="G2" s="103"/>
       <c r="H2" s="6">
         <v>0.25</v>
       </c>
@@ -25010,20 +25563,20 @@
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="95"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="6">
         <v>0.221</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="94" t="s">
+      <c r="F3" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="95"/>
+      <c r="G3" s="103"/>
       <c r="H3" s="6">
         <v>0.25</v>
       </c>
@@ -25032,20 +25585,20 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="95"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="6">
         <v>0.42099999999999999</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="94" t="s">
+      <c r="F4" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="95"/>
+      <c r="G4" s="103"/>
       <c r="H4" s="6">
         <v>0.21</v>
       </c>
@@ -25054,20 +25607,20 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="95"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="6">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="94" t="s">
+      <c r="F5" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="95"/>
+      <c r="G5" s="103"/>
       <c r="H5" s="6">
         <v>0.86499999999999999</v>
       </c>
@@ -25076,20 +25629,20 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="97"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="6">
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="F6" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="95"/>
+      <c r="G6" s="103"/>
       <c r="H6" s="6">
         <v>0.4375</v>
       </c>
@@ -25098,18 +25651,18 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="7">
         <v>0.235897112801289</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="95"/>
+      <c r="G7" s="103"/>
       <c r="H7" s="6">
         <v>8.2499999999999796E-3</v>
       </c>
@@ -25163,32 +25716,32 @@
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A11" s="114" t="s">
+      <c r="A11" s="122" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="115"/>
-      <c r="D11" s="115"/>
-      <c r="E11" s="115"/>
-      <c r="F11" s="115"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="115"/>
-      <c r="J11" s="115"/>
-      <c r="K11" s="115"/>
-      <c r="L11" s="116"/>
-      <c r="M11" s="100" t="s">
+      <c r="B11" s="123"/>
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="123"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="124"/>
+      <c r="M11" s="108" t="s">
         <v>57</v>
       </c>
-      <c r="N11" s="101"/>
-      <c r="O11" s="101"/>
-      <c r="P11" s="101"/>
-      <c r="Q11" s="101"/>
-      <c r="R11" s="101"/>
-      <c r="S11" s="101"/>
-      <c r="T11" s="101"/>
-      <c r="U11" s="101"/>
-      <c r="V11" s="102"/>
+      <c r="N11" s="109"/>
+      <c r="O11" s="109"/>
+      <c r="P11" s="109"/>
+      <c r="Q11" s="109"/>
+      <c r="R11" s="109"/>
+      <c r="S11" s="109"/>
+      <c r="T11" s="109"/>
+      <c r="U11" s="109"/>
+      <c r="V11" s="110"/>
     </row>
     <row r="12" spans="1:22" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -26018,34 +26571,34 @@
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A29" s="110" t="s">
+      <c r="A29" s="118" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="110"/>
-      <c r="C29" s="110"/>
-      <c r="D29" s="110"/>
-      <c r="E29" s="110"/>
-      <c r="F29" s="110"/>
-      <c r="G29" s="110"/>
-      <c r="H29" s="110"/>
-      <c r="I29" s="110"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="110"/>
-      <c r="L29" s="111"/>
-      <c r="M29" s="113" t="s">
+      <c r="B29" s="118"/>
+      <c r="C29" s="118"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="118"/>
+      <c r="F29" s="118"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="118"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="119"/>
+      <c r="M29" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="N29" s="113"/>
-      <c r="O29" s="113"/>
-      <c r="P29" s="113"/>
-      <c r="Q29" s="113"/>
-      <c r="R29" s="113"/>
-      <c r="S29" s="113"/>
-      <c r="T29" s="113"/>
-      <c r="U29" s="113"/>
-      <c r="V29" s="113"/>
-      <c r="W29" s="113"/>
-      <c r="X29" s="113"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="121"/>
+      <c r="P29" s="121"/>
+      <c r="Q29" s="121"/>
+      <c r="R29" s="121"/>
+      <c r="S29" s="121"/>
+      <c r="T29" s="121"/>
+      <c r="U29" s="121"/>
+      <c r="V29" s="121"/>
+      <c r="W29" s="121"/>
+      <c r="X29" s="121"/>
     </row>
     <row r="30" spans="1:24" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
@@ -26833,20 +27386,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="93"/>
+      <c r="B1" s="101"/>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="92" t="s">
+      <c r="F1" s="100" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="93"/>
+      <c r="G1" s="101"/>
       <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
@@ -26855,20 +27408,20 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="95"/>
+      <c r="B2" s="103"/>
       <c r="C2" s="6">
         <v>0.44</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="94" t="s">
+      <c r="F2" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="95"/>
+      <c r="G2" s="103"/>
       <c r="H2" s="6">
         <v>0.25</v>
       </c>
@@ -26877,20 +27430,20 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="95"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="6">
         <v>0.221</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="94" t="s">
+      <c r="F3" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="95"/>
+      <c r="G3" s="103"/>
       <c r="H3" s="6">
         <v>0.25</v>
       </c>
@@ -26899,20 +27452,20 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="94" t="s">
+      <c r="A4" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="95"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="6">
         <v>0.42099999999999999</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="94" t="s">
+      <c r="F4" s="102" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="95"/>
+      <c r="G4" s="103"/>
       <c r="H4" s="6">
         <v>0.21</v>
       </c>
@@ -26921,20 +27474,20 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="94" t="s">
+      <c r="A5" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="95"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="6">
         <v>5.9499999999999997E-2</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="94" t="s">
+      <c r="F5" s="102" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="95"/>
+      <c r="G5" s="103"/>
       <c r="H5" s="6">
         <v>0.86499999999999999</v>
       </c>
@@ -26943,20 +27496,20 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="96" t="s">
+      <c r="A6" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="97"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="6">
         <v>12</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="94" t="s">
+      <c r="F6" s="102" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="95"/>
+      <c r="G6" s="103"/>
       <c r="H6" s="6">
         <v>0.4844</v>
       </c>
@@ -26965,18 +27518,18 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="104" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="97"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="6">
         <v>0.54</v>
       </c>
       <c r="D7" s="6"/>
-      <c r="F7" s="94" t="s">
+      <c r="F7" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="95"/>
+      <c r="G7" s="103"/>
       <c r="H7" s="6">
         <v>2.3900000000000001E-2</v>
       </c>

--- a/Pintle/Pintle Injector Design Documentation/Pintle_V3_python_hand_calcs.xlsx
+++ b/Pintle/Pintle Injector Design Documentation/Pintle_V3_python_hand_calcs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jntil\Documents\Git_Repos\liquid-engine-test-stand\Pintle\Pintle Injector Design Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9286DFA-4810-448D-B618-7738361620E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D69A4B-5DE2-4984-8543-F8B4B7CE6D08}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15525" yWindow="1290" windowWidth="6630" windowHeight="7770" firstSheet="11" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="11640" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Injector V3 mjp T4A" sheetId="8" r:id="rId1"/>
@@ -1368,20 +1368,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="18" fillId="44" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1407,6 +1401,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="48" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="44" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1819,20 +1819,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="101"/>
+      <c r="G1" s="114"/>
       <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
@@ -1929,10 +1929,10 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="105"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="6">
         <v>12</v>
       </c>
@@ -1951,10 +1951,10 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="105"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="7">
         <v>0.57613333318776305</v>
       </c>
@@ -2016,41 +2016,41 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="108" t="s">
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="109"/>
-      <c r="T11" s="109"/>
-      <c r="U11" s="109"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="114" t="s">
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="108"/>
+      <c r="W11" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="X11" s="114"/>
-      <c r="Y11" s="114"/>
-      <c r="Z11" s="114"/>
-      <c r="AA11" s="114"/>
-      <c r="AB11" s="114"/>
-      <c r="AC11" s="114"/>
+      <c r="X11" s="112"/>
+      <c r="Y11" s="112"/>
+      <c r="Z11" s="112"/>
+      <c r="AA11" s="112"/>
+      <c r="AB11" s="112"/>
+      <c r="AC11" s="112"/>
     </row>
     <row r="12" spans="1:29" s="1" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -2651,43 +2651,43 @@
       </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A24" s="107" t="s">
+      <c r="A24" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="107"/>
-      <c r="C24" s="107"/>
-      <c r="D24" s="107"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
-      <c r="G24" s="107"/>
-      <c r="H24" s="107"/>
-      <c r="I24" s="107"/>
-      <c r="J24" s="107"/>
-      <c r="K24" s="107"/>
-      <c r="L24" s="107"/>
-      <c r="M24" s="111" t="s">
+      <c r="B24" s="105"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="105"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="105"/>
+      <c r="K24" s="105"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="N24" s="112"/>
-      <c r="O24" s="112"/>
-      <c r="P24" s="112"/>
-      <c r="Q24" s="112"/>
-      <c r="R24" s="112"/>
-      <c r="S24" s="112"/>
-      <c r="T24" s="112"/>
-      <c r="U24" s="112"/>
-      <c r="V24" s="112"/>
-      <c r="W24" s="112"/>
-      <c r="X24" s="113"/>
-      <c r="Y24" s="114" t="s">
+      <c r="N24" s="110"/>
+      <c r="O24" s="110"/>
+      <c r="P24" s="110"/>
+      <c r="Q24" s="110"/>
+      <c r="R24" s="110"/>
+      <c r="S24" s="110"/>
+      <c r="T24" s="110"/>
+      <c r="U24" s="110"/>
+      <c r="V24" s="110"/>
+      <c r="W24" s="110"/>
+      <c r="X24" s="111"/>
+      <c r="Y24" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="Z24" s="114"/>
-      <c r="AA24" s="114"/>
-      <c r="AB24" s="114"/>
-      <c r="AC24" s="114"/>
-      <c r="AD24" s="114"/>
-      <c r="AE24" s="114"/>
+      <c r="Z24" s="112"/>
+      <c r="AA24" s="112"/>
+      <c r="AB24" s="112"/>
+      <c r="AC24" s="112"/>
+      <c r="AD24" s="112"/>
+      <c r="AE24" s="112"/>
     </row>
     <row r="25" spans="1:31" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
@@ -3362,6 +3362,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="A11:L11"/>
@@ -3370,18 +3382,6 @@
     <mergeCell ref="M24:X24"/>
     <mergeCell ref="W11:AC11"/>
     <mergeCell ref="Y24:AE24"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3417,20 +3417,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="101"/>
+      <c r="G1" s="114"/>
       <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
@@ -3527,10 +3527,10 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="105"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="6">
         <v>12</v>
       </c>
@@ -3549,10 +3549,10 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="105"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="6">
         <v>0.54</v>
       </c>
@@ -3628,18 +3628,18 @@
       <c r="J11" s="125"/>
       <c r="K11" s="125"/>
       <c r="L11" s="125"/>
-      <c r="M11" s="108" t="s">
+      <c r="M11" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="109"/>
-      <c r="T11" s="109"/>
-      <c r="U11" s="109"/>
-      <c r="V11" s="110"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="108"/>
     </row>
     <row r="12" spans="1:22" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -6649,6 +6649,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="M11:V11"/>
+    <mergeCell ref="A47:L47"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="M47:X47"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="A7:B7"/>
@@ -6657,16 +6667,6 @@
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="M11:V11"/>
-    <mergeCell ref="A47:L47"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="M47:X47"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6694,10 +6694,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
@@ -6754,10 +6754,10 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="105"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="6">
         <v>12</v>
       </c>
@@ -6766,10 +6766,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="105"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="6">
         <v>0.54</v>
       </c>
@@ -9017,12 +9017,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
     <mergeCell ref="A47:B47"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A42:B42"/>
@@ -9030,6 +9024,12 @@
     <mergeCell ref="A44:B44"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -9695,8 +9695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7151EEB2-A148-497B-8F06-60E1B180A556}">
   <dimension ref="A2:AP103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="F74" sqref="F74"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F89" sqref="F88:F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10336,7 +10336,7 @@
         <v>1.5</v>
       </c>
       <c r="AK12" s="99">
-        <f t="shared" ref="AK10:AK12" si="4">AD12+0.02</f>
+        <f t="shared" ref="AK12" si="4">AD12+0.02</f>
         <v>0.14000000000000001</v>
       </c>
       <c r="AL12" s="99">
@@ -10381,7 +10381,7 @@
         <v>4</v>
       </c>
       <c r="I13" s="88">
-        <f t="shared" ref="I13:N13" si="5">B10</f>
+        <f t="shared" ref="I13:M13" si="5">B10</f>
         <v>0.06</v>
       </c>
       <c r="J13" s="88">
@@ -13702,20 +13702,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="101"/>
+      <c r="G1" s="114"/>
       <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
@@ -13812,10 +13812,10 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="105"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="6">
         <v>12</v>
       </c>
@@ -13834,10 +13834,10 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="105"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="7">
         <v>0.53984146967987301</v>
       </c>
@@ -13900,41 +13900,41 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="108" t="s">
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="109"/>
-      <c r="T11" s="109"/>
-      <c r="U11" s="109"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="114" t="s">
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="108"/>
+      <c r="W11" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="X11" s="114"/>
-      <c r="Y11" s="114"/>
-      <c r="Z11" s="114"/>
-      <c r="AA11" s="114"/>
-      <c r="AB11" s="114"/>
-      <c r="AC11" s="114"/>
+      <c r="X11" s="112"/>
+      <c r="Y11" s="112"/>
+      <c r="Z11" s="112"/>
+      <c r="AA11" s="112"/>
+      <c r="AB11" s="112"/>
+      <c r="AC11" s="112"/>
     </row>
     <row r="12" spans="1:29" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -14933,43 +14933,43 @@
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="107" t="s">
+      <c r="A29" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="107"/>
-      <c r="M29" s="111" t="s">
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="N29" s="112"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="112"/>
-      <c r="S29" s="112"/>
-      <c r="T29" s="112"/>
-      <c r="U29" s="112"/>
-      <c r="V29" s="112"/>
-      <c r="W29" s="112"/>
-      <c r="X29" s="113"/>
-      <c r="Y29" s="114" t="s">
+      <c r="N29" s="110"/>
+      <c r="O29" s="110"/>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="110"/>
+      <c r="R29" s="110"/>
+      <c r="S29" s="110"/>
+      <c r="T29" s="110"/>
+      <c r="U29" s="110"/>
+      <c r="V29" s="110"/>
+      <c r="W29" s="110"/>
+      <c r="X29" s="111"/>
+      <c r="Y29" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="Z29" s="114"/>
-      <c r="AA29" s="114"/>
-      <c r="AB29" s="114"/>
-      <c r="AC29" s="114"/>
-      <c r="AD29" s="114"/>
-      <c r="AE29" s="114"/>
+      <c r="Z29" s="112"/>
+      <c r="AA29" s="112"/>
+      <c r="AB29" s="112"/>
+      <c r="AC29" s="112"/>
+      <c r="AD29" s="112"/>
+      <c r="AE29" s="112"/>
     </row>
     <row r="30" spans="1:31" s="1" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
@@ -16016,6 +16016,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="A11:L11"/>
     <mergeCell ref="A29:L29"/>
     <mergeCell ref="M29:X29"/>
@@ -16024,18 +16036,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="W11:AC11"/>
     <mergeCell ref="Y29:AE29"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16067,20 +16067,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="101"/>
+      <c r="G1" s="114"/>
       <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
@@ -16177,10 +16177,10 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="105"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="6">
         <v>12</v>
       </c>
@@ -16199,10 +16199,10 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="105"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="7">
         <v>0.55345091849533101</v>
       </c>
@@ -16265,41 +16265,41 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="108" t="s">
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="109"/>
-      <c r="T11" s="109"/>
-      <c r="U11" s="109"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="114" t="s">
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="108"/>
+      <c r="W11" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="X11" s="114"/>
-      <c r="Y11" s="114"/>
-      <c r="Z11" s="114"/>
-      <c r="AA11" s="114"/>
-      <c r="AB11" s="114"/>
-      <c r="AC11" s="114"/>
+      <c r="X11" s="112"/>
+      <c r="Y11" s="112"/>
+      <c r="Z11" s="112"/>
+      <c r="AA11" s="112"/>
+      <c r="AB11" s="112"/>
+      <c r="AC11" s="112"/>
     </row>
     <row r="12" spans="1:29" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -17250,43 +17250,43 @@
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="107" t="s">
+      <c r="A29" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="107"/>
-      <c r="M29" s="111" t="s">
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="N29" s="112"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="112"/>
-      <c r="S29" s="112"/>
-      <c r="T29" s="112"/>
-      <c r="U29" s="112"/>
-      <c r="V29" s="112"/>
-      <c r="W29" s="112"/>
-      <c r="X29" s="113"/>
-      <c r="Y29" s="114" t="s">
+      <c r="N29" s="110"/>
+      <c r="O29" s="110"/>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="110"/>
+      <c r="R29" s="110"/>
+      <c r="S29" s="110"/>
+      <c r="T29" s="110"/>
+      <c r="U29" s="110"/>
+      <c r="V29" s="110"/>
+      <c r="W29" s="110"/>
+      <c r="X29" s="111"/>
+      <c r="Y29" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="Z29" s="114"/>
-      <c r="AA29" s="114"/>
-      <c r="AB29" s="114"/>
-      <c r="AC29" s="114"/>
-      <c r="AD29" s="114"/>
-      <c r="AE29" s="114"/>
+      <c r="Z29" s="112"/>
+      <c r="AA29" s="112"/>
+      <c r="AB29" s="112"/>
+      <c r="AC29" s="112"/>
+      <c r="AD29" s="112"/>
+      <c r="AE29" s="112"/>
     </row>
     <row r="30" spans="1:31" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
@@ -18333,6 +18333,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="M11:V11"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="M29:X29"/>
+    <mergeCell ref="Y29:AE29"/>
+    <mergeCell ref="W11:AC11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="A4:B4"/>
@@ -18341,18 +18353,6 @@
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="M11:V11"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="M29:X29"/>
-    <mergeCell ref="Y29:AE29"/>
-    <mergeCell ref="W11:AC11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -18384,20 +18384,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="101"/>
+      <c r="G1" s="114"/>
       <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
@@ -18494,10 +18494,10 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="105"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="6">
         <v>12</v>
       </c>
@@ -18516,10 +18516,10 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="105"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="7">
         <v>0.53984146967987301</v>
       </c>
@@ -18582,41 +18582,41 @@
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A11" s="106" t="s">
+      <c r="A11" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
-      <c r="J11" s="106"/>
-      <c r="K11" s="106"/>
-      <c r="L11" s="106"/>
-      <c r="M11" s="108" t="s">
+      <c r="B11" s="104"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="104"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="104"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="104"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="109"/>
-      <c r="T11" s="109"/>
-      <c r="U11" s="109"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="114" t="s">
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="108"/>
+      <c r="W11" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="X11" s="114"/>
-      <c r="Y11" s="114"/>
-      <c r="Z11" s="114"/>
-      <c r="AA11" s="114"/>
-      <c r="AB11" s="114"/>
-      <c r="AC11" s="114"/>
+      <c r="X11" s="112"/>
+      <c r="Y11" s="112"/>
+      <c r="Z11" s="112"/>
+      <c r="AA11" s="112"/>
+      <c r="AB11" s="112"/>
+      <c r="AC11" s="112"/>
     </row>
     <row r="12" spans="1:29" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -19547,43 +19547,43 @@
       </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A29" s="107" t="s">
+      <c r="A29" s="105" t="s">
         <v>56</v>
       </c>
-      <c r="B29" s="107"/>
-      <c r="C29" s="107"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="107"/>
-      <c r="M29" s="111" t="s">
+      <c r="B29" s="105"/>
+      <c r="C29" s="105"/>
+      <c r="D29" s="105"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="105"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="105"/>
+      <c r="K29" s="105"/>
+      <c r="L29" s="105"/>
+      <c r="M29" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="N29" s="112"/>
-      <c r="O29" s="112"/>
-      <c r="P29" s="112"/>
-      <c r="Q29" s="112"/>
-      <c r="R29" s="112"/>
-      <c r="S29" s="112"/>
-      <c r="T29" s="112"/>
-      <c r="U29" s="112"/>
-      <c r="V29" s="112"/>
-      <c r="W29" s="112"/>
-      <c r="X29" s="113"/>
-      <c r="Y29" s="114" t="s">
+      <c r="N29" s="110"/>
+      <c r="O29" s="110"/>
+      <c r="P29" s="110"/>
+      <c r="Q29" s="110"/>
+      <c r="R29" s="110"/>
+      <c r="S29" s="110"/>
+      <c r="T29" s="110"/>
+      <c r="U29" s="110"/>
+      <c r="V29" s="110"/>
+      <c r="W29" s="110"/>
+      <c r="X29" s="111"/>
+      <c r="Y29" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="Z29" s="114"/>
-      <c r="AA29" s="114"/>
-      <c r="AB29" s="114"/>
-      <c r="AC29" s="114"/>
-      <c r="AD29" s="114"/>
-      <c r="AE29" s="114"/>
+      <c r="Z29" s="112"/>
+      <c r="AA29" s="112"/>
+      <c r="AB29" s="112"/>
+      <c r="AC29" s="112"/>
+      <c r="AD29" s="112"/>
+      <c r="AE29" s="112"/>
     </row>
     <row r="30" spans="1:31" s="1" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
@@ -20604,6 +20604,18 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="M29:X29"/>
     <mergeCell ref="A29:L29"/>
     <mergeCell ref="M11:V11"/>
@@ -20612,18 +20624,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="W11:AC11"/>
     <mergeCell ref="Y29:AE29"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -20654,20 +20654,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="101"/>
+      <c r="G1" s="114"/>
       <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
@@ -20764,10 +20764,10 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="105"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="6">
         <v>12</v>
       </c>
@@ -20786,10 +20786,10 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="105"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="7">
         <v>0.36291863507890598</v>
       </c>
@@ -20866,27 +20866,27 @@
       <c r="J11" s="116"/>
       <c r="K11" s="116"/>
       <c r="L11" s="117"/>
-      <c r="M11" s="108" t="s">
+      <c r="M11" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="109"/>
-      <c r="T11" s="109"/>
-      <c r="U11" s="109"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="114" t="s">
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="108"/>
+      <c r="W11" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="X11" s="114"/>
-      <c r="Y11" s="114"/>
-      <c r="Z11" s="114"/>
-      <c r="AA11" s="114"/>
-      <c r="AB11" s="114"/>
-      <c r="AC11" s="114"/>
+      <c r="X11" s="112"/>
+      <c r="Y11" s="112"/>
+      <c r="Z11" s="112"/>
+      <c r="AA11" s="112"/>
+      <c r="AB11" s="112"/>
+      <c r="AC11" s="112"/>
     </row>
     <row r="12" spans="1:29" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -21665,29 +21665,29 @@
       <c r="J26" s="118"/>
       <c r="K26" s="118"/>
       <c r="L26" s="119"/>
-      <c r="M26" s="111" t="s">
+      <c r="M26" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="N26" s="112"/>
-      <c r="O26" s="112"/>
-      <c r="P26" s="112"/>
-      <c r="Q26" s="112"/>
-      <c r="R26" s="112"/>
-      <c r="S26" s="112"/>
-      <c r="T26" s="112"/>
-      <c r="U26" s="112"/>
-      <c r="V26" s="112"/>
-      <c r="W26" s="112"/>
-      <c r="X26" s="113"/>
-      <c r="Y26" s="114" t="s">
+      <c r="N26" s="110"/>
+      <c r="O26" s="110"/>
+      <c r="P26" s="110"/>
+      <c r="Q26" s="110"/>
+      <c r="R26" s="110"/>
+      <c r="S26" s="110"/>
+      <c r="T26" s="110"/>
+      <c r="U26" s="110"/>
+      <c r="V26" s="110"/>
+      <c r="W26" s="110"/>
+      <c r="X26" s="111"/>
+      <c r="Y26" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="Z26" s="114"/>
-      <c r="AA26" s="114"/>
-      <c r="AB26" s="114"/>
-      <c r="AC26" s="114"/>
-      <c r="AD26" s="114"/>
-      <c r="AE26" s="114"/>
+      <c r="Z26" s="112"/>
+      <c r="AA26" s="112"/>
+      <c r="AB26" s="112"/>
+      <c r="AC26" s="112"/>
+      <c r="AD26" s="112"/>
+      <c r="AE26" s="112"/>
     </row>
     <row r="27" spans="1:31" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
@@ -22710,18 +22710,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F6:G6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="A11:L11"/>
@@ -22730,6 +22718,18 @@
     <mergeCell ref="M26:X26"/>
     <mergeCell ref="W11:AC11"/>
     <mergeCell ref="Y26:AE26"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -22760,20 +22760,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="101"/>
+      <c r="G1" s="114"/>
       <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
@@ -22870,10 +22870,10 @@
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="105"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="6">
         <v>12</v>
       </c>
@@ -22892,10 +22892,10 @@
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="105"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="7">
         <v>0.36291863507890598</v>
       </c>
@@ -22971,27 +22971,27 @@
       <c r="J11" s="116"/>
       <c r="K11" s="116"/>
       <c r="L11" s="117"/>
-      <c r="M11" s="108" t="s">
+      <c r="M11" s="106" t="s">
         <v>65</v>
       </c>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="109"/>
-      <c r="T11" s="109"/>
-      <c r="U11" s="109"/>
-      <c r="V11" s="110"/>
-      <c r="W11" s="114" t="s">
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="108"/>
+      <c r="W11" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="X11" s="114"/>
-      <c r="Y11" s="114"/>
-      <c r="Z11" s="114"/>
-      <c r="AA11" s="114"/>
-      <c r="AB11" s="114"/>
-      <c r="AC11" s="114"/>
+      <c r="X11" s="112"/>
+      <c r="Y11" s="112"/>
+      <c r="Z11" s="112"/>
+      <c r="AA11" s="112"/>
+      <c r="AB11" s="112"/>
+      <c r="AC11" s="112"/>
     </row>
     <row r="12" spans="1:29" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -24100,29 +24100,29 @@
       <c r="J31" s="118"/>
       <c r="K31" s="118"/>
       <c r="L31" s="119"/>
-      <c r="M31" s="111" t="s">
+      <c r="M31" s="109" t="s">
         <v>66</v>
       </c>
-      <c r="N31" s="112"/>
-      <c r="O31" s="112"/>
-      <c r="P31" s="112"/>
-      <c r="Q31" s="112"/>
-      <c r="R31" s="112"/>
-      <c r="S31" s="112"/>
-      <c r="T31" s="112"/>
-      <c r="U31" s="112"/>
-      <c r="V31" s="112"/>
-      <c r="W31" s="112"/>
-      <c r="X31" s="113"/>
-      <c r="Y31" s="114" t="s">
+      <c r="N31" s="110"/>
+      <c r="O31" s="110"/>
+      <c r="P31" s="110"/>
+      <c r="Q31" s="110"/>
+      <c r="R31" s="110"/>
+      <c r="S31" s="110"/>
+      <c r="T31" s="110"/>
+      <c r="U31" s="110"/>
+      <c r="V31" s="110"/>
+      <c r="W31" s="110"/>
+      <c r="X31" s="111"/>
+      <c r="Y31" s="112" t="s">
         <v>88</v>
       </c>
-      <c r="Z31" s="114"/>
-      <c r="AA31" s="114"/>
-      <c r="AB31" s="114"/>
-      <c r="AC31" s="114"/>
-      <c r="AD31" s="114"/>
-      <c r="AE31" s="114"/>
+      <c r="Z31" s="112"/>
+      <c r="AA31" s="112"/>
+      <c r="AB31" s="112"/>
+      <c r="AC31" s="112"/>
+      <c r="AD31" s="112"/>
+      <c r="AE31" s="112"/>
     </row>
     <row r="32" spans="1:31" s="1" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A32" s="22" t="s">
@@ -25145,6 +25145,14 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="F3:G3"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="F5:G5"/>
     <mergeCell ref="A6:B6"/>
@@ -25157,14 +25165,6 @@
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="W11:AC11"/>
     <mergeCell ref="Y31:AE31"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="F3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -25519,20 +25519,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="101"/>
+      <c r="G1" s="114"/>
       <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
@@ -25629,10 +25629,10 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="105"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="6">
         <v>12</v>
       </c>
@@ -25651,10 +25651,10 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="105"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="7">
         <v>0.235897112801289</v>
       </c>
@@ -25730,18 +25730,18 @@
       <c r="J11" s="123"/>
       <c r="K11" s="123"/>
       <c r="L11" s="124"/>
-      <c r="M11" s="108" t="s">
+      <c r="M11" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="N11" s="109"/>
-      <c r="O11" s="109"/>
-      <c r="P11" s="109"/>
-      <c r="Q11" s="109"/>
-      <c r="R11" s="109"/>
-      <c r="S11" s="109"/>
-      <c r="T11" s="109"/>
-      <c r="U11" s="109"/>
-      <c r="V11" s="110"/>
+      <c r="N11" s="107"/>
+      <c r="O11" s="107"/>
+      <c r="P11" s="107"/>
+      <c r="Q11" s="107"/>
+      <c r="R11" s="107"/>
+      <c r="S11" s="107"/>
+      <c r="T11" s="107"/>
+      <c r="U11" s="107"/>
+      <c r="V11" s="108"/>
     </row>
     <row r="12" spans="1:22" s="1" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
@@ -27340,24 +27340,24 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="M11:V11"/>
+    <mergeCell ref="M29:X29"/>
+    <mergeCell ref="A11:L11"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="F6:G6"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="F1:G1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="F3:G3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="M11:V11"/>
-    <mergeCell ref="M29:X29"/>
-    <mergeCell ref="A11:L11"/>
-    <mergeCell ref="A29:L29"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -27386,20 +27386,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="100" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="101"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="113" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="101"/>
+      <c r="G1" s="114"/>
       <c r="H1" s="8" t="s">
         <v>1</v>
       </c>
@@ -27496,10 +27496,10 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="104" t="s">
+      <c r="A6" s="100" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="105"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="6">
         <v>12</v>
       </c>
@@ -27518,10 +27518,10 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="104" t="s">
+      <c r="A7" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="105"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="6">
         <v>0.54</v>
       </c>
